--- a/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
+++ b/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\RedHaloM2B_Lib\RedHaloM2B_Lib\ParamBlock2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067724D0-CB23-4774-9109-4163E8379A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2F4CC6-CF40-4740-8CBE-17276B87C60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23625" yWindow="2940" windowWidth="27105" windowHeight="18450" tabRatio="706" firstSheet="20" activeTab="27" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
+    <workbookView xWindow="13875" yWindow="3990" windowWidth="27105" windowHeight="13710" tabRatio="706" firstSheet="21" activeTab="28" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
   </bookViews>
   <sheets>
     <sheet name="Checker" sheetId="6" r:id="rId1"/>
@@ -41,14 +41,15 @@
     <sheet name="VRayLightMtl" sheetId="27" r:id="rId26"/>
     <sheet name="CoronaLightMtl" sheetId="28" r:id="rId27"/>
     <sheet name="StandardMtl" sheetId="29" r:id="rId28"/>
-    <sheet name="Color Map (21)" sheetId="30" r:id="rId29"/>
+    <sheet name="VRayCarPaintMtl2" sheetId="30" r:id="rId29"/>
+    <sheet name="Color Map (22)" sheetId="32" r:id="rId30"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bitmap!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checker!$A$3:$A$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Color Correction'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Color Map'!$A$2:$A$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">'Color Map (21)'!$A$2:$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">'Color Map (22)'!$A$2:$A$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">Composite!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">CoronaAO!$A$2:$A$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">CoronaBumpConverter!$A$2:$A$4</definedName>
@@ -66,6 +67,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">StandardMtl!$A$2:$A$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">VRayBitmap!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">VRayBump2Normal!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">VRayCarPaintMtl2!$A$2:$A$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">VRayColor!$A$2:$A$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">VRayColor2Bump!$A$2:$A$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">VRayCompTex!$A$2:$A$5</definedName>
@@ -84,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2062" uniqueCount="838">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="899">
   <si>
     <t>soften</t>
   </si>
@@ -2609,6 +2611,189 @@
   </si>
   <si>
     <t>slidingFriction</t>
+  </si>
+  <si>
+    <t>base_color</t>
+  </si>
+  <si>
+    <t>base_color_shortmap</t>
+  </si>
+  <si>
+    <t>base_reflection</t>
+  </si>
+  <si>
+    <t>base_reflection_shortmap</t>
+  </si>
+  <si>
+    <t>base_glossiness</t>
+  </si>
+  <si>
+    <t>base_glossiness_shortmap</t>
+  </si>
+  <si>
+    <t>base_glossiness_tail</t>
+  </si>
+  <si>
+    <t>base_glossiness_tail_shortmap</t>
+  </si>
+  <si>
+    <t>base_trace_reflections</t>
+  </si>
+  <si>
+    <t>flake_color</t>
+  </si>
+  <si>
+    <t>flake_color_shortmap</t>
+  </si>
+  <si>
+    <t>flake_random_color</t>
+  </si>
+  <si>
+    <t>flake_orientation</t>
+  </si>
+  <si>
+    <t>flake_orientation_shortmap</t>
+  </si>
+  <si>
+    <t>flake_orientation_tail</t>
+  </si>
+  <si>
+    <t>flake_glossiness</t>
+  </si>
+  <si>
+    <t>flake_density</t>
+  </si>
+  <si>
+    <t>flake_uv_map_scale</t>
+  </si>
+  <si>
+    <t>flake_triplanar_map_scale</t>
+  </si>
+  <si>
+    <t>flake_size</t>
+  </si>
+  <si>
+    <t>flake_seed</t>
+  </si>
+  <si>
+    <t>flake_map_size</t>
+  </si>
+  <si>
+    <t>flake_bin_subdivs</t>
+  </si>
+  <si>
+    <t>flake_mapping_type</t>
+  </si>
+  <si>
+    <t>flake_map_channel</t>
+  </si>
+  <si>
+    <t>flake_trace_reflections</t>
+  </si>
+  <si>
+    <t>coat_color_shortmap</t>
+  </si>
+  <si>
+    <t>coat_amount_shortmap</t>
+  </si>
+  <si>
+    <t>coat_ior_shortmap</t>
+  </si>
+  <si>
+    <t>coat_glossiness_shortmap</t>
+  </si>
+  <si>
+    <t>coat_trace_reflections</t>
+  </si>
+  <si>
+    <t>trace_reflections</t>
+  </si>
+  <si>
+    <t>max_reflection_depth</t>
+  </si>
+  <si>
+    <t>cutoff_threshold</t>
+  </si>
+  <si>
+    <t>environment_priority</t>
+  </si>
+  <si>
+    <t>texmap_base_color</t>
+  </si>
+  <si>
+    <t>texmap_base_color_on</t>
+  </si>
+  <si>
+    <t>texmap_base_color_multiplier</t>
+  </si>
+  <si>
+    <t>texmap_base_reflection</t>
+  </si>
+  <si>
+    <t>texmap_base_reflection_on</t>
+  </si>
+  <si>
+    <t>texmap_base_reflection_multiplier</t>
+  </si>
+  <si>
+    <t>texmap_base_glossiness</t>
+  </si>
+  <si>
+    <t>texmap_base_glossiness_on</t>
+  </si>
+  <si>
+    <t>texmap_base_glossiness_multiplier</t>
+  </si>
+  <si>
+    <t>texmap_base_glossiness_tail</t>
+  </si>
+  <si>
+    <t>texmap_base_glossiness_tail_on</t>
+  </si>
+  <si>
+    <t>texmap_base_glossiness_tail_multiplier</t>
+  </si>
+  <si>
+    <t>texmap_base_bump</t>
+  </si>
+  <si>
+    <t>texmap_base_bump_on</t>
+  </si>
+  <si>
+    <t>texmap_base_bump_multiplier</t>
+  </si>
+  <si>
+    <t>texmap_flake_color</t>
+  </si>
+  <si>
+    <t>texmap_flake_color_on</t>
+  </si>
+  <si>
+    <t>texmap_flake_color_multiplier</t>
+  </si>
+  <si>
+    <t>texmap_flake_random_color</t>
+  </si>
+  <si>
+    <t>texmap_flake_random_color_on</t>
+  </si>
+  <si>
+    <t>texmap_flake_random_color_multiplier</t>
+  </si>
+  <si>
+    <t>texmap_flake_orientation</t>
+  </si>
+  <si>
+    <t>texmap_flake_orientation_on</t>
+  </si>
+  <si>
+    <t>texmap_flake_orientation_multiplier</t>
+  </si>
+  <si>
+    <t>texmap_environment_override</t>
+  </si>
+  <si>
+    <t>texmap_environment_override_on</t>
   </si>
 </sst>
 </file>
@@ -2865,23 +3050,69 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="181">
+  <dxfs count="187">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4569,202 +4800,202 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}" name="表2" displayName="表2" ref="A2:D18" totalsRowShown="0" headerRowDxfId="180" headerRowBorderDxfId="179" tableBorderDxfId="178" totalsRowBorderDxfId="177">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}" name="表2" displayName="表2" ref="A2:D18" totalsRowShown="0" headerRowDxfId="186" headerRowBorderDxfId="185" tableBorderDxfId="184" totalsRowBorderDxfId="183">
   <autoFilter ref="A2:D18" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2D41582E-7698-4D96-B381-E70F10A1DC8F}" name="main" dataDxfId="176"/>
-    <tableColumn id="2" xr3:uid="{251B123A-D391-4C42-A03C-DDA697EA139B}" name="branch" dataDxfId="175"/>
-    <tableColumn id="3" xr3:uid="{A937446C-F8DF-404A-8C19-2C649D8F1BEB}" name="type" dataDxfId="174"/>
-    <tableColumn id="4" xr3:uid="{206B0CBC-2C23-4005-9413-91FFD450242E}" name="param name" dataDxfId="173"/>
+    <tableColumn id="1" xr3:uid="{2D41582E-7698-4D96-B381-E70F10A1DC8F}" name="main" dataDxfId="182"/>
+    <tableColumn id="2" xr3:uid="{251B123A-D391-4C42-A03C-DDA697EA139B}" name="branch" dataDxfId="181"/>
+    <tableColumn id="3" xr3:uid="{A937446C-F8DF-404A-8C19-2C649D8F1BEB}" name="type" dataDxfId="180"/>
+    <tableColumn id="4" xr3:uid="{206B0CBC-2C23-4005-9413-91FFD450242E}" name="param name" dataDxfId="179"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D88250FB-0DB3-424D-A24A-D8261708B2E3}" name="表6_892" displayName="表6_892" ref="A1:D46" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D88250FB-0DB3-424D-A24A-D8261708B2E3}" name="表6_892" displayName="表6_892" ref="A1:D46" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:D46" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ABC109BE-05F7-45FC-B28E-A25F56785127}" name="main" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{98C68B2C-8456-453F-ABDC-E94E9B8D474D}" name="branch" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{73ACFFB3-7807-4088-807D-88470729B2BA}" name="type" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{320F409E-253F-4260-8467-E0D287495D07}" name="param name" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{ABC109BE-05F7-45FC-B28E-A25F56785127}" name="main" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{98C68B2C-8456-453F-ABDC-E94E9B8D474D}" name="branch" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{73ACFFB3-7807-4088-807D-88470729B2BA}" name="type" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{320F409E-253F-4260-8467-E0D287495D07}" name="param name" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4B0AB83-5BB3-4AD6-9F5A-8C690B2DA3FE}" name="表6_89212" displayName="表6_89212" ref="A1:D13" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4B0AB83-5BB3-4AD6-9F5A-8C690B2DA3FE}" name="表6_89212" displayName="表6_89212" ref="A1:D13" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A1:D13" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{25807113-C158-42E7-8892-EDA341B2D700}" name="main" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{821DBFB3-8F0C-4625-9C08-E53307BC75E4}" name="branch" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{9138AA34-C209-41F6-A065-D789CE7DFF08}" name="type" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{FBACDFD2-4E34-4DC7-99FF-33D8FF23E785}" name="param name" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{25807113-C158-42E7-8892-EDA341B2D700}" name="main" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{821DBFB3-8F0C-4625-9C08-E53307BC75E4}" name="branch" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{9138AA34-C209-41F6-A065-D789CE7DFF08}" name="type" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{FBACDFD2-4E34-4DC7-99FF-33D8FF23E785}" name="param name" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{753F4B04-15DB-4DDB-B21D-C7A8F3C7E798}" name="表6_8921213" displayName="表6_8921213" ref="A1:D5" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{753F4B04-15DB-4DDB-B21D-C7A8F3C7E798}" name="表6_8921213" displayName="表6_8921213" ref="A1:D5" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A1:D5" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BB4AA73D-1ED5-448B-9AE3-FE865C983D39}" name="main" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{EB99AB73-8FDC-45BF-B0A0-8377793F09C3}" name="branch" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{991EAF0A-5DA2-439D-9FAB-9DEFD89077A0}" name="type" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{D18C9DB0-8246-4734-A938-2CB4F7229F15}" name="param name" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{BB4AA73D-1ED5-448B-9AE3-FE865C983D39}" name="main" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{EB99AB73-8FDC-45BF-B0A0-8377793F09C3}" name="branch" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{991EAF0A-5DA2-439D-9FAB-9DEFD89077A0}" name="type" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{D18C9DB0-8246-4734-A938-2CB4F7229F15}" name="param name" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A24E004E-4EBE-490C-9AAB-ED6960D629C9}" name="表6_892121314" displayName="表6_892121314" ref="A1:D4" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A24E004E-4EBE-490C-9AAB-ED6960D629C9}" name="表6_892121314" displayName="表6_892121314" ref="A1:D4" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A1:D4" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA2F9135-19FD-41FF-A0BD-E19EDE35978C}" name="main" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{9A0AF032-2605-41F3-87D5-7A2191868ADF}" name="branch" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{39447203-25E4-4E57-BB37-9154C8CD7663}" name="type" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{BF6E1539-2F98-444C-9F1B-1DD9890B3898}" name="param name" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{DA2F9135-19FD-41FF-A0BD-E19EDE35978C}" name="main" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{9A0AF032-2605-41F3-87D5-7A2191868ADF}" name="branch" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{39447203-25E4-4E57-BB37-9154C8CD7663}" name="type" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{BF6E1539-2F98-444C-9F1B-1DD9890B3898}" name="param name" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{64A915F8-A0A7-42F8-B358-548E26A2D261}" name="表6_89212131415" displayName="表6_89212131415" ref="A1:D14" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{64A915F8-A0A7-42F8-B358-548E26A2D261}" name="表6_89212131415" displayName="表6_89212131415" ref="A1:D14" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A1:D14" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AE618ED7-34F9-45C9-BA6E-0E28742D773C}" name="main" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{B312A00E-85C1-49DD-9CE3-820C1CB05E6B}" name="branch" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{2EB76E35-76BD-4322-995B-7CC45A5F5D7F}" name="type" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{2C20F636-3553-402B-A09E-80722A9BC84D}" name="param name" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{AE618ED7-34F9-45C9-BA6E-0E28742D773C}" name="main" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{B312A00E-85C1-49DD-9CE3-820C1CB05E6B}" name="branch" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{2EB76E35-76BD-4322-995B-7CC45A5F5D7F}" name="type" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{2C20F636-3553-402B-A09E-80722A9BC84D}" name="param name" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1E359F77-2531-471D-845D-73EFCC64E0D2}" name="表6_8921213141516" displayName="表6_8921213141516" ref="A1:D5" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1E359F77-2531-471D-845D-73EFCC64E0D2}" name="表6_8921213141516" displayName="表6_8921213141516" ref="A1:D5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:D5" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FB220119-4281-4340-9ED2-A909BBE6E90D}" name="main" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{971A8DB4-253F-4CF6-B1A5-EA9E84F48414}" name="branch" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{6AC24398-79B4-4841-9B11-810FCBE7D7C3}" name="type" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{50E6A130-B526-4708-AAF2-7F8C5114E8CC}" name="param name" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{FB220119-4281-4340-9ED2-A909BBE6E90D}" name="main" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{971A8DB4-253F-4CF6-B1A5-EA9E84F48414}" name="branch" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{6AC24398-79B4-4841-9B11-810FCBE7D7C3}" name="type" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{50E6A130-B526-4708-AAF2-7F8C5114E8CC}" name="param name" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{80AE85AD-776D-48D8-A9E0-8B5B99241A3D}" name="表6_892121314151617" displayName="表6_892121314151617" ref="A1:D20" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{80AE85AD-776D-48D8-A9E0-8B5B99241A3D}" name="表6_892121314151617" displayName="表6_892121314151617" ref="A1:D20" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:D20" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{77C5EFED-826E-40DE-9792-058A0219DB93}" name="main" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{EA04F042-A666-406F-9CE5-B964EFAFB6B1}" name="branch" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{F6F48581-298A-48A6-A7B1-5FD41B41DC85}" name="type" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{EEF330D9-79F5-4056-BECF-2EA208B917DF}" name="param name" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{77C5EFED-826E-40DE-9792-058A0219DB93}" name="main" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{EA04F042-A666-406F-9CE5-B964EFAFB6B1}" name="branch" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{F6F48581-298A-48A6-A7B1-5FD41B41DC85}" name="type" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{EEF330D9-79F5-4056-BECF-2EA208B917DF}" name="param name" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{360A56DC-C9FB-415A-B518-D87DC3B610D8}" name="表6_89212131415161718" displayName="表6_89212131415161718" ref="A1:D16" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{360A56DC-C9FB-415A-B518-D87DC3B610D8}" name="表6_89212131415161718" displayName="表6_89212131415161718" ref="A1:D16" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:D16" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85FA0DE5-1500-4EB3-ADE2-11B529A34F3E}" name="main" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{82545C75-76EC-4363-9BE1-A1A76F81F275}" name="branch" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{96012611-D136-4234-9E88-5E00A17FA8B6}" name="type" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{7F3EEAA8-584A-41EC-A828-940B22BF5A4C}" name="param name" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{85FA0DE5-1500-4EB3-ADE2-11B529A34F3E}" name="main" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{82545C75-76EC-4363-9BE1-A1A76F81F275}" name="branch" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{96012611-D136-4234-9E88-5E00A17FA8B6}" name="type" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{7F3EEAA8-584A-41EC-A828-940B22BF5A4C}" name="param name" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{62FF6596-CF2A-4221-B9C6-1D41646ED98D}" name="表6_8921213141516171819" displayName="表6_8921213141516171819" ref="A1:D11" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{62FF6596-CF2A-4221-B9C6-1D41646ED98D}" name="表6_8921213141516171819" displayName="表6_8921213141516171819" ref="A1:D11" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:D11" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5F5F8E61-AEE4-4628-9B8A-424994708189}" name="main" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{EA68617E-47E4-4E7D-A312-90D0F2B1DC4D}" name="branch" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{794F68D4-D909-4EA8-962B-E2DC37B9E1B2}" name="type" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{BBC5FF7F-2A9F-48F7-9353-D959DA37CFB0}" name="param name" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{5F5F8E61-AEE4-4628-9B8A-424994708189}" name="main" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{EA68617E-47E4-4E7D-A312-90D0F2B1DC4D}" name="branch" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{794F68D4-D909-4EA8-962B-E2DC37B9E1B2}" name="type" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{BBC5FF7F-2A9F-48F7-9353-D959DA37CFB0}" name="param name" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{99C98499-87F2-4A00-A5C6-42867A84C518}" name="表6_892121314151617181920" displayName="表6_892121314151617181920" ref="A1:D32" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{99C98499-87F2-4A00-A5C6-42867A84C518}" name="表6_892121314151617181920" displayName="表6_892121314151617181920" ref="A1:D32" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:D32" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6473C8AB-4511-4780-902D-44FF22FA9125}" name="main" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{5336CBC3-0465-44E6-842C-F8FB29DE5B60}" name="branch" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{678157D5-4DF4-42B9-BEBA-9F11FAA70230}" name="type" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{A3CD0A63-3E60-4690-8303-684CF295A686}" name="param name" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{6473C8AB-4511-4780-902D-44FF22FA9125}" name="main" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{5336CBC3-0465-44E6-842C-F8FB29DE5B60}" name="branch" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{678157D5-4DF4-42B9-BEBA-9F11FAA70230}" name="type" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{A3CD0A63-3E60-4690-8303-684CF295A686}" name="param name" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}" name="表3" displayName="表3" ref="A1:D22" totalsRowShown="0" headerRowDxfId="172" dataDxfId="170" headerRowBorderDxfId="171" tableBorderDxfId="169" totalsRowBorderDxfId="168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}" name="表3" displayName="表3" ref="A1:D22" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177" tableBorderDxfId="175" totalsRowBorderDxfId="174">
   <autoFilter ref="A1:D22" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A9C5E782-2908-495B-BC1E-48E2FD18AEE0}" name="main" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{5470BF63-58F6-4E58-9D4F-C002B557215E}" name="branch" dataDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{90636DC2-3EDA-473A-801B-DF14180D5E8D}" name="type" dataDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{73405289-D597-4AE2-A24C-A23D026B4D06}" name="param name" dataDxfId="164"/>
+    <tableColumn id="1" xr3:uid="{A9C5E782-2908-495B-BC1E-48E2FD18AEE0}" name="main" dataDxfId="173"/>
+    <tableColumn id="2" xr3:uid="{5470BF63-58F6-4E58-9D4F-C002B557215E}" name="branch" dataDxfId="172"/>
+    <tableColumn id="3" xr3:uid="{90636DC2-3EDA-473A-801B-DF14180D5E8D}" name="type" dataDxfId="171"/>
+    <tableColumn id="4" xr3:uid="{73405289-D597-4AE2-A24C-A23D026B4D06}" name="param name" dataDxfId="170"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B9092D73-1E82-43D3-BB36-1B82F1AB4C19}" name="表6_89212131415161718192021" displayName="表6_89212131415161718192021" ref="A1:D4" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B9092D73-1E82-43D3-BB36-1B82F1AB4C19}" name="表6_89212131415161718192021" displayName="表6_89212131415161718192021" ref="A1:D4" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:D4" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{446C90BC-EE13-48AF-8953-B0823F1EF424}" name="main" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{A4BE9E1C-DCDF-4035-B22F-975533B7EE8E}" name="branch" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{F066C877-271A-431C-9942-DB3171BA218A}" name="type" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{4DCDA06A-8121-4C10-882B-A92225C0E935}" name="param name" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{446C90BC-EE13-48AF-8953-B0823F1EF424}" name="main" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{A4BE9E1C-DCDF-4035-B22F-975533B7EE8E}" name="branch" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{F066C877-271A-431C-9942-DB3171BA218A}" name="type" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{4DCDA06A-8121-4C10-882B-A92225C0E935}" name="param name" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{A6640308-7007-4510-842B-DAAD60ED3552}" name="表6_8921213141516171819202122" displayName="表6_8921213141516171819202122" ref="A1:D7" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{A6640308-7007-4510-842B-DAAD60ED3552}" name="表6_8921213141516171819202122" displayName="表6_8921213141516171819202122" ref="A1:D7" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:D7" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BE0266B4-0AA2-475C-8D13-DBDF17FE05C3}" name="main" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{E7D086AD-F1E1-47EE-A908-729CC7D1EDB9}" name="branch" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{30879BC5-4F3C-4CE6-81C1-426176CBF96F}" name="type" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{C2372A9E-8322-4203-8AD8-9EF37FB73D2B}" name="param name" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{BE0266B4-0AA2-475C-8D13-DBDF17FE05C3}" name="main" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{E7D086AD-F1E1-47EE-A908-729CC7D1EDB9}" name="branch" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{30879BC5-4F3C-4CE6-81C1-426176CBF96F}" name="type" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{C2372A9E-8322-4203-8AD8-9EF37FB73D2B}" name="param name" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{844A6BA8-C36D-413A-B54D-E7B75700C5B0}" name="表6_892121314151617181920212223" displayName="表6_892121314151617181920212223" ref="A1:D12" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{844A6BA8-C36D-413A-B54D-E7B75700C5B0}" name="表6_892121314151617181920212223" displayName="表6_892121314151617181920212223" ref="A1:D12" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:D12" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EA39BB2F-8FC6-4310-8EB3-E2D37B6D1DE6}" name="main" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{E957548F-271C-40B2-9092-CE9C0E9F6144}" name="branch" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{9382DDB7-EB44-4420-A985-2B29EB05A1AB}" name="type" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{92812206-9544-4249-A90A-3C34475D1723}" name="param name" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{EA39BB2F-8FC6-4310-8EB3-E2D37B6D1DE6}" name="main" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{E957548F-271C-40B2-9092-CE9C0E9F6144}" name="branch" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{9382DDB7-EB44-4420-A985-2B29EB05A1AB}" name="type" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{92812206-9544-4249-A90A-3C34475D1723}" name="param name" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{2AF21F10-51C5-4833-A199-42225D1D6730}" name="表6_89212131415161718192021222324" displayName="表6_89212131415161718192021222324" ref="A1:D228" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{2AF21F10-51C5-4833-A199-42225D1D6730}" name="表6_89212131415161718192021222324" displayName="表6_89212131415161718192021222324" ref="A1:D228" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:D228" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -4776,17 +5007,17 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CEEBD0F-DE94-484C-8FDC-176AF6899DE4}" name="main" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{4748AC76-F26C-4A8E-B7FD-51E3A961A0DB}" name="branch" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{EE6CB704-AFEC-4814-B724-8C974D2C1C4A}" name="type" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{21049C3B-A088-4554-A135-9BFC4E507614}" name="param name" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{1CEEBD0F-DE94-484C-8FDC-176AF6899DE4}" name="main" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{4748AC76-F26C-4A8E-B7FD-51E3A961A0DB}" name="branch" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{EE6CB704-AFEC-4814-B724-8C974D2C1C4A}" name="type" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{21049C3B-A088-4554-A135-9BFC4E507614}" name="param name" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{55BF17C4-35F9-443B-B504-6F8CF153E765}" name="表6_8921213141516171819202122232425" displayName="表6_8921213141516171819202122232425" ref="A1:D128" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{55BF17C4-35F9-443B-B504-6F8CF153E765}" name="表6_8921213141516171819202122232425" displayName="表6_8921213141516171819202122232425" ref="A1:D128" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:D128" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -4802,17 +5033,17 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{67C559A2-2EC4-4EA5-AC44-6F0B83853E07}" name="main" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{5062C9AC-3913-48C1-AACB-3DC177626C6D}" name="branch" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{8D2188A2-6728-48FB-81FE-331F3F410AEA}" name="type" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{7FAF264C-841C-41C7-8F4F-56EDB6D7C8B3}" name="param name" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{67C559A2-2EC4-4EA5-AC44-6F0B83853E07}" name="main" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{5062C9AC-3913-48C1-AACB-3DC177626C6D}" name="branch" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{8D2188A2-6728-48FB-81FE-331F3F410AEA}" name="type" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{7FAF264C-841C-41C7-8F4F-56EDB6D7C8B3}" name="param name" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{8D619451-02A5-419F-AD3C-FE8AECE06AD8}" name="表6_892121314151617181920212223242526" displayName="表6_892121314151617181920212223242526" ref="A1:D148" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{8D619451-02A5-419F-AD3C-FE8AECE06AD8}" name="表6_892121314151617181920212223242526" displayName="表6_892121314151617181920212223242526" ref="A1:D148" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:D148" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -4823,153 +5054,166 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D656239-4345-464E-9E4D-F546800A4D9E}" name="main" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{A403BB16-00B7-4984-91F8-80C98BEDFAE9}" name="branch" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{18F2EC94-873F-4403-9B63-44BA4485862E}" name="type" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{4BF4EB5D-4276-4036-94F4-BD977DD08A32}" name="param name" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{9D656239-4345-464E-9E4D-F546800A4D9E}" name="main" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{A403BB16-00B7-4984-91F8-80C98BEDFAE9}" name="branch" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{18F2EC94-873F-4403-9B63-44BA4485862E}" name="type" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{4BF4EB5D-4276-4036-94F4-BD977DD08A32}" name="param name" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{D77823DB-C201-4E7D-833C-6085CF94DD96}" name="表6_89212131415161718192021222324252627" displayName="表6_89212131415161718192021222324252627" ref="A1:D18" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{D77823DB-C201-4E7D-833C-6085CF94DD96}" name="表6_89212131415161718192021222324252627" displayName="表6_89212131415161718192021222324252627" ref="A1:D18" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:D18" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C99D0936-A00D-473A-9722-7AB9594E93FA}" name="main" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{91ED2A21-20F7-4D7F-8995-D255AD21FD6C}" name="branch" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{704694F5-EE15-4077-A55A-68AB0FC0A262}" name="type" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{EB568756-ADFD-452D-9F00-E142C274E911}" name="param name" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{C99D0936-A00D-473A-9722-7AB9594E93FA}" name="main" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{91ED2A21-20F7-4D7F-8995-D255AD21FD6C}" name="branch" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{704694F5-EE15-4077-A55A-68AB0FC0A262}" name="type" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{EB568756-ADFD-452D-9F00-E142C274E911}" name="param name" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{120987A5-0656-40F2-B4C8-58BDD36818AF}" name="表6_8921213141516171819202122232425262728" displayName="表6_8921213141516171819202122232425262728" ref="A1:D25" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{120987A5-0656-40F2-B4C8-58BDD36818AF}" name="表6_8921213141516171819202122232425262728" displayName="表6_8921213141516171819202122232425262728" ref="A1:D25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:D25" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D3F0BF9B-EF3D-46FD-851B-DE7A8BA6861A}" name="main" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{26734EFB-3A91-4358-8F49-76CD28502CCD}" name="branch" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{21B8E7A3-96A6-4FA8-BF69-2D45AD6CE016}" name="type" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{DFD55D6B-2A70-453A-A9CA-3AC307D52CEB}" name="param name" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{D3F0BF9B-EF3D-46FD-851B-DE7A8BA6861A}" name="main" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{26734EFB-3A91-4358-8F49-76CD28502CCD}" name="branch" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{21B8E7A3-96A6-4FA8-BF69-2D45AD6CE016}" name="type" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{DFD55D6B-2A70-453A-A9CA-3AC307D52CEB}" name="param name" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9E1029A9-E2B6-460A-BDD3-35B9E8EF1A27}" name="表6_892121314151617181920212223242526272829" displayName="表6_892121314151617181920212223242526272829" ref="A1:D37" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9E1029A9-E2B6-460A-BDD3-35B9E8EF1A27}" name="表6_892121314151617181920212223242526272829" displayName="表6_892121314151617181920212223242526272829" ref="A1:D37" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D37" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{202FE0DE-0C42-49BE-8A93-547C5E684986}" name="main" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{1D731C2C-7DC2-450C-A501-23252C619AFE}" name="branch" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{F7069DC3-74B6-41AD-BA7F-D8AD59F0EFD6}" name="type" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{5A9F1D1F-D443-4878-97A8-CA433BC066DD}" name="param name" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{202FE0DE-0C42-49BE-8A93-547C5E684986}" name="main" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{1D731C2C-7DC2-450C-A501-23252C619AFE}" name="branch" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{F7069DC3-74B6-41AD-BA7F-D8AD59F0EFD6}" name="type" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{5A9F1D1F-D443-4878-97A8-CA433BC066DD}" name="param name" dataDxfId="12"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{812EF589-76F5-45DE-814A-25389EF0967B}" name="表6_89212131415161718192021222324252627282930" displayName="表6_89212131415161718192021222324252627282930" ref="A1:D2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{812EF589-76F5-45DE-814A-25389EF0967B}" name="表6_89212131415161718192021222324252627282930" displayName="表6_89212131415161718192021222324252627282930" ref="A1:D86" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D86" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8F1AA2F5-9662-4F90-9B63-332419C63823}" name="main" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{42B506CD-7BCF-42F9-BC3C-1D006F57004F}" name="branch" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{317A53D1-91A1-461D-8658-2B7B138E7753}" name="type" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{D5F70997-D51C-452C-89F1-F64CC91C8011}" name="param name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{8F1AA2F5-9662-4F90-9B63-332419C63823}" name="main" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{42B506CD-7BCF-42F9-BC3C-1D006F57004F}" name="branch" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{317A53D1-91A1-461D-8658-2B7B138E7753}" name="type" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{D5F70997-D51C-452C-89F1-F64CC91C8011}" name="param name" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}" name="表4" displayName="表4" ref="A1:D14" totalsRowShown="0" headerRowDxfId="163" dataDxfId="162">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}" name="表4" displayName="表4" ref="A1:D14" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
   <autoFilter ref="A1:D14" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3808606C-1404-4259-B39E-E1E7A110B5CA}" name="main" dataDxfId="161"/>
-    <tableColumn id="2" xr3:uid="{F328710A-D3E3-4CE0-96F6-91F65F558FA0}" name="branch" dataDxfId="160"/>
-    <tableColumn id="3" xr3:uid="{DFCF2074-8826-4ED3-870D-7F464F5BEA44}" name="type" dataDxfId="159"/>
-    <tableColumn id="4" xr3:uid="{229BF5C0-6908-4BBD-A508-EF45263F6BC0}" name="param name" dataDxfId="158"/>
+    <tableColumn id="1" xr3:uid="{3808606C-1404-4259-B39E-E1E7A110B5CA}" name="main" dataDxfId="167"/>
+    <tableColumn id="2" xr3:uid="{F328710A-D3E3-4CE0-96F6-91F65F558FA0}" name="branch" dataDxfId="166"/>
+    <tableColumn id="3" xr3:uid="{DFCF2074-8826-4ED3-870D-7F464F5BEA44}" name="type" dataDxfId="165"/>
+    <tableColumn id="4" xr3:uid="{229BF5C0-6908-4BBD-A508-EF45263F6BC0}" name="param name" dataDxfId="164"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{1D60048A-C472-4872-AC9D-2379248F9D6F}" name="表6_8921213141516171819202122232425262728293031" displayName="表6_8921213141516171819202122232425262728293031" ref="A1:D2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D7A2469D-F5D2-40F7-BAB6-BA297295D345}" name="main" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{6877823A-086B-468B-83BF-BB42DD98E006}" name="branch" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{37B4F256-51D2-421F-B0A5-2CBFDC7ABAA8}" name="type" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9AC80006-A126-46BA-9F52-749AB1F7286A}" name="param name" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}" name="表5" displayName="表5" ref="A1:D36" totalsRowShown="0" headerRowDxfId="157" headerRowBorderDxfId="156" tableBorderDxfId="155" totalsRowBorderDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}" name="表5" displayName="表5" ref="A1:D36" totalsRowShown="0" headerRowDxfId="163" headerRowBorderDxfId="162" tableBorderDxfId="161" totalsRowBorderDxfId="160">
   <autoFilter ref="A1:D36" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4AE65613-9E32-4B81-B096-3CE2F9469A99}" name="main" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{B9C8132D-EB95-4F97-B376-375C1E78DA2F}" name="branch" dataDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{A1B42A52-7EC8-4E70-A45E-3F416909E1EA}" name="type" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{390F265C-3120-4E30-9A3E-68BE2347C969}" name="param name" dataDxfId="150"/>
+    <tableColumn id="1" xr3:uid="{4AE65613-9E32-4B81-B096-3CE2F9469A99}" name="main" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{B9C8132D-EB95-4F97-B376-375C1E78DA2F}" name="branch" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{A1B42A52-7EC8-4E70-A45E-3F416909E1EA}" name="type" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{390F265C-3120-4E30-9A3E-68BE2347C969}" name="param name" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}" name="表6" displayName="表6" ref="A1:D17" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}" name="表6" displayName="表6" ref="A1:D17" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
   <autoFilter ref="A1:D17" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BAEEF277-80BF-4C16-8215-7CCD39C11565}" name="main" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{45843013-F77E-4A90-AF54-173129A318BC}" name="branch" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{DE07E8D7-AF19-4990-B4EB-FB8A48054E6D}" name="type" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{D87A2779-3B12-41B3-968D-150307DF3484}" name="param name" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{BAEEF277-80BF-4C16-8215-7CCD39C11565}" name="main" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{45843013-F77E-4A90-AF54-173129A318BC}" name="branch" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{DE07E8D7-AF19-4990-B4EB-FB8A48054E6D}" name="type" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{D87A2779-3B12-41B3-968D-150307DF3484}" name="param name" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44179487-8091-4992-8094-4DA31A4A9A12}" name="表6_8" displayName="表6_8" ref="A1:D8" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44179487-8091-4992-8094-4DA31A4A9A12}" name="表6_8" displayName="表6_8" ref="A1:D8" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="A1:D8" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{74AA3551-D5FC-442E-820B-56B35F04E314}" name="main" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{872A74B1-DD5D-4A36-ADFF-F85B7DA48580}" name="branch" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{92E7DF35-9ECD-40C3-9E4D-BD067B6A62EC}" name="type" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{521BB435-4AEA-479B-9B1C-8DE67307817F}" name="param name" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{74AA3551-D5FC-442E-820B-56B35F04E314}" name="main" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{872A74B1-DD5D-4A36-ADFF-F85B7DA48580}" name="branch" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{92E7DF35-9ECD-40C3-9E4D-BD067B6A62EC}" name="type" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{521BB435-4AEA-479B-9B1C-8DE67307817F}" name="param name" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C4239BEF-66B1-4C30-A627-2C7A8F2E4BA9}" name="表6_89" displayName="表6_89" ref="A1:D7" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C4239BEF-66B1-4C30-A627-2C7A8F2E4BA9}" name="表6_89" displayName="表6_89" ref="A1:D7" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
   <autoFilter ref="A1:D7" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8A8D086D-6A95-4C02-8C03-468264AB5725}" name="main" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{CE92D93E-D841-4961-B94A-11AA4C235B48}" name="branch" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{9EA0702F-1E71-4F31-A149-4EDC82F3059F}" name="type" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{1126922B-B081-42BE-9F6D-8F699D3E6FEF}" name="param name" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{8A8D086D-6A95-4C02-8C03-468264AB5725}" name="main" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{CE92D93E-D841-4961-B94A-11AA4C235B48}" name="branch" dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{9EA0702F-1E71-4F31-A149-4EDC82F3059F}" name="type" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{1126922B-B081-42BE-9F6D-8F699D3E6FEF}" name="param name" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F70E97C-7386-4083-8729-2F25C3160A9B}" name="表6_8910" displayName="表6_8910" ref="A1:D22" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F70E97C-7386-4083-8729-2F25C3160A9B}" name="表6_8910" displayName="表6_8910" ref="A1:D22" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
   <autoFilter ref="A1:D22" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0177998A-43AB-4B0F-8604-0AF954FBB185}" name="main" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{37520786-1F3E-4E38-8C3B-6E990C026213}" name="branch" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{06224467-73DA-4D97-B072-2FA1C3A7CF43}" name="type" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{7F4CE11F-D886-48B2-A97A-A561D4C6C79B}" name="param name" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{0177998A-43AB-4B0F-8604-0AF954FBB185}" name="main" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{37520786-1F3E-4E38-8C3B-6E990C026213}" name="branch" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{06224467-73DA-4D97-B072-2FA1C3A7CF43}" name="type" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{7F4CE11F-D886-48B2-A97A-A561D4C6C79B}" name="param name" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6E123A4-AC18-4383-8FEF-88FC9710A391}" name="表6_891011" displayName="表6_891011" ref="A1:D48" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6E123A4-AC18-4383-8FEF-88FC9710A391}" name="表6_891011" displayName="表6_891011" ref="A1:D48" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A1:D48" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8A85C0EA-4CDE-4D93-B049-3C11FD83B866}" name="main" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{B4D689B8-7678-4627-8C30-571AFA1954CE}" name="branch" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{1B0A04CF-F3AC-4373-A92B-F7D319E52FC4}" name="type" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{5B52C9B4-0914-412B-8D7D-C4F1D3CB6CA9}" name="param name" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{8A85C0EA-4CDE-4D93-B049-3C11FD83B866}" name="main" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{B4D689B8-7678-4627-8C30-571AFA1954CE}" name="branch" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{1B0A04CF-F3AC-4373-A92B-F7D319E52FC4}" name="type" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{5B52C9B4-0914-412B-8D7D-C4F1D3CB6CA9}" name="param name" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8640,7 +8884,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -15980,10 +16224,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -15994,10 +16238,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -16008,10 +16252,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
-        <v>0</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>3</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -16022,10 +16266,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -16036,10 +16280,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
-        <v>0</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -16050,10 +16294,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
-        <v>0</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -16064,10 +16308,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>0</v>
-      </c>
-      <c r="B9" s="16">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -16078,10 +16322,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>0</v>
-      </c>
-      <c r="B10" s="16">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -16092,10 +16336,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>0</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -16106,10 +16350,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
-        <v>0</v>
-      </c>
-      <c r="B12" s="16">
+      <c r="A12" s="14">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -16120,10 +16364,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
-        <v>0</v>
-      </c>
-      <c r="B13" s="16">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -16134,10 +16378,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
-        <v>0</v>
-      </c>
-      <c r="B14" s="16">
+      <c r="A14" s="14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -16148,10 +16392,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
-        <v>0</v>
-      </c>
-      <c r="B15" s="16">
+      <c r="A15" s="14">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <v>13</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -16162,10 +16406,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
-        <v>0</v>
-      </c>
-      <c r="B16" s="16">
+      <c r="A16" s="14">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
         <v>14</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -16176,10 +16420,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
-        <v>0</v>
-      </c>
-      <c r="B17" s="16">
+      <c r="A17" s="14">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
         <v>15</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -16190,10 +16434,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
-        <v>0</v>
-      </c>
-      <c r="B18" s="16">
+      <c r="A18" s="14">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
         <v>16</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -16244,7 +16488,7 @@
       <c r="D1" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="19"/>
+      <c r="M1" s="18"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
@@ -16261,10 +16505,10 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -16275,10 +16519,10 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -16289,10 +16533,10 @@
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
-        <v>0</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>3</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -16303,10 +16547,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -16317,10 +16561,10 @@
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
-        <v>0</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -16331,10 +16575,10 @@
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
-        <v>0</v>
-      </c>
-      <c r="B8" s="16">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -16345,10 +16589,10 @@
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
-        <v>0</v>
-      </c>
-      <c r="B9" s="16">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -16359,10 +16603,10 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
-        <v>0</v>
-      </c>
-      <c r="B10" s="16">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -16371,18 +16615,18 @@
       <c r="D10" s="15" t="s">
         <v>779</v>
       </c>
-      <c r="L10" s="18" t="s">
+      <c r="L10" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="N10" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
-        <v>0</v>
-      </c>
-      <c r="B11" s="16">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -16391,18 +16635,18 @@
       <c r="D11" s="15" t="s">
         <v>780</v>
       </c>
-      <c r="L11" s="17" t="s">
+      <c r="L11" s="16" t="s">
         <v>774</v>
       </c>
-      <c r="N11" s="17" t="s">
+      <c r="N11" s="16" t="s">
         <v>774</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
-        <v>0</v>
-      </c>
-      <c r="B12" s="16">
+      <c r="A12" s="14">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -16411,18 +16655,18 @@
       <c r="D12" s="15" t="s">
         <v>648</v>
       </c>
-      <c r="L12" s="18" t="s">
+      <c r="L12" s="17" t="s">
         <v>773</v>
       </c>
-      <c r="N12" s="18" t="s">
+      <c r="N12" s="17" t="s">
         <v>789</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
-        <v>0</v>
-      </c>
-      <c r="B13" s="16">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -16431,18 +16675,18 @@
       <c r="D13" s="15" t="s">
         <v>649</v>
       </c>
-      <c r="L13" s="17" t="s">
+      <c r="L13" s="16" t="s">
         <v>772</v>
       </c>
-      <c r="N13" s="18" t="s">
+      <c r="N13" s="17" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
-        <v>0</v>
-      </c>
-      <c r="B14" s="16">
+      <c r="A14" s="14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -16451,21 +16695,21 @@
       <c r="D14" s="15" t="s">
         <v>781</v>
       </c>
-      <c r="L14" s="18" t="s">
+      <c r="L14" s="17" t="s">
         <v>785</v>
       </c>
       <c r="M14" s="14" t="s">
         <v>803</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="N14" s="16" t="s">
         <v>790</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
-        <v>0</v>
-      </c>
-      <c r="B15" s="16">
+      <c r="A15" s="14">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <v>13</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -16476,10 +16720,10 @@
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
-        <v>0</v>
-      </c>
-      <c r="B16" s="16">
+      <c r="A16" s="14">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
         <v>14</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -16488,18 +16732,18 @@
       <c r="D16" s="15" t="s">
         <v>782</v>
       </c>
-      <c r="L16" s="17" t="s">
+      <c r="L16" s="16" t="s">
         <v>648</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="N16" s="17" t="s">
         <v>793</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
-        <v>0</v>
-      </c>
-      <c r="B17" s="16">
+      <c r="A17" s="14">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
         <v>15</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -16508,18 +16752,18 @@
       <c r="D17" s="15" t="s">
         <v>783</v>
       </c>
-      <c r="L17" s="18" t="s">
+      <c r="L17" s="17" t="s">
         <v>649</v>
       </c>
-      <c r="N17" s="17" t="s">
+      <c r="N17" s="16" t="s">
         <v>794</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
-        <v>0</v>
-      </c>
-      <c r="B18" s="16">
+      <c r="A18" s="14">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
         <v>16</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -16530,10 +16774,10 @@
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
-        <v>0</v>
-      </c>
-      <c r="B19" s="16">
+      <c r="A19" s="14">
+        <v>0</v>
+      </c>
+      <c r="B19" s="14">
         <v>17</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -16542,18 +16786,18 @@
       <c r="D19" s="15" t="s">
         <v>785</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>775</v>
       </c>
-      <c r="N19" s="17" t="s">
+      <c r="N19" s="16" t="s">
         <v>792</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
-        <v>0</v>
-      </c>
-      <c r="B20" s="16">
+      <c r="A20" s="14">
+        <v>0</v>
+      </c>
+      <c r="B20" s="14">
         <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -16564,10 +16808,10 @@
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
-        <v>0</v>
-      </c>
-      <c r="B21" s="16">
+      <c r="A21" s="14">
+        <v>0</v>
+      </c>
+      <c r="B21" s="14">
         <v>19</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -16578,10 +16822,10 @@
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
-        <v>0</v>
-      </c>
-      <c r="B22" s="16">
+      <c r="A22" s="14">
+        <v>0</v>
+      </c>
+      <c r="B22" s="14">
         <v>20</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -16590,15 +16834,15 @@
       <c r="D22" s="15" t="s">
         <v>259</v>
       </c>
-      <c r="L22" s="18" t="s">
+      <c r="L22" s="17" t="s">
         <v>778</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
-        <v>0</v>
-      </c>
-      <c r="B23" s="16">
+      <c r="A23" s="14">
+        <v>0</v>
+      </c>
+      <c r="B23" s="14">
         <v>21</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -16607,15 +16851,15 @@
       <c r="D23" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="L23" s="17" t="s">
+      <c r="L23" s="16" t="s">
         <v>779</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
-        <v>0</v>
-      </c>
-      <c r="B24" s="16">
+      <c r="A24" s="14">
+        <v>0</v>
+      </c>
+      <c r="B24" s="14">
         <v>22</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -16624,15 +16868,15 @@
       <c r="D24" s="15" t="s">
         <v>787</v>
       </c>
-      <c r="L24" s="18" t="s">
+      <c r="L24" s="17" t="s">
         <v>780</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
-        <v>0</v>
-      </c>
-      <c r="B25" s="16">
+      <c r="A25" s="14">
+        <v>0</v>
+      </c>
+      <c r="B25" s="14">
         <v>23</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -16643,100 +16887,100 @@
       </c>
     </row>
     <row r="35" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L35" s="18" t="s">
+      <c r="L35" s="17" t="s">
         <v>776</v>
       </c>
-      <c r="N35" s="18" t="s">
+      <c r="N35" s="17" t="s">
         <v>791</v>
       </c>
     </row>
     <row r="36" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L36" s="17" t="s">
+      <c r="L36" s="16" t="s">
         <v>777</v>
       </c>
     </row>
     <row r="39" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="N39" s="18" t="s">
+      <c r="N39" s="17" t="s">
         <v>795</v>
       </c>
     </row>
     <row r="40" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="N40" s="17" t="s">
+      <c r="N40" s="16" t="s">
         <v>796</v>
       </c>
     </row>
     <row r="41" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="N41" s="18" t="s">
+      <c r="N41" s="17" t="s">
         <v>797</v>
       </c>
     </row>
     <row r="42" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L42" s="17" t="s">
+      <c r="L42" s="16" t="s">
         <v>781</v>
       </c>
-      <c r="N42" s="17" t="s">
+      <c r="N42" s="16" t="s">
         <v>798</v>
       </c>
     </row>
     <row r="43" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L43" s="18" t="s">
+      <c r="L43" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="N43" s="18" t="s">
+      <c r="N43" s="17" t="s">
         <v>799</v>
       </c>
     </row>
     <row r="44" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L44" s="17" t="s">
+      <c r="L44" s="16" t="s">
         <v>782</v>
       </c>
-      <c r="N44" s="17" t="s">
+      <c r="N44" s="16" t="s">
         <v>800</v>
       </c>
     </row>
     <row r="45" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L45" s="18" t="s">
+      <c r="L45" s="17" t="s">
         <v>783</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="17" t="s">
         <v>801</v>
       </c>
     </row>
     <row r="46" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L46" s="17" t="s">
+      <c r="L46" s="16" t="s">
         <v>784</v>
       </c>
-      <c r="N46" s="17" t="s">
+      <c r="N46" s="16" t="s">
         <v>802</v>
       </c>
     </row>
     <row r="48" spans="12:14" x14ac:dyDescent="0.2">
-      <c r="L48" s="17" t="s">
+      <c r="L48" s="16" t="s">
         <v>618</v>
       </c>
     </row>
     <row r="49" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L49" s="18" t="s">
+      <c r="L49" s="17" t="s">
         <v>786</v>
       </c>
     </row>
     <row r="50" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L50" s="17" t="s">
+      <c r="L50" s="16" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="51" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L51" s="18" t="s">
+      <c r="L51" s="17" t="s">
         <v>599</v>
       </c>
     </row>
     <row r="52" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L52" s="17" t="s">
+      <c r="L52" s="16" t="s">
         <v>787</v>
       </c>
     </row>
     <row r="53" spans="12:12" x14ac:dyDescent="0.2">
-      <c r="L53" s="18" t="s">
+      <c r="L53" s="17" t="s">
         <v>788</v>
       </c>
     </row>
@@ -16753,8 +16997,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B811E436-1AF3-4E75-8DFB-FFAACEE26A26}">
   <dimension ref="A1:D37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I36" sqref="I36"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16794,10 +17038,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="16">
-        <v>0</v>
-      </c>
-      <c r="B3" s="16">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -16808,10 +17052,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="16">
-        <v>0</v>
-      </c>
-      <c r="B4" s="16">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -16822,10 +17066,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="16">
-        <v>0</v>
-      </c>
-      <c r="B5" s="16">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>3</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -16836,10 +17080,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="16">
-        <v>0</v>
-      </c>
-      <c r="B6" s="16">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -16850,10 +17094,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
-        <v>0</v>
-      </c>
-      <c r="B7" s="16">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -16864,10 +17108,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+      <c r="A8" s="14">
         <v>1</v>
       </c>
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>0</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -16878,10 +17122,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+      <c r="A9" s="14">
         <v>1</v>
       </c>
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>1</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -16892,10 +17136,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+      <c r="A10" s="14">
         <v>1</v>
       </c>
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>2</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -16906,10 +17150,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+      <c r="A11" s="14">
         <v>1</v>
       </c>
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>3</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -16920,10 +17164,10 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+      <c r="A12" s="14">
         <v>1</v>
       </c>
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>4</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -16934,10 +17178,10 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="14">
         <v>1</v>
       </c>
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>5</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -16948,10 +17192,10 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+      <c r="A14" s="14">
         <v>1</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>6</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -16962,10 +17206,10 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+      <c r="A15" s="14">
         <v>1</v>
       </c>
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>7</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -16976,10 +17220,10 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+      <c r="A16" s="14">
         <v>1</v>
       </c>
-      <c r="B16" s="16">
+      <c r="B16" s="14">
         <v>8</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -16990,10 +17234,10 @@
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+      <c r="A17" s="14">
         <v>1</v>
       </c>
-      <c r="B17" s="16">
+      <c r="B17" s="14">
         <v>9</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -17004,10 +17248,10 @@
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+      <c r="A18" s="14">
         <v>1</v>
       </c>
-      <c r="B18" s="16">
+      <c r="B18" s="14">
         <v>10</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -17018,10 +17262,10 @@
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+      <c r="A19" s="14">
         <v>1</v>
       </c>
-      <c r="B19" s="16">
+      <c r="B19" s="14">
         <v>11</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -17032,10 +17276,10 @@
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+      <c r="A20" s="14">
         <v>2</v>
       </c>
-      <c r="B20" s="16">
+      <c r="B20" s="14">
         <v>0</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -17046,10 +17290,10 @@
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+      <c r="A21" s="14">
         <v>2</v>
       </c>
-      <c r="B21" s="16">
+      <c r="B21" s="14">
         <v>1</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -17060,10 +17304,10 @@
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="16">
+      <c r="A22" s="14">
         <v>2</v>
       </c>
-      <c r="B22" s="16">
+      <c r="B22" s="14">
         <v>2</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -17074,10 +17318,10 @@
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="16">
+      <c r="A23" s="14">
         <v>2</v>
       </c>
-      <c r="B23" s="16">
+      <c r="B23" s="14">
         <v>3</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -17088,10 +17332,10 @@
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="16">
+      <c r="A24" s="14">
         <v>2</v>
       </c>
-      <c r="B24" s="16">
+      <c r="B24" s="14">
         <v>4</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -17102,10 +17346,10 @@
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="16">
+      <c r="A25" s="14">
         <v>2</v>
       </c>
-      <c r="B25" s="16">
+      <c r="B25" s="14">
         <v>5</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -17116,10 +17360,10 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="16">
+      <c r="A26" s="14">
         <v>2</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="14">
         <v>6</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -17130,10 +17374,10 @@
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="16">
+      <c r="A27" s="14">
         <v>2</v>
       </c>
-      <c r="B27" s="16">
+      <c r="B27" s="14">
         <v>7</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -17144,10 +17388,10 @@
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="16">
+      <c r="A28" s="14">
         <v>2</v>
       </c>
-      <c r="B28" s="16">
+      <c r="B28" s="14">
         <v>8</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -17158,10 +17402,10 @@
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="16">
+      <c r="A29" s="14">
         <v>2</v>
       </c>
-      <c r="B29" s="16">
+      <c r="B29" s="14">
         <v>9</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -17172,10 +17416,10 @@
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="16">
+      <c r="A30" s="14">
         <v>2</v>
       </c>
-      <c r="B30" s="16">
+      <c r="B30" s="14">
         <v>10</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -17186,10 +17430,10 @@
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="16">
+      <c r="A31" s="14">
         <v>3</v>
       </c>
-      <c r="B31" s="16">
+      <c r="B31" s="14">
         <v>0</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -17200,10 +17444,10 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="16">
+      <c r="A32" s="14">
         <v>3</v>
       </c>
-      <c r="B32" s="16">
+      <c r="B32" s="14">
         <v>1</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -17214,10 +17458,10 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="16">
+      <c r="A33" s="14">
         <v>3</v>
       </c>
-      <c r="B33" s="16">
+      <c r="B33" s="14">
         <v>2</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -17228,10 +17472,10 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="16">
+      <c r="A34" s="14">
         <v>3</v>
       </c>
-      <c r="B34" s="16">
+      <c r="B34" s="14">
         <v>3</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -17242,10 +17486,10 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="16">
+      <c r="A35" s="14">
         <v>4</v>
       </c>
-      <c r="B35" s="16">
+      <c r="B35" s="14">
         <v>0</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -17256,10 +17500,10 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="16">
+      <c r="A36" s="14">
         <v>4</v>
       </c>
-      <c r="B36" s="16">
+      <c r="B36" s="14">
         <v>1</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -17270,10 +17514,10 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="16">
+      <c r="A37" s="14">
         <v>4</v>
       </c>
-      <c r="B37" s="16">
+      <c r="B37" s="14">
         <v>2</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -17294,10 +17538,10 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8752D82F-8718-46C8-BE35-DD85418B6463}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17305,7 +17549,7 @@
     <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+    <col min="4" max="4" width="35.125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -17330,10 +17574,1186 @@
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>0</v>
+      </c>
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>0</v>
+      </c>
+      <c r="B7" s="19">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>0</v>
+      </c>
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>0</v>
+      </c>
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>0</v>
+      </c>
+      <c r="B10" s="19">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>0</v>
+      </c>
+      <c r="B11" s="19">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="19">
+        <v>0</v>
+      </c>
+      <c r="B12" s="19">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="19">
+        <v>0</v>
+      </c>
+      <c r="B13" s="19">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="19">
+        <v>0</v>
+      </c>
+      <c r="B14" s="19">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="19">
+        <v>0</v>
+      </c>
+      <c r="B15" s="19">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="19">
+        <v>0</v>
+      </c>
+      <c r="B16" s="19">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="19">
+        <v>0</v>
+      </c>
+      <c r="B17" s="19">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="19">
+        <v>0</v>
+      </c>
+      <c r="B18" s="19">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="19">
+        <v>0</v>
+      </c>
+      <c r="B19" s="19">
+        <v>17</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="19">
+        <v>0</v>
+      </c>
+      <c r="B20" s="19">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="19">
+        <v>0</v>
+      </c>
+      <c r="B21" s="19">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="19">
+        <v>0</v>
+      </c>
+      <c r="B22" s="19">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="19">
+        <v>0</v>
+      </c>
+      <c r="B23" s="19">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="19">
+        <v>0</v>
+      </c>
+      <c r="B24" s="19">
+        <v>22</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="19">
+        <v>0</v>
+      </c>
+      <c r="B25" s="19">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="19">
+        <v>0</v>
+      </c>
+      <c r="B26" s="19">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="19">
+        <v>0</v>
+      </c>
+      <c r="B27" s="19">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="19">
+        <v>0</v>
+      </c>
+      <c r="B28" s="19">
+        <v>26</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="19">
+        <v>0</v>
+      </c>
+      <c r="B29" s="19">
+        <v>27</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="19">
+        <v>0</v>
+      </c>
+      <c r="B30" s="19">
+        <v>28</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="19">
+        <v>0</v>
+      </c>
+      <c r="B31" s="19">
+        <v>29</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="19">
+        <v>0</v>
+      </c>
+      <c r="B32" s="19">
+        <v>30</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="19">
+        <v>0</v>
+      </c>
+      <c r="B33" s="19">
+        <v>31</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="19">
+        <v>0</v>
+      </c>
+      <c r="B34" s="19">
+        <v>32</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="19">
+        <v>0</v>
+      </c>
+      <c r="B35" s="19">
+        <v>33</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="19">
+        <v>0</v>
+      </c>
+      <c r="B36" s="19">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="19">
+        <v>0</v>
+      </c>
+      <c r="B37" s="19">
+        <v>35</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="19">
+        <v>0</v>
+      </c>
+      <c r="B38" s="19">
+        <v>36</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="19">
+        <v>0</v>
+      </c>
+      <c r="B39" s="19">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="19">
+        <v>0</v>
+      </c>
+      <c r="B40" s="19">
+        <v>38</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="19">
+        <v>0</v>
+      </c>
+      <c r="B41" s="19">
+        <v>39</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="19">
+        <v>0</v>
+      </c>
+      <c r="B42" s="19">
+        <v>40</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="19">
+        <v>0</v>
+      </c>
+      <c r="B43" s="19">
+        <v>41</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="19">
+        <v>0</v>
+      </c>
+      <c r="B44" s="19">
+        <v>42</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="19">
+        <v>0</v>
+      </c>
+      <c r="B45" s="19">
+        <v>43</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="19">
+        <v>0</v>
+      </c>
+      <c r="B46" s="19">
+        <v>44</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="19">
+        <v>0</v>
+      </c>
+      <c r="B47" s="19">
+        <v>45</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="19">
+        <v>0</v>
+      </c>
+      <c r="B48" s="19">
+        <v>46</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="19">
+        <v>0</v>
+      </c>
+      <c r="B49" s="19">
+        <v>47</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="19">
+        <v>0</v>
+      </c>
+      <c r="B50" s="19">
+        <v>48</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="19">
+        <v>0</v>
+      </c>
+      <c r="B51" s="19">
+        <v>49</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="19">
+        <v>0</v>
+      </c>
+      <c r="B52" s="19">
+        <v>50</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="19">
+        <v>0</v>
+      </c>
+      <c r="B53" s="19">
+        <v>51</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="19">
+        <v>0</v>
+      </c>
+      <c r="B54" s="19">
+        <v>52</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="19">
+        <v>0</v>
+      </c>
+      <c r="B55" s="19">
+        <v>53</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="19">
+        <v>0</v>
+      </c>
+      <c r="B56" s="19">
+        <v>54</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="19">
+        <v>0</v>
+      </c>
+      <c r="B57" s="19">
+        <v>55</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="19">
+        <v>0</v>
+      </c>
+      <c r="B58" s="19">
+        <v>56</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="19">
+        <v>0</v>
+      </c>
+      <c r="B59" s="19">
+        <v>57</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="19">
+        <v>0</v>
+      </c>
+      <c r="B60" s="19">
+        <v>58</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="19">
+        <v>0</v>
+      </c>
+      <c r="B61" s="19">
+        <v>59</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="19">
+        <v>0</v>
+      </c>
+      <c r="B62" s="19">
+        <v>60</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="19">
+        <v>0</v>
+      </c>
+      <c r="B63" s="19">
+        <v>61</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="19">
+        <v>0</v>
+      </c>
+      <c r="B64" s="19">
         <v>62</v>
       </c>
-      <c r="D2" s="15" t="s">
-        <v>120</v>
+      <c r="C64" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="19">
+        <v>0</v>
+      </c>
+      <c r="B65" s="19">
+        <v>63</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="19">
+        <v>0</v>
+      </c>
+      <c r="B66" s="19">
+        <v>64</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="19">
+        <v>0</v>
+      </c>
+      <c r="B67" s="19">
+        <v>65</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="19">
+        <v>0</v>
+      </c>
+      <c r="B68" s="19">
+        <v>66</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="19">
+        <v>0</v>
+      </c>
+      <c r="B69" s="19">
+        <v>67</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="19">
+        <v>0</v>
+      </c>
+      <c r="B70" s="19">
+        <v>68</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="19">
+        <v>0</v>
+      </c>
+      <c r="B71" s="19">
+        <v>69</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="19">
+        <v>0</v>
+      </c>
+      <c r="B72" s="19">
+        <v>70</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="19">
+        <v>0</v>
+      </c>
+      <c r="B73" s="19">
+        <v>71</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="19">
+        <v>0</v>
+      </c>
+      <c r="B74" s="19">
+        <v>72</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="19">
+        <v>0</v>
+      </c>
+      <c r="B75" s="19">
+        <v>73</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="19">
+        <v>0</v>
+      </c>
+      <c r="B76" s="19">
+        <v>74</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="19">
+        <v>0</v>
+      </c>
+      <c r="B77" s="19">
+        <v>75</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="19">
+        <v>0</v>
+      </c>
+      <c r="B78" s="19">
+        <v>76</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="19">
+        <v>0</v>
+      </c>
+      <c r="B79" s="19">
+        <v>77</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="19">
+        <v>0</v>
+      </c>
+      <c r="B80" s="19">
+        <v>78</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="19">
+        <v>0</v>
+      </c>
+      <c r="B81" s="19">
+        <v>79</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="19">
+        <v>0</v>
+      </c>
+      <c r="B82" s="19">
+        <v>80</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="19">
+        <v>0</v>
+      </c>
+      <c r="B83" s="19">
+        <v>81</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="19">
+        <v>0</v>
+      </c>
+      <c r="B84" s="19">
+        <v>82</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="19">
+        <v>0</v>
+      </c>
+      <c r="B85" s="19">
+        <v>83</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="19">
+        <v>0</v>
+      </c>
+      <c r="B86" s="19">
+        <v>84</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
@@ -17566,6 +18986,59 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA9C388-CAA3-4695-949F-77695C0C0468}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7FA8D6-98D8-4121-B818-CFF4DE56028E}">
   <dimension ref="A1:D36"/>

--- a/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
+++ b/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\RedHaloM2B_Lib\RedHaloM2B_Lib\ParamBlock2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2F4CC6-CF40-4740-8CBE-17276B87C60B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02AA4D8-1C27-4D57-B5E2-0F03DA376407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13875" yWindow="3990" windowWidth="27105" windowHeight="13710" tabRatio="706" firstSheet="21" activeTab="28" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
+    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="706" firstSheet="23" activeTab="29" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
   </bookViews>
   <sheets>
     <sheet name="Checker" sheetId="6" r:id="rId1"/>
@@ -43,6 +43,8 @@
     <sheet name="StandardMtl" sheetId="29" r:id="rId28"/>
     <sheet name="VRayCarPaintMtl2" sheetId="30" r:id="rId29"/>
     <sheet name="Color Map (22)" sheetId="32" r:id="rId30"/>
+    <sheet name="Color Map (23)" sheetId="33" r:id="rId31"/>
+    <sheet name="Color Map (24)" sheetId="34" r:id="rId32"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bitmap!#REF!</definedName>
@@ -50,6 +52,8 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Color Correction'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Color Map'!$A$2:$A$7</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">'Color Map (22)'!$A$2:$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">'Color Map (23)'!$A$2:$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">'Color Map (24)'!$A$2:$A$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">Composite!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">CoronaAO!$A$2:$A$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">CoronaBumpConverter!$A$2:$A$4</definedName>
@@ -86,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2236" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="899">
   <si>
     <t>soften</t>
   </si>
@@ -3001,7 +3005,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3059,14 +3063,103 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="187">
+  <dxfs count="199">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4800,202 +4893,202 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}" name="表2" displayName="表2" ref="A2:D18" totalsRowShown="0" headerRowDxfId="186" headerRowBorderDxfId="185" tableBorderDxfId="184" totalsRowBorderDxfId="183">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}" name="表2" displayName="表2" ref="A2:D18" totalsRowShown="0" headerRowDxfId="198" headerRowBorderDxfId="197" tableBorderDxfId="196" totalsRowBorderDxfId="195">
   <autoFilter ref="A2:D18" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2D41582E-7698-4D96-B381-E70F10A1DC8F}" name="main" dataDxfId="182"/>
-    <tableColumn id="2" xr3:uid="{251B123A-D391-4C42-A03C-DDA697EA139B}" name="branch" dataDxfId="181"/>
-    <tableColumn id="3" xr3:uid="{A937446C-F8DF-404A-8C19-2C649D8F1BEB}" name="type" dataDxfId="180"/>
-    <tableColumn id="4" xr3:uid="{206B0CBC-2C23-4005-9413-91FFD450242E}" name="param name" dataDxfId="179"/>
+    <tableColumn id="1" xr3:uid="{2D41582E-7698-4D96-B381-E70F10A1DC8F}" name="main" dataDxfId="194"/>
+    <tableColumn id="2" xr3:uid="{251B123A-D391-4C42-A03C-DDA697EA139B}" name="branch" dataDxfId="193"/>
+    <tableColumn id="3" xr3:uid="{A937446C-F8DF-404A-8C19-2C649D8F1BEB}" name="type" dataDxfId="192"/>
+    <tableColumn id="4" xr3:uid="{206B0CBC-2C23-4005-9413-91FFD450242E}" name="param name" dataDxfId="191"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D88250FB-0DB3-424D-A24A-D8261708B2E3}" name="表6_892" displayName="表6_892" ref="A1:D46" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D88250FB-0DB3-424D-A24A-D8261708B2E3}" name="表6_892" displayName="表6_892" ref="A1:D46" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
   <autoFilter ref="A1:D46" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ABC109BE-05F7-45FC-B28E-A25F56785127}" name="main" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{98C68B2C-8456-453F-ABDC-E94E9B8D474D}" name="branch" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{73ACFFB3-7807-4088-807D-88470729B2BA}" name="type" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{320F409E-253F-4260-8467-E0D287495D07}" name="param name" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{ABC109BE-05F7-45FC-B28E-A25F56785127}" name="main" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{98C68B2C-8456-453F-ABDC-E94E9B8D474D}" name="branch" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{73ACFFB3-7807-4088-807D-88470729B2BA}" name="type" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{320F409E-253F-4260-8467-E0D287495D07}" name="param name" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4B0AB83-5BB3-4AD6-9F5A-8C690B2DA3FE}" name="表6_89212" displayName="表6_89212" ref="A1:D13" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4B0AB83-5BB3-4AD6-9F5A-8C690B2DA3FE}" name="表6_89212" displayName="表6_89212" ref="A1:D13" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A1:D13" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{25807113-C158-42E7-8892-EDA341B2D700}" name="main" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{821DBFB3-8F0C-4625-9C08-E53307BC75E4}" name="branch" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{9138AA34-C209-41F6-A065-D789CE7DFF08}" name="type" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{FBACDFD2-4E34-4DC7-99FF-33D8FF23E785}" name="param name" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{25807113-C158-42E7-8892-EDA341B2D700}" name="main" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{821DBFB3-8F0C-4625-9C08-E53307BC75E4}" name="branch" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{9138AA34-C209-41F6-A065-D789CE7DFF08}" name="type" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{FBACDFD2-4E34-4DC7-99FF-33D8FF23E785}" name="param name" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{753F4B04-15DB-4DDB-B21D-C7A8F3C7E798}" name="表6_8921213" displayName="表6_8921213" ref="A1:D5" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{753F4B04-15DB-4DDB-B21D-C7A8F3C7E798}" name="表6_8921213" displayName="表6_8921213" ref="A1:D5" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:D5" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BB4AA73D-1ED5-448B-9AE3-FE865C983D39}" name="main" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{EB99AB73-8FDC-45BF-B0A0-8377793F09C3}" name="branch" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{991EAF0A-5DA2-439D-9FAB-9DEFD89077A0}" name="type" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{D18C9DB0-8246-4734-A938-2CB4F7229F15}" name="param name" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{BB4AA73D-1ED5-448B-9AE3-FE865C983D39}" name="main" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{EB99AB73-8FDC-45BF-B0A0-8377793F09C3}" name="branch" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{991EAF0A-5DA2-439D-9FAB-9DEFD89077A0}" name="type" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{D18C9DB0-8246-4734-A938-2CB4F7229F15}" name="param name" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A24E004E-4EBE-490C-9AAB-ED6960D629C9}" name="表6_892121314" displayName="表6_892121314" ref="A1:D4" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A24E004E-4EBE-490C-9AAB-ED6960D629C9}" name="表6_892121314" displayName="表6_892121314" ref="A1:D4" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A1:D4" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA2F9135-19FD-41FF-A0BD-E19EDE35978C}" name="main" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{9A0AF032-2605-41F3-87D5-7A2191868ADF}" name="branch" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{39447203-25E4-4E57-BB37-9154C8CD7663}" name="type" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{BF6E1539-2F98-444C-9F1B-1DD9890B3898}" name="param name" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{DA2F9135-19FD-41FF-A0BD-E19EDE35978C}" name="main" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{9A0AF032-2605-41F3-87D5-7A2191868ADF}" name="branch" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{39447203-25E4-4E57-BB37-9154C8CD7663}" name="type" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{BF6E1539-2F98-444C-9F1B-1DD9890B3898}" name="param name" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{64A915F8-A0A7-42F8-B358-548E26A2D261}" name="表6_89212131415" displayName="表6_89212131415" ref="A1:D14" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{64A915F8-A0A7-42F8-B358-548E26A2D261}" name="表6_89212131415" displayName="表6_89212131415" ref="A1:D14" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A1:D14" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AE618ED7-34F9-45C9-BA6E-0E28742D773C}" name="main" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{B312A00E-85C1-49DD-9CE3-820C1CB05E6B}" name="branch" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{2EB76E35-76BD-4322-995B-7CC45A5F5D7F}" name="type" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{2C20F636-3553-402B-A09E-80722A9BC84D}" name="param name" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{AE618ED7-34F9-45C9-BA6E-0E28742D773C}" name="main" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{B312A00E-85C1-49DD-9CE3-820C1CB05E6B}" name="branch" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{2EB76E35-76BD-4322-995B-7CC45A5F5D7F}" name="type" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{2C20F636-3553-402B-A09E-80722A9BC84D}" name="param name" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1E359F77-2531-471D-845D-73EFCC64E0D2}" name="表6_8921213141516" displayName="表6_8921213141516" ref="A1:D5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1E359F77-2531-471D-845D-73EFCC64E0D2}" name="表6_8921213141516" displayName="表6_8921213141516" ref="A1:D5" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A1:D5" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FB220119-4281-4340-9ED2-A909BBE6E90D}" name="main" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{971A8DB4-253F-4CF6-B1A5-EA9E84F48414}" name="branch" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{6AC24398-79B4-4841-9B11-810FCBE7D7C3}" name="type" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{50E6A130-B526-4708-AAF2-7F8C5114E8CC}" name="param name" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{FB220119-4281-4340-9ED2-A909BBE6E90D}" name="main" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{971A8DB4-253F-4CF6-B1A5-EA9E84F48414}" name="branch" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{6AC24398-79B4-4841-9B11-810FCBE7D7C3}" name="type" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{50E6A130-B526-4708-AAF2-7F8C5114E8CC}" name="param name" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{80AE85AD-776D-48D8-A9E0-8B5B99241A3D}" name="表6_892121314151617" displayName="表6_892121314151617" ref="A1:D20" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{80AE85AD-776D-48D8-A9E0-8B5B99241A3D}" name="表6_892121314151617" displayName="表6_892121314151617" ref="A1:D20" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A1:D20" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{77C5EFED-826E-40DE-9792-058A0219DB93}" name="main" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{EA04F042-A666-406F-9CE5-B964EFAFB6B1}" name="branch" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{F6F48581-298A-48A6-A7B1-5FD41B41DC85}" name="type" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{EEF330D9-79F5-4056-BECF-2EA208B917DF}" name="param name" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{77C5EFED-826E-40DE-9792-058A0219DB93}" name="main" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{EA04F042-A666-406F-9CE5-B964EFAFB6B1}" name="branch" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{F6F48581-298A-48A6-A7B1-5FD41B41DC85}" name="type" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{EEF330D9-79F5-4056-BECF-2EA208B917DF}" name="param name" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{360A56DC-C9FB-415A-B518-D87DC3B610D8}" name="表6_89212131415161718" displayName="表6_89212131415161718" ref="A1:D16" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{360A56DC-C9FB-415A-B518-D87DC3B610D8}" name="表6_89212131415161718" displayName="表6_89212131415161718" ref="A1:D16" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:D16" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85FA0DE5-1500-4EB3-ADE2-11B529A34F3E}" name="main" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{82545C75-76EC-4363-9BE1-A1A76F81F275}" name="branch" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{96012611-D136-4234-9E88-5E00A17FA8B6}" name="type" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{7F3EEAA8-584A-41EC-A828-940B22BF5A4C}" name="param name" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{85FA0DE5-1500-4EB3-ADE2-11B529A34F3E}" name="main" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{82545C75-76EC-4363-9BE1-A1A76F81F275}" name="branch" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{96012611-D136-4234-9E88-5E00A17FA8B6}" name="type" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{7F3EEAA8-584A-41EC-A828-940B22BF5A4C}" name="param name" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{62FF6596-CF2A-4221-B9C6-1D41646ED98D}" name="表6_8921213141516171819" displayName="表6_8921213141516171819" ref="A1:D11" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{62FF6596-CF2A-4221-B9C6-1D41646ED98D}" name="表6_8921213141516171819" displayName="表6_8921213141516171819" ref="A1:D11" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:D11" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5F5F8E61-AEE4-4628-9B8A-424994708189}" name="main" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{EA68617E-47E4-4E7D-A312-90D0F2B1DC4D}" name="branch" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{794F68D4-D909-4EA8-962B-E2DC37B9E1B2}" name="type" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{BBC5FF7F-2A9F-48F7-9353-D959DA37CFB0}" name="param name" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{5F5F8E61-AEE4-4628-9B8A-424994708189}" name="main" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{EA68617E-47E4-4E7D-A312-90D0F2B1DC4D}" name="branch" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{794F68D4-D909-4EA8-962B-E2DC37B9E1B2}" name="type" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{BBC5FF7F-2A9F-48F7-9353-D959DA37CFB0}" name="param name" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{99C98499-87F2-4A00-A5C6-42867A84C518}" name="表6_892121314151617181920" displayName="表6_892121314151617181920" ref="A1:D32" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{99C98499-87F2-4A00-A5C6-42867A84C518}" name="表6_892121314151617181920" displayName="表6_892121314151617181920" ref="A1:D32" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:D32" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6473C8AB-4511-4780-902D-44FF22FA9125}" name="main" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{5336CBC3-0465-44E6-842C-F8FB29DE5B60}" name="branch" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{678157D5-4DF4-42B9-BEBA-9F11FAA70230}" name="type" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{A3CD0A63-3E60-4690-8303-684CF295A686}" name="param name" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{6473C8AB-4511-4780-902D-44FF22FA9125}" name="main" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{5336CBC3-0465-44E6-842C-F8FB29DE5B60}" name="branch" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{678157D5-4DF4-42B9-BEBA-9F11FAA70230}" name="type" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{A3CD0A63-3E60-4690-8303-684CF295A686}" name="param name" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}" name="表3" displayName="表3" ref="A1:D22" totalsRowShown="0" headerRowDxfId="178" dataDxfId="176" headerRowBorderDxfId="177" tableBorderDxfId="175" totalsRowBorderDxfId="174">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}" name="表3" displayName="表3" ref="A1:D22" totalsRowShown="0" headerRowDxfId="190" dataDxfId="188" headerRowBorderDxfId="189" tableBorderDxfId="187" totalsRowBorderDxfId="186">
   <autoFilter ref="A1:D22" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A9C5E782-2908-495B-BC1E-48E2FD18AEE0}" name="main" dataDxfId="173"/>
-    <tableColumn id="2" xr3:uid="{5470BF63-58F6-4E58-9D4F-C002B557215E}" name="branch" dataDxfId="172"/>
-    <tableColumn id="3" xr3:uid="{90636DC2-3EDA-473A-801B-DF14180D5E8D}" name="type" dataDxfId="171"/>
-    <tableColumn id="4" xr3:uid="{73405289-D597-4AE2-A24C-A23D026B4D06}" name="param name" dataDxfId="170"/>
+    <tableColumn id="1" xr3:uid="{A9C5E782-2908-495B-BC1E-48E2FD18AEE0}" name="main" dataDxfId="185"/>
+    <tableColumn id="2" xr3:uid="{5470BF63-58F6-4E58-9D4F-C002B557215E}" name="branch" dataDxfId="184"/>
+    <tableColumn id="3" xr3:uid="{90636DC2-3EDA-473A-801B-DF14180D5E8D}" name="type" dataDxfId="183"/>
+    <tableColumn id="4" xr3:uid="{73405289-D597-4AE2-A24C-A23D026B4D06}" name="param name" dataDxfId="182"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B9092D73-1E82-43D3-BB36-1B82F1AB4C19}" name="表6_89212131415161718192021" displayName="表6_89212131415161718192021" ref="A1:D4" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B9092D73-1E82-43D3-BB36-1B82F1AB4C19}" name="表6_89212131415161718192021" displayName="表6_89212131415161718192021" ref="A1:D4" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:D4" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{446C90BC-EE13-48AF-8953-B0823F1EF424}" name="main" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{A4BE9E1C-DCDF-4035-B22F-975533B7EE8E}" name="branch" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{F066C877-271A-431C-9942-DB3171BA218A}" name="type" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{4DCDA06A-8121-4C10-882B-A92225C0E935}" name="param name" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{446C90BC-EE13-48AF-8953-B0823F1EF424}" name="main" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{A4BE9E1C-DCDF-4035-B22F-975533B7EE8E}" name="branch" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{F066C877-271A-431C-9942-DB3171BA218A}" name="type" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{4DCDA06A-8121-4C10-882B-A92225C0E935}" name="param name" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{A6640308-7007-4510-842B-DAAD60ED3552}" name="表6_8921213141516171819202122" displayName="表6_8921213141516171819202122" ref="A1:D7" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{A6640308-7007-4510-842B-DAAD60ED3552}" name="表6_8921213141516171819202122" displayName="表6_8921213141516171819202122" ref="A1:D7" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:D7" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BE0266B4-0AA2-475C-8D13-DBDF17FE05C3}" name="main" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{E7D086AD-F1E1-47EE-A908-729CC7D1EDB9}" name="branch" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{30879BC5-4F3C-4CE6-81C1-426176CBF96F}" name="type" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{C2372A9E-8322-4203-8AD8-9EF37FB73D2B}" name="param name" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{BE0266B4-0AA2-475C-8D13-DBDF17FE05C3}" name="main" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{E7D086AD-F1E1-47EE-A908-729CC7D1EDB9}" name="branch" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{30879BC5-4F3C-4CE6-81C1-426176CBF96F}" name="type" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{C2372A9E-8322-4203-8AD8-9EF37FB73D2B}" name="param name" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{844A6BA8-C36D-413A-B54D-E7B75700C5B0}" name="表6_892121314151617181920212223" displayName="表6_892121314151617181920212223" ref="A1:D12" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{844A6BA8-C36D-413A-B54D-E7B75700C5B0}" name="表6_892121314151617181920212223" displayName="表6_892121314151617181920212223" ref="A1:D12" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:D12" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EA39BB2F-8FC6-4310-8EB3-E2D37B6D1DE6}" name="main" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{E957548F-271C-40B2-9092-CE9C0E9F6144}" name="branch" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{9382DDB7-EB44-4420-A985-2B29EB05A1AB}" name="type" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{92812206-9544-4249-A90A-3C34475D1723}" name="param name" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{EA39BB2F-8FC6-4310-8EB3-E2D37B6D1DE6}" name="main" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{E957548F-271C-40B2-9092-CE9C0E9F6144}" name="branch" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{9382DDB7-EB44-4420-A985-2B29EB05A1AB}" name="type" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{92812206-9544-4249-A90A-3C34475D1723}" name="param name" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{2AF21F10-51C5-4833-A199-42225D1D6730}" name="表6_89212131415161718192021222324" displayName="表6_89212131415161718192021222324" ref="A1:D228" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{2AF21F10-51C5-4833-A199-42225D1D6730}" name="表6_89212131415161718192021222324" displayName="表6_89212131415161718192021222324" ref="A1:D228" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:D228" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -5007,17 +5100,17 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CEEBD0F-DE94-484C-8FDC-176AF6899DE4}" name="main" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{4748AC76-F26C-4A8E-B7FD-51E3A961A0DB}" name="branch" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{EE6CB704-AFEC-4814-B724-8C974D2C1C4A}" name="type" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{21049C3B-A088-4554-A135-9BFC4E507614}" name="param name" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{1CEEBD0F-DE94-484C-8FDC-176AF6899DE4}" name="main" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{4748AC76-F26C-4A8E-B7FD-51E3A961A0DB}" name="branch" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{EE6CB704-AFEC-4814-B724-8C974D2C1C4A}" name="type" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{21049C3B-A088-4554-A135-9BFC4E507614}" name="param name" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{55BF17C4-35F9-443B-B504-6F8CF153E765}" name="表6_8921213141516171819202122232425" displayName="表6_8921213141516171819202122232425" ref="A1:D128" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{55BF17C4-35F9-443B-B504-6F8CF153E765}" name="表6_8921213141516171819202122232425" displayName="表6_8921213141516171819202122232425" ref="A1:D128" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:D128" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -5033,17 +5126,17 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{67C559A2-2EC4-4EA5-AC44-6F0B83853E07}" name="main" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{5062C9AC-3913-48C1-AACB-3DC177626C6D}" name="branch" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{8D2188A2-6728-48FB-81FE-331F3F410AEA}" name="type" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{7FAF264C-841C-41C7-8F4F-56EDB6D7C8B3}" name="param name" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{67C559A2-2EC4-4EA5-AC44-6F0B83853E07}" name="main" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{5062C9AC-3913-48C1-AACB-3DC177626C6D}" name="branch" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{8D2188A2-6728-48FB-81FE-331F3F410AEA}" name="type" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{7FAF264C-841C-41C7-8F4F-56EDB6D7C8B3}" name="param name" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{8D619451-02A5-419F-AD3C-FE8AECE06AD8}" name="表6_892121314151617181920212223242526" displayName="表6_892121314151617181920212223242526" ref="A1:D148" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{8D619451-02A5-419F-AD3C-FE8AECE06AD8}" name="表6_892121314151617181920212223242526" displayName="表6_892121314151617181920212223242526" ref="A1:D148" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:D148" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -5054,166 +5147,203 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D656239-4345-464E-9E4D-F546800A4D9E}" name="main" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{A403BB16-00B7-4984-91F8-80C98BEDFAE9}" name="branch" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{18F2EC94-873F-4403-9B63-44BA4485862E}" name="type" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{4BF4EB5D-4276-4036-94F4-BD977DD08A32}" name="param name" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{9D656239-4345-464E-9E4D-F546800A4D9E}" name="main" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{A403BB16-00B7-4984-91F8-80C98BEDFAE9}" name="branch" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{18F2EC94-873F-4403-9B63-44BA4485862E}" name="type" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{4BF4EB5D-4276-4036-94F4-BD977DD08A32}" name="param name" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{D77823DB-C201-4E7D-833C-6085CF94DD96}" name="表6_89212131415161718192021222324252627" displayName="表6_89212131415161718192021222324252627" ref="A1:D18" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{D77823DB-C201-4E7D-833C-6085CF94DD96}" name="表6_89212131415161718192021222324252627" displayName="表6_89212131415161718192021222324252627" ref="A1:D18" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:D18" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C99D0936-A00D-473A-9722-7AB9594E93FA}" name="main" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{91ED2A21-20F7-4D7F-8995-D255AD21FD6C}" name="branch" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{704694F5-EE15-4077-A55A-68AB0FC0A262}" name="type" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{EB568756-ADFD-452D-9F00-E142C274E911}" name="param name" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{C99D0936-A00D-473A-9722-7AB9594E93FA}" name="main" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{91ED2A21-20F7-4D7F-8995-D255AD21FD6C}" name="branch" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{704694F5-EE15-4077-A55A-68AB0FC0A262}" name="type" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{EB568756-ADFD-452D-9F00-E142C274E911}" name="param name" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{120987A5-0656-40F2-B4C8-58BDD36818AF}" name="表6_8921213141516171819202122232425262728" displayName="表6_8921213141516171819202122232425262728" ref="A1:D25" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{120987A5-0656-40F2-B4C8-58BDD36818AF}" name="表6_8921213141516171819202122232425262728" displayName="表6_8921213141516171819202122232425262728" ref="A1:D25" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:D25" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D3F0BF9B-EF3D-46FD-851B-DE7A8BA6861A}" name="main" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{26734EFB-3A91-4358-8F49-76CD28502CCD}" name="branch" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{21B8E7A3-96A6-4FA8-BF69-2D45AD6CE016}" name="type" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{DFD55D6B-2A70-453A-A9CA-3AC307D52CEB}" name="param name" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{D3F0BF9B-EF3D-46FD-851B-DE7A8BA6861A}" name="main" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{26734EFB-3A91-4358-8F49-76CD28502CCD}" name="branch" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{21B8E7A3-96A6-4FA8-BF69-2D45AD6CE016}" name="type" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{DFD55D6B-2A70-453A-A9CA-3AC307D52CEB}" name="param name" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9E1029A9-E2B6-460A-BDD3-35B9E8EF1A27}" name="表6_892121314151617181920212223242526272829" displayName="表6_892121314151617181920212223242526272829" ref="A1:D37" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9E1029A9-E2B6-460A-BDD3-35B9E8EF1A27}" name="表6_892121314151617181920212223242526272829" displayName="表6_892121314151617181920212223242526272829" ref="A1:D37" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:D37" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{202FE0DE-0C42-49BE-8A93-547C5E684986}" name="main" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{1D731C2C-7DC2-450C-A501-23252C619AFE}" name="branch" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{F7069DC3-74B6-41AD-BA7F-D8AD59F0EFD6}" name="type" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{5A9F1D1F-D443-4878-97A8-CA433BC066DD}" name="param name" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{202FE0DE-0C42-49BE-8A93-547C5E684986}" name="main" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{1D731C2C-7DC2-450C-A501-23252C619AFE}" name="branch" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{F7069DC3-74B6-41AD-BA7F-D8AD59F0EFD6}" name="type" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{5A9F1D1F-D443-4878-97A8-CA433BC066DD}" name="param name" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{812EF589-76F5-45DE-814A-25389EF0967B}" name="表6_89212131415161718192021222324252627282930" displayName="表6_89212131415161718192021222324252627282930" ref="A1:D86" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D86" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{812EF589-76F5-45DE-814A-25389EF0967B}" name="表6_89212131415161718192021222324252627282930" displayName="表6_89212131415161718192021222324252627282930" ref="A1:D86" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:D86" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="texmap_base_bump"/>
+        <filter val="texmap_base_bump_multiplier"/>
+        <filter val="texmap_base_bump_on"/>
+        <filter val="texmap_coat_bump"/>
+        <filter val="texmap_coat_bump_multiplier"/>
+        <filter val="texmap_coat_bump_on"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8F1AA2F5-9662-4F90-9B63-332419C63823}" name="main" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{42B506CD-7BCF-42F9-BC3C-1D006F57004F}" name="branch" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{317A53D1-91A1-461D-8658-2B7B138E7753}" name="type" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{D5F70997-D51C-452C-89F1-F64CC91C8011}" name="param name" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{8F1AA2F5-9662-4F90-9B63-332419C63823}" name="main" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{42B506CD-7BCF-42F9-BC3C-1D006F57004F}" name="branch" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{317A53D1-91A1-461D-8658-2B7B138E7753}" name="type" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{D5F70997-D51C-452C-89F1-F64CC91C8011}" name="param name" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}" name="表4" displayName="表4" ref="A1:D14" totalsRowShown="0" headerRowDxfId="169" dataDxfId="168">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}" name="表4" displayName="表4" ref="A1:D14" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
   <autoFilter ref="A1:D14" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3808606C-1404-4259-B39E-E1E7A110B5CA}" name="main" dataDxfId="167"/>
-    <tableColumn id="2" xr3:uid="{F328710A-D3E3-4CE0-96F6-91F65F558FA0}" name="branch" dataDxfId="166"/>
-    <tableColumn id="3" xr3:uid="{DFCF2074-8826-4ED3-870D-7F464F5BEA44}" name="type" dataDxfId="165"/>
-    <tableColumn id="4" xr3:uid="{229BF5C0-6908-4BBD-A508-EF45263F6BC0}" name="param name" dataDxfId="164"/>
+    <tableColumn id="1" xr3:uid="{3808606C-1404-4259-B39E-E1E7A110B5CA}" name="main" dataDxfId="179"/>
+    <tableColumn id="2" xr3:uid="{F328710A-D3E3-4CE0-96F6-91F65F558FA0}" name="branch" dataDxfId="178"/>
+    <tableColumn id="3" xr3:uid="{DFCF2074-8826-4ED3-870D-7F464F5BEA44}" name="type" dataDxfId="177"/>
+    <tableColumn id="4" xr3:uid="{229BF5C0-6908-4BBD-A508-EF45263F6BC0}" name="param name" dataDxfId="176"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{1D60048A-C472-4872-AC9D-2379248F9D6F}" name="表6_8921213141516171819202122232425262728293031" displayName="表6_8921213141516171819202122232425262728293031" ref="A1:D2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{1D60048A-C472-4872-AC9D-2379248F9D6F}" name="表6_8921213141516171819202122232425262728293031" displayName="表6_8921213141516171819202122232425262728293031" ref="A1:D2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D7A2469D-F5D2-40F7-BAB6-BA297295D345}" name="main" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{6877823A-086B-468B-83BF-BB42DD98E006}" name="branch" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{37B4F256-51D2-421F-B0A5-2CBFDC7ABAA8}" name="type" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{9AC80006-A126-46BA-9F52-749AB1F7286A}" name="param name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D7A2469D-F5D2-40F7-BAB6-BA297295D345}" name="main" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{6877823A-086B-468B-83BF-BB42DD98E006}" name="branch" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{37B4F256-51D2-421F-B0A5-2CBFDC7ABAA8}" name="type" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{9AC80006-A126-46BA-9F52-749AB1F7286A}" name="param name" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{42393325-2B83-4B11-82F6-EFBF38BDEDFC}" name="表6_892121314151617181920212223242526272829303132" displayName="表6_892121314151617181920212223242526272829303132" ref="A1:D2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{F0DA75C7-FB66-46BD-A5A7-A150C0AAA29F}" name="main" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{335B8FD7-F4F5-4C0C-A754-A72950A1BE9B}" name="branch" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{E662F644-60D2-4DC7-90DE-A01BB09AF019}" name="type" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8D1177B3-DA60-4E28-96E4-F084155D116A}" name="param name" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{386C923B-D958-43D1-B3BB-6151D778DC29}" name="表6_89212131415161718192021222324252627282930313233" displayName="表6_89212131415161718192021222324252627282930313233" ref="A1:D2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D55E2339-875B-4D76-A3FA-D3B13080AEA4}" name="main" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{E91F64E1-4386-462F-B3A8-EE83BD90C51B}" name="branch" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{3271998A-703F-4CF6-9450-42971CBBB68B}" name="type" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{6E633AD3-7444-46B0-8CD2-C71AF9825721}" name="param name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}" name="表5" displayName="表5" ref="A1:D36" totalsRowShown="0" headerRowDxfId="163" headerRowBorderDxfId="162" tableBorderDxfId="161" totalsRowBorderDxfId="160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}" name="表5" displayName="表5" ref="A1:D36" totalsRowShown="0" headerRowDxfId="175" headerRowBorderDxfId="174" tableBorderDxfId="173" totalsRowBorderDxfId="172">
   <autoFilter ref="A1:D36" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4AE65613-9E32-4B81-B096-3CE2F9469A99}" name="main" dataDxfId="159"/>
-    <tableColumn id="2" xr3:uid="{B9C8132D-EB95-4F97-B376-375C1E78DA2F}" name="branch" dataDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{A1B42A52-7EC8-4E70-A45E-3F416909E1EA}" name="type" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{390F265C-3120-4E30-9A3E-68BE2347C969}" name="param name" dataDxfId="156"/>
+    <tableColumn id="1" xr3:uid="{4AE65613-9E32-4B81-B096-3CE2F9469A99}" name="main" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{B9C8132D-EB95-4F97-B376-375C1E78DA2F}" name="branch" dataDxfId="170"/>
+    <tableColumn id="3" xr3:uid="{A1B42A52-7EC8-4E70-A45E-3F416909E1EA}" name="type" dataDxfId="169"/>
+    <tableColumn id="4" xr3:uid="{390F265C-3120-4E30-9A3E-68BE2347C969}" name="param name" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}" name="表6" displayName="表6" ref="A1:D17" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}" name="表6" displayName="表6" ref="A1:D17" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166">
   <autoFilter ref="A1:D17" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BAEEF277-80BF-4C16-8215-7CCD39C11565}" name="main" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{45843013-F77E-4A90-AF54-173129A318BC}" name="branch" dataDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{DE07E8D7-AF19-4990-B4EB-FB8A48054E6D}" name="type" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{D87A2779-3B12-41B3-968D-150307DF3484}" name="param name" dataDxfId="150"/>
+    <tableColumn id="1" xr3:uid="{BAEEF277-80BF-4C16-8215-7CCD39C11565}" name="main" dataDxfId="165"/>
+    <tableColumn id="2" xr3:uid="{45843013-F77E-4A90-AF54-173129A318BC}" name="branch" dataDxfId="164"/>
+    <tableColumn id="3" xr3:uid="{DE07E8D7-AF19-4990-B4EB-FB8A48054E6D}" name="type" dataDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{D87A2779-3B12-41B3-968D-150307DF3484}" name="param name" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44179487-8091-4992-8094-4DA31A4A9A12}" name="表6_8" displayName="表6_8" ref="A1:D8" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44179487-8091-4992-8094-4DA31A4A9A12}" name="表6_8" displayName="表6_8" ref="A1:D8" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
   <autoFilter ref="A1:D8" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{74AA3551-D5FC-442E-820B-56B35F04E314}" name="main" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{872A74B1-DD5D-4A36-ADFF-F85B7DA48580}" name="branch" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{92E7DF35-9ECD-40C3-9E4D-BD067B6A62EC}" name="type" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{521BB435-4AEA-479B-9B1C-8DE67307817F}" name="param name" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{74AA3551-D5FC-442E-820B-56B35F04E314}" name="main" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{872A74B1-DD5D-4A36-ADFF-F85B7DA48580}" name="branch" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{92E7DF35-9ECD-40C3-9E4D-BD067B6A62EC}" name="type" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{521BB435-4AEA-479B-9B1C-8DE67307817F}" name="param name" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C4239BEF-66B1-4C30-A627-2C7A8F2E4BA9}" name="表6_89" displayName="表6_89" ref="A1:D7" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C4239BEF-66B1-4C30-A627-2C7A8F2E4BA9}" name="表6_89" displayName="表6_89" ref="A1:D7" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
   <autoFilter ref="A1:D7" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8A8D086D-6A95-4C02-8C03-468264AB5725}" name="main" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{CE92D93E-D841-4961-B94A-11AA4C235B48}" name="branch" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{9EA0702F-1E71-4F31-A149-4EDC82F3059F}" name="type" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{1126922B-B081-42BE-9F6D-8F699D3E6FEF}" name="param name" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{8A8D086D-6A95-4C02-8C03-468264AB5725}" name="main" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{CE92D93E-D841-4961-B94A-11AA4C235B48}" name="branch" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{9EA0702F-1E71-4F31-A149-4EDC82F3059F}" name="type" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{1126922B-B081-42BE-9F6D-8F699D3E6FEF}" name="param name" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F70E97C-7386-4083-8729-2F25C3160A9B}" name="表6_8910" displayName="表6_8910" ref="A1:D22" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F70E97C-7386-4083-8729-2F25C3160A9B}" name="表6_8910" displayName="表6_8910" ref="A1:D22" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="A1:D22" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0177998A-43AB-4B0F-8604-0AF954FBB185}" name="main" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{37520786-1F3E-4E38-8C3B-6E990C026213}" name="branch" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{06224467-73DA-4D97-B072-2FA1C3A7CF43}" name="type" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{7F4CE11F-D886-48B2-A97A-A561D4C6C79B}" name="param name" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{0177998A-43AB-4B0F-8604-0AF954FBB185}" name="main" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{37520786-1F3E-4E38-8C3B-6E990C026213}" name="branch" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{06224467-73DA-4D97-B072-2FA1C3A7CF43}" name="type" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{7F4CE11F-D886-48B2-A97A-A561D4C6C79B}" name="param name" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6E123A4-AC18-4383-8FEF-88FC9710A391}" name="表6_891011" displayName="表6_891011" ref="A1:D48" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6E123A4-AC18-4383-8FEF-88FC9710A391}" name="表6_891011" displayName="表6_891011" ref="A1:D48" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
   <autoFilter ref="A1:D48" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8A85C0EA-4CDE-4D93-B049-3C11FD83B866}" name="main" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{B4D689B8-7678-4627-8C30-571AFA1954CE}" name="branch" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{1B0A04CF-F3AC-4373-A92B-F7D319E52FC4}" name="type" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{5B52C9B4-0914-412B-8D7D-C4F1D3CB6CA9}" name="param name" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{8A85C0EA-4CDE-4D93-B049-3C11FD83B866}" name="main" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{B4D689B8-7678-4627-8C30-571AFA1954CE}" name="branch" dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{1B0A04CF-F3AC-4373-A92B-F7D319E52FC4}" name="type" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{5B52C9B4-0914-412B-8D7D-C4F1D3CB6CA9}" name="param name" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -16184,7 +16314,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -16460,8 +16590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C36C744-F1C4-49B8-ABE3-C3460864E11C}">
   <dimension ref="A1:N53"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17540,8 +17670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8752D82F-8718-46C8-BE35-DD85418B6463}">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17566,7 +17696,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>0</v>
       </c>
@@ -17580,11 +17710,11 @@
         <v>838</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -17594,11 +17724,11 @@
         <v>839</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>0</v>
-      </c>
-      <c r="B4" s="19">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -17608,11 +17738,11 @@
         <v>840</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>0</v>
-      </c>
-      <c r="B5" s="19">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>3</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -17622,11 +17752,11 @@
         <v>841</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
-        <v>0</v>
-      </c>
-      <c r="B6" s="19">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -17636,11 +17766,11 @@
         <v>842</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>0</v>
-      </c>
-      <c r="B7" s="19">
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -17650,11 +17780,11 @@
         <v>843</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>0</v>
-      </c>
-      <c r="B8" s="19">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -17664,11 +17794,11 @@
         <v>844</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>0</v>
-      </c>
-      <c r="B9" s="19">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -17678,11 +17808,11 @@
         <v>845</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>0</v>
-      </c>
-      <c r="B10" s="19">
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -17692,11 +17822,11 @@
         <v>846</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>0</v>
-      </c>
-      <c r="B11" s="19">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -17706,11 +17836,11 @@
         <v>847</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="19">
-        <v>0</v>
-      </c>
-      <c r="B12" s="19">
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
         <v>10</v>
       </c>
       <c r="C12" s="15" t="s">
@@ -17720,11 +17850,11 @@
         <v>848</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="19">
-        <v>0</v>
-      </c>
-      <c r="B13" s="19">
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
         <v>11</v>
       </c>
       <c r="C13" s="15" t="s">
@@ -17734,11 +17864,11 @@
         <v>849</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A14" s="19">
-        <v>0</v>
-      </c>
-      <c r="B14" s="19">
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
         <v>12</v>
       </c>
       <c r="C14" s="15" t="s">
@@ -17748,11 +17878,11 @@
         <v>850</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="19">
-        <v>0</v>
-      </c>
-      <c r="B15" s="19">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
         <v>13</v>
       </c>
       <c r="C15" s="15" t="s">
@@ -17762,11 +17892,11 @@
         <v>851</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A16" s="19">
-        <v>0</v>
-      </c>
-      <c r="B16" s="19">
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
         <v>14</v>
       </c>
       <c r="C16" s="15" t="s">
@@ -17776,11 +17906,11 @@
         <v>852</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="19">
-        <v>0</v>
-      </c>
-      <c r="B17" s="19">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
         <v>15</v>
       </c>
       <c r="C17" s="15" t="s">
@@ -17790,11 +17920,11 @@
         <v>853</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="19">
-        <v>0</v>
-      </c>
-      <c r="B18" s="19">
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
         <v>16</v>
       </c>
       <c r="C18" s="15" t="s">
@@ -17804,11 +17934,11 @@
         <v>854</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="19">
-        <v>0</v>
-      </c>
-      <c r="B19" s="19">
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>0</v>
+      </c>
+      <c r="B19" s="14">
         <v>17</v>
       </c>
       <c r="C19" s="15" t="s">
@@ -17818,11 +17948,11 @@
         <v>855</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="19">
-        <v>0</v>
-      </c>
-      <c r="B20" s="19">
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>0</v>
+      </c>
+      <c r="B20" s="14">
         <v>18</v>
       </c>
       <c r="C20" s="15" t="s">
@@ -17832,11 +17962,11 @@
         <v>856</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="19">
-        <v>0</v>
-      </c>
-      <c r="B21" s="19">
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>0</v>
+      </c>
+      <c r="B21" s="14">
         <v>19</v>
       </c>
       <c r="C21" s="15" t="s">
@@ -17846,11 +17976,11 @@
         <v>857</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="19">
-        <v>0</v>
-      </c>
-      <c r="B22" s="19">
+    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>0</v>
+      </c>
+      <c r="B22" s="14">
         <v>20</v>
       </c>
       <c r="C22" s="15" t="s">
@@ -17860,11 +17990,11 @@
         <v>858</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="19">
-        <v>0</v>
-      </c>
-      <c r="B23" s="19">
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>0</v>
+      </c>
+      <c r="B23" s="14">
         <v>21</v>
       </c>
       <c r="C23" s="15" t="s">
@@ -17874,11 +18004,11 @@
         <v>859</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="19">
-        <v>0</v>
-      </c>
-      <c r="B24" s="19">
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>0</v>
+      </c>
+      <c r="B24" s="14">
         <v>22</v>
       </c>
       <c r="C24" s="15" t="s">
@@ -17888,11 +18018,11 @@
         <v>860</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="19">
-        <v>0</v>
-      </c>
-      <c r="B25" s="19">
+    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>0</v>
+      </c>
+      <c r="B25" s="14">
         <v>23</v>
       </c>
       <c r="C25" s="15" t="s">
@@ -17902,11 +18032,11 @@
         <v>861</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="19">
-        <v>0</v>
-      </c>
-      <c r="B26" s="19">
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>0</v>
+      </c>
+      <c r="B26" s="14">
         <v>24</v>
       </c>
       <c r="C26" s="15" t="s">
@@ -17916,11 +18046,11 @@
         <v>862</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="19">
-        <v>0</v>
-      </c>
-      <c r="B27" s="19">
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>0</v>
+      </c>
+      <c r="B27" s="14">
         <v>25</v>
       </c>
       <c r="C27" s="15" t="s">
@@ -17930,11 +18060,11 @@
         <v>863</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="19">
-        <v>0</v>
-      </c>
-      <c r="B28" s="19">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>0</v>
+      </c>
+      <c r="B28" s="14">
         <v>26</v>
       </c>
       <c r="C28" s="15" t="s">
@@ -17944,11 +18074,11 @@
         <v>393</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="19">
-        <v>0</v>
-      </c>
-      <c r="B29" s="19">
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>0</v>
+      </c>
+      <c r="B29" s="14">
         <v>27</v>
       </c>
       <c r="C29" s="15" t="s">
@@ -17958,11 +18088,11 @@
         <v>864</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="19">
-        <v>0</v>
-      </c>
-      <c r="B30" s="19">
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>0</v>
+      </c>
+      <c r="B30" s="14">
         <v>28</v>
       </c>
       <c r="C30" s="15" t="s">
@@ -17972,11 +18102,11 @@
         <v>394</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="19">
-        <v>0</v>
-      </c>
-      <c r="B31" s="19">
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>0</v>
+      </c>
+      <c r="B31" s="14">
         <v>29</v>
       </c>
       <c r="C31" s="15" t="s">
@@ -17986,11 +18116,11 @@
         <v>865</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A32" s="19">
-        <v>0</v>
-      </c>
-      <c r="B32" s="19">
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>0</v>
+      </c>
+      <c r="B32" s="14">
         <v>30</v>
       </c>
       <c r="C32" s="15" t="s">
@@ -18000,11 +18130,11 @@
         <v>396</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A33" s="19">
-        <v>0</v>
-      </c>
-      <c r="B33" s="19">
+    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>0</v>
+      </c>
+      <c r="B33" s="14">
         <v>31</v>
       </c>
       <c r="C33" s="15" t="s">
@@ -18014,11 +18144,11 @@
         <v>866</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="19">
-        <v>0</v>
-      </c>
-      <c r="B34" s="19">
+    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>0</v>
+      </c>
+      <c r="B34" s="14">
         <v>32</v>
       </c>
       <c r="C34" s="15" t="s">
@@ -18028,11 +18158,11 @@
         <v>395</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A35" s="19">
-        <v>0</v>
-      </c>
-      <c r="B35" s="19">
+    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>0</v>
+      </c>
+      <c r="B35" s="14">
         <v>33</v>
       </c>
       <c r="C35" s="15" t="s">
@@ -18042,11 +18172,11 @@
         <v>867</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" s="19">
-        <v>0</v>
-      </c>
-      <c r="B36" s="19">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>0</v>
+      </c>
+      <c r="B36" s="14">
         <v>34</v>
       </c>
       <c r="C36" s="15" t="s">
@@ -18056,11 +18186,11 @@
         <v>868</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" s="19">
-        <v>0</v>
-      </c>
-      <c r="B37" s="19">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>0</v>
+      </c>
+      <c r="B37" s="14">
         <v>35</v>
       </c>
       <c r="C37" s="15" t="s">
@@ -18070,11 +18200,11 @@
         <v>869</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A38" s="19">
-        <v>0</v>
-      </c>
-      <c r="B38" s="19">
+    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>0</v>
+      </c>
+      <c r="B38" s="14">
         <v>36</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -18084,11 +18214,11 @@
         <v>870</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A39" s="19">
-        <v>0</v>
-      </c>
-      <c r="B39" s="19">
+    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>0</v>
+      </c>
+      <c r="B39" s="14">
         <v>37</v>
       </c>
       <c r="C39" s="15" t="s">
@@ -18098,11 +18228,11 @@
         <v>154</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="19">
-        <v>0</v>
-      </c>
-      <c r="B40" s="19">
+    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>0</v>
+      </c>
+      <c r="B40" s="14">
         <v>38</v>
       </c>
       <c r="C40" s="15" t="s">
@@ -18112,11 +18242,11 @@
         <v>146</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" s="19">
-        <v>0</v>
-      </c>
-      <c r="B41" s="19">
+    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>0</v>
+      </c>
+      <c r="B41" s="14">
         <v>39</v>
       </c>
       <c r="C41" s="15" t="s">
@@ -18126,11 +18256,11 @@
         <v>871</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A42" s="19">
-        <v>0</v>
-      </c>
-      <c r="B42" s="19">
+    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>0</v>
+      </c>
+      <c r="B42" s="14">
         <v>40</v>
       </c>
       <c r="C42" s="15" t="s">
@@ -18140,11 +18270,11 @@
         <v>872</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="19">
-        <v>0</v>
-      </c>
-      <c r="B43" s="19">
+    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>0</v>
+      </c>
+      <c r="B43" s="14">
         <v>41</v>
       </c>
       <c r="C43" s="15" t="s">
@@ -18154,11 +18284,11 @@
         <v>873</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A44" s="19">
-        <v>0</v>
-      </c>
-      <c r="B44" s="19">
+    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>0</v>
+      </c>
+      <c r="B44" s="14">
         <v>42</v>
       </c>
       <c r="C44" s="15" t="s">
@@ -18168,11 +18298,11 @@
         <v>874</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A45" s="19">
-        <v>0</v>
-      </c>
-      <c r="B45" s="19">
+    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>0</v>
+      </c>
+      <c r="B45" s="14">
         <v>43</v>
       </c>
       <c r="C45" s="15" t="s">
@@ -18182,11 +18312,11 @@
         <v>875</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="19">
-        <v>0</v>
-      </c>
-      <c r="B46" s="19">
+    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>0</v>
+      </c>
+      <c r="B46" s="14">
         <v>44</v>
       </c>
       <c r="C46" s="15" t="s">
@@ -18196,11 +18326,11 @@
         <v>876</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" s="19">
-        <v>0</v>
-      </c>
-      <c r="B47" s="19">
+    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>0</v>
+      </c>
+      <c r="B47" s="14">
         <v>45</v>
       </c>
       <c r="C47" s="15" t="s">
@@ -18210,11 +18340,11 @@
         <v>877</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" s="19">
-        <v>0</v>
-      </c>
-      <c r="B48" s="19">
+    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>0</v>
+      </c>
+      <c r="B48" s="14">
         <v>46</v>
       </c>
       <c r="C48" s="15" t="s">
@@ -18224,11 +18354,11 @@
         <v>878</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A49" s="19">
-        <v>0</v>
-      </c>
-      <c r="B49" s="19">
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>0</v>
+      </c>
+      <c r="B49" s="14">
         <v>47</v>
       </c>
       <c r="C49" s="15" t="s">
@@ -18238,11 +18368,11 @@
         <v>879</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A50" s="19">
-        <v>0</v>
-      </c>
-      <c r="B50" s="19">
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>0</v>
+      </c>
+      <c r="B50" s="14">
         <v>48</v>
       </c>
       <c r="C50" s="15" t="s">
@@ -18252,11 +18382,11 @@
         <v>880</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A51" s="19">
-        <v>0</v>
-      </c>
-      <c r="B51" s="19">
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>0</v>
+      </c>
+      <c r="B51" s="14">
         <v>49</v>
       </c>
       <c r="C51" s="15" t="s">
@@ -18266,11 +18396,11 @@
         <v>881</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A52" s="19">
-        <v>0</v>
-      </c>
-      <c r="B52" s="19">
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>0</v>
+      </c>
+      <c r="B52" s="14">
         <v>50</v>
       </c>
       <c r="C52" s="15" t="s">
@@ -18280,11 +18410,11 @@
         <v>882</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="19">
-        <v>0</v>
-      </c>
-      <c r="B53" s="19">
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>0</v>
+      </c>
+      <c r="B53" s="14">
         <v>51</v>
       </c>
       <c r="C53" s="15" t="s">
@@ -18294,11 +18424,11 @@
         <v>883</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A54" s="19">
-        <v>0</v>
-      </c>
-      <c r="B54" s="19">
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>0</v>
+      </c>
+      <c r="B54" s="14">
         <v>52</v>
       </c>
       <c r="C54" s="15" t="s">
@@ -18309,10 +18439,10 @@
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" s="19">
-        <v>0</v>
-      </c>
-      <c r="B55" s="19">
+      <c r="A55" s="14">
+        <v>0</v>
+      </c>
+      <c r="B55" s="14">
         <v>53</v>
       </c>
       <c r="C55" s="15" t="s">
@@ -18323,10 +18453,10 @@
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" s="19">
-        <v>0</v>
-      </c>
-      <c r="B56" s="19">
+      <c r="A56" s="14">
+        <v>0</v>
+      </c>
+      <c r="B56" s="14">
         <v>54</v>
       </c>
       <c r="C56" s="15" t="s">
@@ -18337,10 +18467,10 @@
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A57" s="19">
-        <v>0</v>
-      </c>
-      <c r="B57" s="19">
+      <c r="A57" s="14">
+        <v>0</v>
+      </c>
+      <c r="B57" s="14">
         <v>55</v>
       </c>
       <c r="C57" s="15" t="s">
@@ -18350,11 +18480,11 @@
         <v>887</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A58" s="19">
-        <v>0</v>
-      </c>
-      <c r="B58" s="19">
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>0</v>
+      </c>
+      <c r="B58" s="14">
         <v>56</v>
       </c>
       <c r="C58" s="15" t="s">
@@ -18364,11 +18494,11 @@
         <v>888</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A59" s="19">
-        <v>0</v>
-      </c>
-      <c r="B59" s="19">
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
+        <v>0</v>
+      </c>
+      <c r="B59" s="14">
         <v>57</v>
       </c>
       <c r="C59" s="15" t="s">
@@ -18378,11 +18508,11 @@
         <v>889</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A60" s="19">
-        <v>0</v>
-      </c>
-      <c r="B60" s="19">
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="14">
+        <v>0</v>
+      </c>
+      <c r="B60" s="14">
         <v>58</v>
       </c>
       <c r="C60" s="15" t="s">
@@ -18392,11 +18522,11 @@
         <v>890</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A61" s="19">
-        <v>0</v>
-      </c>
-      <c r="B61" s="19">
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="14">
+        <v>0</v>
+      </c>
+      <c r="B61" s="14">
         <v>59</v>
       </c>
       <c r="C61" s="15" t="s">
@@ -18406,11 +18536,11 @@
         <v>891</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A62" s="19">
-        <v>0</v>
-      </c>
-      <c r="B62" s="19">
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="14">
+        <v>0</v>
+      </c>
+      <c r="B62" s="14">
         <v>60</v>
       </c>
       <c r="C62" s="15" t="s">
@@ -18420,11 +18550,11 @@
         <v>892</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="19">
-        <v>0</v>
-      </c>
-      <c r="B63" s="19">
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="14">
+        <v>0</v>
+      </c>
+      <c r="B63" s="14">
         <v>61</v>
       </c>
       <c r="C63" s="15" t="s">
@@ -18434,11 +18564,11 @@
         <v>893</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A64" s="19">
-        <v>0</v>
-      </c>
-      <c r="B64" s="19">
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="14">
+        <v>0</v>
+      </c>
+      <c r="B64" s="14">
         <v>62</v>
       </c>
       <c r="C64" s="15" t="s">
@@ -18448,11 +18578,11 @@
         <v>894</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A65" s="19">
-        <v>0</v>
-      </c>
-      <c r="B65" s="19">
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="14">
+        <v>0</v>
+      </c>
+      <c r="B65" s="14">
         <v>63</v>
       </c>
       <c r="C65" s="15" t="s">
@@ -18462,11 +18592,11 @@
         <v>895</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A66" s="19">
-        <v>0</v>
-      </c>
-      <c r="B66" s="19">
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="14">
+        <v>0</v>
+      </c>
+      <c r="B66" s="14">
         <v>64</v>
       </c>
       <c r="C66" s="15" t="s">
@@ -18476,11 +18606,11 @@
         <v>896</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A67" s="19">
-        <v>0</v>
-      </c>
-      <c r="B67" s="19">
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="14">
+        <v>0</v>
+      </c>
+      <c r="B67" s="14">
         <v>65</v>
       </c>
       <c r="C67" s="15" t="s">
@@ -18490,11 +18620,11 @@
         <v>422</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A68" s="19">
-        <v>0</v>
-      </c>
-      <c r="B68" s="19">
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="14">
+        <v>0</v>
+      </c>
+      <c r="B68" s="14">
         <v>66</v>
       </c>
       <c r="C68" s="15" t="s">
@@ -18504,11 +18634,11 @@
         <v>509</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A69" s="19">
-        <v>0</v>
-      </c>
-      <c r="B69" s="19">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="14">
+        <v>0</v>
+      </c>
+      <c r="B69" s="14">
         <v>67</v>
       </c>
       <c r="C69" s="15" t="s">
@@ -18518,11 +18648,11 @@
         <v>510</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A70" s="19">
-        <v>0</v>
-      </c>
-      <c r="B70" s="19">
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="14">
+        <v>0</v>
+      </c>
+      <c r="B70" s="14">
         <v>68</v>
       </c>
       <c r="C70" s="15" t="s">
@@ -18532,11 +18662,11 @@
         <v>419</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="19">
-        <v>0</v>
-      </c>
-      <c r="B71" s="19">
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="14">
+        <v>0</v>
+      </c>
+      <c r="B71" s="14">
         <v>69</v>
       </c>
       <c r="C71" s="15" t="s">
@@ -18546,11 +18676,11 @@
         <v>511</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="19">
-        <v>0</v>
-      </c>
-      <c r="B72" s="19">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="14">
+        <v>0</v>
+      </c>
+      <c r="B72" s="14">
         <v>70</v>
       </c>
       <c r="C72" s="15" t="s">
@@ -18560,11 +18690,11 @@
         <v>512</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="19">
-        <v>0</v>
-      </c>
-      <c r="B73" s="19">
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="14">
+        <v>0</v>
+      </c>
+      <c r="B73" s="14">
         <v>71</v>
       </c>
       <c r="C73" s="15" t="s">
@@ -18574,11 +18704,11 @@
         <v>421</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A74" s="19">
-        <v>0</v>
-      </c>
-      <c r="B74" s="19">
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="14">
+        <v>0</v>
+      </c>
+      <c r="B74" s="14">
         <v>72</v>
       </c>
       <c r="C74" s="15" t="s">
@@ -18588,11 +18718,11 @@
         <v>515</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A75" s="19">
-        <v>0</v>
-      </c>
-      <c r="B75" s="19">
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="14">
+        <v>0</v>
+      </c>
+      <c r="B75" s="14">
         <v>73</v>
       </c>
       <c r="C75" s="15" t="s">
@@ -18602,11 +18732,11 @@
         <v>516</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A76" s="19">
-        <v>0</v>
-      </c>
-      <c r="B76" s="19">
+    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="14">
+        <v>0</v>
+      </c>
+      <c r="B76" s="14">
         <v>74</v>
       </c>
       <c r="C76" s="15" t="s">
@@ -18616,11 +18746,11 @@
         <v>420</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A77" s="19">
-        <v>0</v>
-      </c>
-      <c r="B77" s="19">
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="14">
+        <v>0</v>
+      </c>
+      <c r="B77" s="14">
         <v>75</v>
       </c>
       <c r="C77" s="15" t="s">
@@ -18630,11 +18760,11 @@
         <v>513</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="19">
-        <v>0</v>
-      </c>
-      <c r="B78" s="19">
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="14">
+        <v>0</v>
+      </c>
+      <c r="B78" s="14">
         <v>76</v>
       </c>
       <c r="C78" s="15" t="s">
@@ -18645,10 +18775,10 @@
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="19">
-        <v>0</v>
-      </c>
-      <c r="B79" s="19">
+      <c r="A79" s="14">
+        <v>0</v>
+      </c>
+      <c r="B79" s="14">
         <v>77</v>
       </c>
       <c r="C79" s="15" t="s">
@@ -18659,10 +18789,10 @@
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="19">
-        <v>0</v>
-      </c>
-      <c r="B80" s="19">
+      <c r="A80" s="14">
+        <v>0</v>
+      </c>
+      <c r="B80" s="14">
         <v>78</v>
       </c>
       <c r="C80" s="15" t="s">
@@ -18673,10 +18803,10 @@
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="19">
-        <v>0</v>
-      </c>
-      <c r="B81" s="19">
+      <c r="A81" s="14">
+        <v>0</v>
+      </c>
+      <c r="B81" s="14">
         <v>79</v>
       </c>
       <c r="C81" s="15" t="s">
@@ -18686,11 +18816,11 @@
         <v>518</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="19">
-        <v>0</v>
-      </c>
-      <c r="B82" s="19">
+    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="14">
+        <v>0</v>
+      </c>
+      <c r="B82" s="14">
         <v>80</v>
       </c>
       <c r="C82" s="15" t="s">
@@ -18700,11 +18830,11 @@
         <v>897</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="19">
-        <v>0</v>
-      </c>
-      <c r="B83" s="19">
+    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="14">
+        <v>0</v>
+      </c>
+      <c r="B83" s="14">
         <v>81</v>
       </c>
       <c r="C83" s="15" t="s">
@@ -18714,11 +18844,11 @@
         <v>898</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="19">
-        <v>0</v>
-      </c>
-      <c r="B84" s="19">
+    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="14">
+        <v>0</v>
+      </c>
+      <c r="B84" s="14">
         <v>82</v>
       </c>
       <c r="C84" s="15" t="s">
@@ -18728,11 +18858,11 @@
         <v>473</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="19">
-        <v>0</v>
-      </c>
-      <c r="B85" s="19">
+    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="14">
+        <v>0</v>
+      </c>
+      <c r="B85" s="14">
         <v>83</v>
       </c>
       <c r="C85" s="15" t="s">
@@ -18742,11 +18872,11 @@
         <v>474</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="19">
-        <v>0</v>
-      </c>
-      <c r="B86" s="19">
+    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="14">
+        <v>0</v>
+      </c>
+      <c r="B86" s="14">
         <v>84</v>
       </c>
       <c r="C86" s="15" t="s">
@@ -18990,6 +19120,112 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA9C388-CAA3-4695-949F-77695C0C0468}">
   <dimension ref="A1:D2"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F23E19F-8F9E-49D0-AC0C-2A5018D314E9}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53330EF9-A512-4EF3-B082-B966A8726E04}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>

--- a/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
+++ b/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\RedHaloM2B_Lib\RedHaloM2B_Lib\ParamBlock2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D02AA4D8-1C27-4D57-B5E2-0F03DA376407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3F74AD-1B59-41D0-9638-E6429EFC3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51480" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="706" firstSheet="23" activeTab="29" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
+    <workbookView xWindow="20970" yWindow="1725" windowWidth="27105" windowHeight="13710" tabRatio="706" firstSheet="23" activeTab="30" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
   </bookViews>
   <sheets>
     <sheet name="Checker" sheetId="6" r:id="rId1"/>
@@ -42,8 +42,8 @@
     <sheet name="CoronaLightMtl" sheetId="28" r:id="rId27"/>
     <sheet name="StandardMtl" sheetId="29" r:id="rId28"/>
     <sheet name="VRayCarPaintMtl2" sheetId="30" r:id="rId29"/>
-    <sheet name="Color Map (22)" sheetId="32" r:id="rId30"/>
-    <sheet name="Color Map (23)" sheetId="33" r:id="rId31"/>
+    <sheet name="VRay2SidedMtl" sheetId="32" r:id="rId30"/>
+    <sheet name="Double Material" sheetId="33" r:id="rId31"/>
     <sheet name="Color Map (24)" sheetId="34" r:id="rId32"/>
   </sheets>
   <definedNames>
@@ -51,8 +51,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checker!$A$3:$A$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Color Correction'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Color Map'!$A$2:$A$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">'Color Map (22)'!$A$2:$A$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">'Color Map (23)'!$A$2:$A$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">'Color Map (24)'!$A$2:$A$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">Composite!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">CoronaAO!$A$2:$A$20</definedName>
@@ -64,11 +62,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">CoronaMix!$A$2:$A$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">CoronaNormal!$A$2:$A$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">CoronaPhysicalMtl!$A$2:$A$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">'Double Material'!$A$2:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Falloff!$A$2:$A$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Gradient!$A$2:$A$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mix!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'RGB Multiply'!$A$2:$A$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">StandardMtl!$A$2:$A$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">VRay2SidedMtl!$A$2:$A$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">VRayBitmap!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">VRayBump2Normal!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">VRayCarPaintMtl2!$A$2:$A$86</definedName>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2248" uniqueCount="899">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="911">
   <si>
     <t>soften</t>
   </si>
@@ -2798,6 +2798,42 @@
   </si>
   <si>
     <t>texmap_environment_override_on</t>
+  </si>
+  <si>
+    <t>Mtl</t>
+  </si>
+  <si>
+    <t>frontMtl</t>
+  </si>
+  <si>
+    <t>backMtl</t>
+  </si>
+  <si>
+    <t>translucency</t>
+  </si>
+  <si>
+    <t>backMtlOn</t>
+  </si>
+  <si>
+    <t>texmap_translucency</t>
+  </si>
+  <si>
+    <t>texmap_translucency_multiplier</t>
+  </si>
+  <si>
+    <t>texmap_translucency_on</t>
+  </si>
+  <si>
+    <t>force1SidedSubMtls</t>
+  </si>
+  <si>
+    <t>mult_by_front_diffuse</t>
+  </si>
+  <si>
+    <t>material1</t>
+  </si>
+  <si>
+    <t>material2</t>
   </si>
 </sst>
 </file>
@@ -5233,8 +5269,8 @@
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{1D60048A-C472-4872-AC9D-2379248F9D6F}" name="表6_8921213141516171819202122232425262728293031" displayName="表6_8921213141516171819202122232425262728293031" ref="A1:D2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{1D60048A-C472-4872-AC9D-2379248F9D6F}" name="表6_8921213141516171819202122232425262728293031" displayName="表6_8921213141516171819202122232425262728293031" ref="A1:D11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:D11" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D7A2469D-F5D2-40F7-BAB6-BA297295D345}" name="main" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{6877823A-086B-468B-83BF-BB42DD98E006}" name="branch" dataDxfId="14"/>
@@ -5246,8 +5282,8 @@
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{42393325-2B83-4B11-82F6-EFBF38BDEDFC}" name="表6_892121314151617181920212223242526272829303132" displayName="表6_892121314151617181920212223242526272829303132" ref="A1:D2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{42393325-2B83-4B11-82F6-EFBF38BDEDFC}" name="表6_892121314151617181920212223242526272829303132" displayName="表6_892121314151617181920212223242526272829303132" ref="A1:D6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{F0DA75C7-FB66-46BD-A5A7-A150C0AAA29F}" name="main" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{335B8FD7-F4F5-4C0C-A754-A72950A1BE9B}" name="branch" dataDxfId="8"/>
@@ -5649,7 +5685,7 @@
   <dimension ref="A2:D18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19118,10 +19154,10 @@
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA9C388-CAA3-4695-949F-77695C0C0468}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19129,7 +19165,7 @@
     <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+    <col min="4" max="4" width="28.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -19154,10 +19190,133 @@
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>62</v>
+        <v>899</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>120</v>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>908</v>
       </c>
     </row>
   </sheetData>
@@ -19171,10 +19330,10 @@
 
 <file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F23E19F-8F9E-49D0-AC0C-2A5018D314E9}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19182,7 +19341,7 @@
     <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+    <col min="4" max="4" width="17.25" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -19207,10 +19366,66 @@
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>62</v>
+        <v>899</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>120</v>
+        <v>909</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>902</v>
       </c>
     </row>
   </sheetData>

--- a/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
+++ b/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\RedHaloM2B_Lib\RedHaloM2B_Lib\ParamBlock2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD3F74AD-1B59-41D0-9638-E6429EFC3E47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B8F7C-59A1-47B7-83B3-25EA54CA37EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20970" yWindow="1725" windowWidth="27105" windowHeight="13710" tabRatio="706" firstSheet="23" activeTab="30" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
+    <workbookView xWindow="23160" yWindow="2265" windowWidth="27105" windowHeight="13710" tabRatio="706" firstSheet="28" activeTab="32" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
   </bookViews>
   <sheets>
     <sheet name="Checker" sheetId="6" r:id="rId1"/>
@@ -44,14 +44,20 @@
     <sheet name="VRayCarPaintMtl2" sheetId="30" r:id="rId29"/>
     <sheet name="VRay2SidedMtl" sheetId="32" r:id="rId30"/>
     <sheet name="Double Material" sheetId="33" r:id="rId31"/>
-    <sheet name="Color Map (24)" sheetId="34" r:id="rId32"/>
+    <sheet name="VRayOverrideMtl" sheetId="34" r:id="rId32"/>
+    <sheet name="CoronaRaySwitchMtl" sheetId="35" r:id="rId33"/>
+    <sheet name="Color Map (26)" sheetId="36" r:id="rId34"/>
+    <sheet name="Color Map (27)" sheetId="37" r:id="rId35"/>
+    <sheet name="Color Map (28)" sheetId="38" r:id="rId36"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bitmap!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checker!$A$3:$A$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Color Correction'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Color Map'!$A$2:$A$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">'Color Map (24)'!$A$2:$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">'Color Map (26)'!$A$2:$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">'Color Map (27)'!$A$2:$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">'Color Map (28)'!$A$2:$A$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">Composite!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">CoronaAO!$A$2:$A$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">CoronaBumpConverter!$A$2:$A$4</definedName>
@@ -62,6 +68,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">CoronaMix!$A$2:$A$16</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">CoronaNormal!$A$2:$A$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="24" hidden="1">CoronaPhysicalMtl!$A$2:$A$148</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">CoronaRaySwitchMtl!$A$2:$A$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="30" hidden="1">'Double Material'!$A$2:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Falloff!$A$2:$A$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Gradient!$A$2:$A$22</definedName>
@@ -79,6 +86,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">VRayLightMtl!$A$2:$A$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="22" hidden="1">VRayMtl!$A$2:$A$228</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">VRayNormalMap!$A$2:$A$14</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="31" hidden="1">VRayOverrideMtl!$A$2:$A$11</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
   <extLst>
@@ -90,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2273" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="928">
   <si>
     <t>soften</t>
   </si>
@@ -2834,6 +2842,57 @@
   </si>
   <si>
     <t>material2</t>
+  </si>
+  <si>
+    <t>baseMtl</t>
+  </si>
+  <si>
+    <t>baseMtl_on</t>
+  </si>
+  <si>
+    <t>giMtl</t>
+  </si>
+  <si>
+    <t>giMtl_on</t>
+  </si>
+  <si>
+    <t>reflectMtl</t>
+  </si>
+  <si>
+    <t>reflectMtl_on</t>
+  </si>
+  <si>
+    <t>refractMtl</t>
+  </si>
+  <si>
+    <t>refractMtl_on</t>
+  </si>
+  <si>
+    <t>shadowMtl</t>
+  </si>
+  <si>
+    <t>shadowMtl_on</t>
+  </si>
+  <si>
+    <t>directMtl</t>
+  </si>
+  <si>
+    <t>displacementSource</t>
+  </si>
+  <si>
+    <t>viewportSource</t>
+  </si>
+  <si>
+    <t>giMtlOn</t>
+  </si>
+  <si>
+    <t>reflectMtlOn</t>
+  </si>
+  <si>
+    <t>refractMtlOn</t>
+  </si>
+  <si>
+    <t>directMtlOn</t>
   </si>
 </sst>
 </file>
@@ -3041,7 +3100,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3099,11 +3158,198 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="199">
+  <dxfs count="223">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4929,202 +5175,202 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}" name="表2" displayName="表2" ref="A2:D18" totalsRowShown="0" headerRowDxfId="198" headerRowBorderDxfId="197" tableBorderDxfId="196" totalsRowBorderDxfId="195">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}" name="表2" displayName="表2" ref="A2:D18" totalsRowShown="0" headerRowDxfId="222" headerRowBorderDxfId="221" tableBorderDxfId="220" totalsRowBorderDxfId="219">
   <autoFilter ref="A2:D18" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2D41582E-7698-4D96-B381-E70F10A1DC8F}" name="main" dataDxfId="194"/>
-    <tableColumn id="2" xr3:uid="{251B123A-D391-4C42-A03C-DDA697EA139B}" name="branch" dataDxfId="193"/>
-    <tableColumn id="3" xr3:uid="{A937446C-F8DF-404A-8C19-2C649D8F1BEB}" name="type" dataDxfId="192"/>
-    <tableColumn id="4" xr3:uid="{206B0CBC-2C23-4005-9413-91FFD450242E}" name="param name" dataDxfId="191"/>
+    <tableColumn id="1" xr3:uid="{2D41582E-7698-4D96-B381-E70F10A1DC8F}" name="main" dataDxfId="218"/>
+    <tableColumn id="2" xr3:uid="{251B123A-D391-4C42-A03C-DDA697EA139B}" name="branch" dataDxfId="217"/>
+    <tableColumn id="3" xr3:uid="{A937446C-F8DF-404A-8C19-2C649D8F1BEB}" name="type" dataDxfId="216"/>
+    <tableColumn id="4" xr3:uid="{206B0CBC-2C23-4005-9413-91FFD450242E}" name="param name" dataDxfId="215"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D88250FB-0DB3-424D-A24A-D8261708B2E3}" name="表6_892" displayName="表6_892" ref="A1:D46" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D88250FB-0DB3-424D-A24A-D8261708B2E3}" name="表6_892" displayName="表6_892" ref="A1:D46" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
   <autoFilter ref="A1:D46" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ABC109BE-05F7-45FC-B28E-A25F56785127}" name="main" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{98C68B2C-8456-453F-ABDC-E94E9B8D474D}" name="branch" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{73ACFFB3-7807-4088-807D-88470729B2BA}" name="type" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{320F409E-253F-4260-8467-E0D287495D07}" name="param name" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{ABC109BE-05F7-45FC-B28E-A25F56785127}" name="main" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{98C68B2C-8456-453F-ABDC-E94E9B8D474D}" name="branch" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{73ACFFB3-7807-4088-807D-88470729B2BA}" name="type" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{320F409E-253F-4260-8467-E0D287495D07}" name="param name" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4B0AB83-5BB3-4AD6-9F5A-8C690B2DA3FE}" name="表6_89212" displayName="表6_89212" ref="A1:D13" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4B0AB83-5BB3-4AD6-9F5A-8C690B2DA3FE}" name="表6_89212" displayName="表6_89212" ref="A1:D13" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
   <autoFilter ref="A1:D13" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{25807113-C158-42E7-8892-EDA341B2D700}" name="main" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{821DBFB3-8F0C-4625-9C08-E53307BC75E4}" name="branch" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{9138AA34-C209-41F6-A065-D789CE7DFF08}" name="type" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{FBACDFD2-4E34-4DC7-99FF-33D8FF23E785}" name="param name" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{25807113-C158-42E7-8892-EDA341B2D700}" name="main" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{821DBFB3-8F0C-4625-9C08-E53307BC75E4}" name="branch" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{9138AA34-C209-41F6-A065-D789CE7DFF08}" name="type" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{FBACDFD2-4E34-4DC7-99FF-33D8FF23E785}" name="param name" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{753F4B04-15DB-4DDB-B21D-C7A8F3C7E798}" name="表6_8921213" displayName="表6_8921213" ref="A1:D5" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{753F4B04-15DB-4DDB-B21D-C7A8F3C7E798}" name="表6_8921213" displayName="表6_8921213" ref="A1:D5" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="A1:D5" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BB4AA73D-1ED5-448B-9AE3-FE865C983D39}" name="main" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{EB99AB73-8FDC-45BF-B0A0-8377793F09C3}" name="branch" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{991EAF0A-5DA2-439D-9FAB-9DEFD89077A0}" name="type" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{D18C9DB0-8246-4734-A938-2CB4F7229F15}" name="param name" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{BB4AA73D-1ED5-448B-9AE3-FE865C983D39}" name="main" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{EB99AB73-8FDC-45BF-B0A0-8377793F09C3}" name="branch" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{991EAF0A-5DA2-439D-9FAB-9DEFD89077A0}" name="type" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{D18C9DB0-8246-4734-A938-2CB4F7229F15}" name="param name" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A24E004E-4EBE-490C-9AAB-ED6960D629C9}" name="表6_892121314" displayName="表6_892121314" ref="A1:D4" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A24E004E-4EBE-490C-9AAB-ED6960D629C9}" name="表6_892121314" displayName="表6_892121314" ref="A1:D4" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
   <autoFilter ref="A1:D4" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA2F9135-19FD-41FF-A0BD-E19EDE35978C}" name="main" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{9A0AF032-2605-41F3-87D5-7A2191868ADF}" name="branch" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{39447203-25E4-4E57-BB37-9154C8CD7663}" name="type" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{BF6E1539-2F98-444C-9F1B-1DD9890B3898}" name="param name" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{DA2F9135-19FD-41FF-A0BD-E19EDE35978C}" name="main" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{9A0AF032-2605-41F3-87D5-7A2191868ADF}" name="branch" dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{39447203-25E4-4E57-BB37-9154C8CD7663}" name="type" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{BF6E1539-2F98-444C-9F1B-1DD9890B3898}" name="param name" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{64A915F8-A0A7-42F8-B358-548E26A2D261}" name="表6_89212131415" displayName="表6_89212131415" ref="A1:D14" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{64A915F8-A0A7-42F8-B358-548E26A2D261}" name="表6_89212131415" displayName="表6_89212131415" ref="A1:D14" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
   <autoFilter ref="A1:D14" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AE618ED7-34F9-45C9-BA6E-0E28742D773C}" name="main" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{B312A00E-85C1-49DD-9CE3-820C1CB05E6B}" name="branch" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{2EB76E35-76BD-4322-995B-7CC45A5F5D7F}" name="type" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{2C20F636-3553-402B-A09E-80722A9BC84D}" name="param name" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{AE618ED7-34F9-45C9-BA6E-0E28742D773C}" name="main" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{B312A00E-85C1-49DD-9CE3-820C1CB05E6B}" name="branch" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{2EB76E35-76BD-4322-995B-7CC45A5F5D7F}" name="type" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{2C20F636-3553-402B-A09E-80722A9BC84D}" name="param name" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1E359F77-2531-471D-845D-73EFCC64E0D2}" name="表6_8921213141516" displayName="表6_8921213141516" ref="A1:D5" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1E359F77-2531-471D-845D-73EFCC64E0D2}" name="表6_8921213141516" displayName="表6_8921213141516" ref="A1:D5" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A1:D5" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FB220119-4281-4340-9ED2-A909BBE6E90D}" name="main" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{971A8DB4-253F-4CF6-B1A5-EA9E84F48414}" name="branch" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{6AC24398-79B4-4841-9B11-810FCBE7D7C3}" name="type" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{50E6A130-B526-4708-AAF2-7F8C5114E8CC}" name="param name" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{FB220119-4281-4340-9ED2-A909BBE6E90D}" name="main" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{971A8DB4-253F-4CF6-B1A5-EA9E84F48414}" name="branch" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{6AC24398-79B4-4841-9B11-810FCBE7D7C3}" name="type" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{50E6A130-B526-4708-AAF2-7F8C5114E8CC}" name="param name" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{80AE85AD-776D-48D8-A9E0-8B5B99241A3D}" name="表6_892121314151617" displayName="表6_892121314151617" ref="A1:D20" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{80AE85AD-776D-48D8-A9E0-8B5B99241A3D}" name="表6_892121314151617" displayName="表6_892121314151617" ref="A1:D20" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:D20" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{77C5EFED-826E-40DE-9792-058A0219DB93}" name="main" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{EA04F042-A666-406F-9CE5-B964EFAFB6B1}" name="branch" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{F6F48581-298A-48A6-A7B1-5FD41B41DC85}" name="type" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{EEF330D9-79F5-4056-BECF-2EA208B917DF}" name="param name" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{77C5EFED-826E-40DE-9792-058A0219DB93}" name="main" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{EA04F042-A666-406F-9CE5-B964EFAFB6B1}" name="branch" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{F6F48581-298A-48A6-A7B1-5FD41B41DC85}" name="type" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{EEF330D9-79F5-4056-BECF-2EA208B917DF}" name="param name" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{360A56DC-C9FB-415A-B518-D87DC3B610D8}" name="表6_89212131415161718" displayName="表6_89212131415161718" ref="A1:D16" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{360A56DC-C9FB-415A-B518-D87DC3B610D8}" name="表6_89212131415161718" displayName="表6_89212131415161718" ref="A1:D16" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A1:D16" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85FA0DE5-1500-4EB3-ADE2-11B529A34F3E}" name="main" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{82545C75-76EC-4363-9BE1-A1A76F81F275}" name="branch" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{96012611-D136-4234-9E88-5E00A17FA8B6}" name="type" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{7F3EEAA8-584A-41EC-A828-940B22BF5A4C}" name="param name" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{85FA0DE5-1500-4EB3-ADE2-11B529A34F3E}" name="main" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{82545C75-76EC-4363-9BE1-A1A76F81F275}" name="branch" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{96012611-D136-4234-9E88-5E00A17FA8B6}" name="type" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{7F3EEAA8-584A-41EC-A828-940B22BF5A4C}" name="param name" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{62FF6596-CF2A-4221-B9C6-1D41646ED98D}" name="表6_8921213141516171819" displayName="表6_8921213141516171819" ref="A1:D11" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{62FF6596-CF2A-4221-B9C6-1D41646ED98D}" name="表6_8921213141516171819" displayName="表6_8921213141516171819" ref="A1:D11" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A1:D11" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5F5F8E61-AEE4-4628-9B8A-424994708189}" name="main" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{EA68617E-47E4-4E7D-A312-90D0F2B1DC4D}" name="branch" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{794F68D4-D909-4EA8-962B-E2DC37B9E1B2}" name="type" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{BBC5FF7F-2A9F-48F7-9353-D959DA37CFB0}" name="param name" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{5F5F8E61-AEE4-4628-9B8A-424994708189}" name="main" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{EA68617E-47E4-4E7D-A312-90D0F2B1DC4D}" name="branch" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{794F68D4-D909-4EA8-962B-E2DC37B9E1B2}" name="type" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{BBC5FF7F-2A9F-48F7-9353-D959DA37CFB0}" name="param name" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{99C98499-87F2-4A00-A5C6-42867A84C518}" name="表6_892121314151617181920" displayName="表6_892121314151617181920" ref="A1:D32" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{99C98499-87F2-4A00-A5C6-42867A84C518}" name="表6_892121314151617181920" displayName="表6_892121314151617181920" ref="A1:D32" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
   <autoFilter ref="A1:D32" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6473C8AB-4511-4780-902D-44FF22FA9125}" name="main" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{5336CBC3-0465-44E6-842C-F8FB29DE5B60}" name="branch" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{678157D5-4DF4-42B9-BEBA-9F11FAA70230}" name="type" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{A3CD0A63-3E60-4690-8303-684CF295A686}" name="param name" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{6473C8AB-4511-4780-902D-44FF22FA9125}" name="main" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{5336CBC3-0465-44E6-842C-F8FB29DE5B60}" name="branch" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{678157D5-4DF4-42B9-BEBA-9F11FAA70230}" name="type" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{A3CD0A63-3E60-4690-8303-684CF295A686}" name="param name" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}" name="表3" displayName="表3" ref="A1:D22" totalsRowShown="0" headerRowDxfId="190" dataDxfId="188" headerRowBorderDxfId="189" tableBorderDxfId="187" totalsRowBorderDxfId="186">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}" name="表3" displayName="表3" ref="A1:D22" totalsRowShown="0" headerRowDxfId="214" dataDxfId="212" headerRowBorderDxfId="213" tableBorderDxfId="211" totalsRowBorderDxfId="210">
   <autoFilter ref="A1:D22" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A9C5E782-2908-495B-BC1E-48E2FD18AEE0}" name="main" dataDxfId="185"/>
-    <tableColumn id="2" xr3:uid="{5470BF63-58F6-4E58-9D4F-C002B557215E}" name="branch" dataDxfId="184"/>
-    <tableColumn id="3" xr3:uid="{90636DC2-3EDA-473A-801B-DF14180D5E8D}" name="type" dataDxfId="183"/>
-    <tableColumn id="4" xr3:uid="{73405289-D597-4AE2-A24C-A23D026B4D06}" name="param name" dataDxfId="182"/>
+    <tableColumn id="1" xr3:uid="{A9C5E782-2908-495B-BC1E-48E2FD18AEE0}" name="main" dataDxfId="209"/>
+    <tableColumn id="2" xr3:uid="{5470BF63-58F6-4E58-9D4F-C002B557215E}" name="branch" dataDxfId="208"/>
+    <tableColumn id="3" xr3:uid="{90636DC2-3EDA-473A-801B-DF14180D5E8D}" name="type" dataDxfId="207"/>
+    <tableColumn id="4" xr3:uid="{73405289-D597-4AE2-A24C-A23D026B4D06}" name="param name" dataDxfId="206"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B9092D73-1E82-43D3-BB36-1B82F1AB4C19}" name="表6_89212131415161718192021" displayName="表6_89212131415161718192021" ref="A1:D4" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B9092D73-1E82-43D3-BB36-1B82F1AB4C19}" name="表6_89212131415161718192021" displayName="表6_89212131415161718192021" ref="A1:D4" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A1:D4" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{446C90BC-EE13-48AF-8953-B0823F1EF424}" name="main" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{A4BE9E1C-DCDF-4035-B22F-975533B7EE8E}" name="branch" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{F066C877-271A-431C-9942-DB3171BA218A}" name="type" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{4DCDA06A-8121-4C10-882B-A92225C0E935}" name="param name" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{446C90BC-EE13-48AF-8953-B0823F1EF424}" name="main" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{A4BE9E1C-DCDF-4035-B22F-975533B7EE8E}" name="branch" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{F066C877-271A-431C-9942-DB3171BA218A}" name="type" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{4DCDA06A-8121-4C10-882B-A92225C0E935}" name="param name" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{A6640308-7007-4510-842B-DAAD60ED3552}" name="表6_8921213141516171819202122" displayName="表6_8921213141516171819202122" ref="A1:D7" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{A6640308-7007-4510-842B-DAAD60ED3552}" name="表6_8921213141516171819202122" displayName="表6_8921213141516171819202122" ref="A1:D7" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:D7" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BE0266B4-0AA2-475C-8D13-DBDF17FE05C3}" name="main" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{E7D086AD-F1E1-47EE-A908-729CC7D1EDB9}" name="branch" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{30879BC5-4F3C-4CE6-81C1-426176CBF96F}" name="type" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{C2372A9E-8322-4203-8AD8-9EF37FB73D2B}" name="param name" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{BE0266B4-0AA2-475C-8D13-DBDF17FE05C3}" name="main" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{E7D086AD-F1E1-47EE-A908-729CC7D1EDB9}" name="branch" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{30879BC5-4F3C-4CE6-81C1-426176CBF96F}" name="type" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{C2372A9E-8322-4203-8AD8-9EF37FB73D2B}" name="param name" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{844A6BA8-C36D-413A-B54D-E7B75700C5B0}" name="表6_892121314151617181920212223" displayName="表6_892121314151617181920212223" ref="A1:D12" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{844A6BA8-C36D-413A-B54D-E7B75700C5B0}" name="表6_892121314151617181920212223" displayName="表6_892121314151617181920212223" ref="A1:D12" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:D12" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EA39BB2F-8FC6-4310-8EB3-E2D37B6D1DE6}" name="main" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{E957548F-271C-40B2-9092-CE9C0E9F6144}" name="branch" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{9382DDB7-EB44-4420-A985-2B29EB05A1AB}" name="type" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{92812206-9544-4249-A90A-3C34475D1723}" name="param name" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{EA39BB2F-8FC6-4310-8EB3-E2D37B6D1DE6}" name="main" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{E957548F-271C-40B2-9092-CE9C0E9F6144}" name="branch" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{9382DDB7-EB44-4420-A985-2B29EB05A1AB}" name="type" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{92812206-9544-4249-A90A-3C34475D1723}" name="param name" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{2AF21F10-51C5-4833-A199-42225D1D6730}" name="表6_89212131415161718192021222324" displayName="表6_89212131415161718192021222324" ref="A1:D228" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{2AF21F10-51C5-4833-A199-42225D1D6730}" name="表6_89212131415161718192021222324" displayName="表6_89212131415161718192021222324" ref="A1:D228" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:D228" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -5136,17 +5382,17 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CEEBD0F-DE94-484C-8FDC-176AF6899DE4}" name="main" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{4748AC76-F26C-4A8E-B7FD-51E3A961A0DB}" name="branch" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{EE6CB704-AFEC-4814-B724-8C974D2C1C4A}" name="type" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{21049C3B-A088-4554-A135-9BFC4E507614}" name="param name" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{1CEEBD0F-DE94-484C-8FDC-176AF6899DE4}" name="main" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{4748AC76-F26C-4A8E-B7FD-51E3A961A0DB}" name="branch" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{EE6CB704-AFEC-4814-B724-8C974D2C1C4A}" name="type" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{21049C3B-A088-4554-A135-9BFC4E507614}" name="param name" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{55BF17C4-35F9-443B-B504-6F8CF153E765}" name="表6_8921213141516171819202122232425" displayName="表6_8921213141516171819202122232425" ref="A1:D128" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{55BF17C4-35F9-443B-B504-6F8CF153E765}" name="表6_8921213141516171819202122232425" displayName="表6_8921213141516171819202122232425" ref="A1:D128" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:D128" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -5162,17 +5408,17 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{67C559A2-2EC4-4EA5-AC44-6F0B83853E07}" name="main" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{5062C9AC-3913-48C1-AACB-3DC177626C6D}" name="branch" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{8D2188A2-6728-48FB-81FE-331F3F410AEA}" name="type" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{7FAF264C-841C-41C7-8F4F-56EDB6D7C8B3}" name="param name" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{67C559A2-2EC4-4EA5-AC44-6F0B83853E07}" name="main" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{5062C9AC-3913-48C1-AACB-3DC177626C6D}" name="branch" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{8D2188A2-6728-48FB-81FE-331F3F410AEA}" name="type" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{7FAF264C-841C-41C7-8F4F-56EDB6D7C8B3}" name="param name" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{8D619451-02A5-419F-AD3C-FE8AECE06AD8}" name="表6_892121314151617181920212223242526" displayName="表6_892121314151617181920212223242526" ref="A1:D148" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{8D619451-02A5-419F-AD3C-FE8AECE06AD8}" name="表6_892121314151617181920212223242526" displayName="表6_892121314151617181920212223242526" ref="A1:D148" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:D148" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -5183,56 +5429,56 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D656239-4345-464E-9E4D-F546800A4D9E}" name="main" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{A403BB16-00B7-4984-91F8-80C98BEDFAE9}" name="branch" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{18F2EC94-873F-4403-9B63-44BA4485862E}" name="type" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{4BF4EB5D-4276-4036-94F4-BD977DD08A32}" name="param name" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{9D656239-4345-464E-9E4D-F546800A4D9E}" name="main" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{A403BB16-00B7-4984-91F8-80C98BEDFAE9}" name="branch" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{18F2EC94-873F-4403-9B63-44BA4485862E}" name="type" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{4BF4EB5D-4276-4036-94F4-BD977DD08A32}" name="param name" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{D77823DB-C201-4E7D-833C-6085CF94DD96}" name="表6_89212131415161718192021222324252627" displayName="表6_89212131415161718192021222324252627" ref="A1:D18" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{D77823DB-C201-4E7D-833C-6085CF94DD96}" name="表6_89212131415161718192021222324252627" displayName="表6_89212131415161718192021222324252627" ref="A1:D18" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:D18" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C99D0936-A00D-473A-9722-7AB9594E93FA}" name="main" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{91ED2A21-20F7-4D7F-8995-D255AD21FD6C}" name="branch" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{704694F5-EE15-4077-A55A-68AB0FC0A262}" name="type" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{EB568756-ADFD-452D-9F00-E142C274E911}" name="param name" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{C99D0936-A00D-473A-9722-7AB9594E93FA}" name="main" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{91ED2A21-20F7-4D7F-8995-D255AD21FD6C}" name="branch" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{704694F5-EE15-4077-A55A-68AB0FC0A262}" name="type" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{EB568756-ADFD-452D-9F00-E142C274E911}" name="param name" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{120987A5-0656-40F2-B4C8-58BDD36818AF}" name="表6_8921213141516171819202122232425262728" displayName="表6_8921213141516171819202122232425262728" ref="A1:D25" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{120987A5-0656-40F2-B4C8-58BDD36818AF}" name="表6_8921213141516171819202122232425262728" displayName="表6_8921213141516171819202122232425262728" ref="A1:D25" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:D25" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D3F0BF9B-EF3D-46FD-851B-DE7A8BA6861A}" name="main" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{26734EFB-3A91-4358-8F49-76CD28502CCD}" name="branch" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{21B8E7A3-96A6-4FA8-BF69-2D45AD6CE016}" name="type" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{DFD55D6B-2A70-453A-A9CA-3AC307D52CEB}" name="param name" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{D3F0BF9B-EF3D-46FD-851B-DE7A8BA6861A}" name="main" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{26734EFB-3A91-4358-8F49-76CD28502CCD}" name="branch" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{21B8E7A3-96A6-4FA8-BF69-2D45AD6CE016}" name="type" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{DFD55D6B-2A70-453A-A9CA-3AC307D52CEB}" name="param name" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9E1029A9-E2B6-460A-BDD3-35B9E8EF1A27}" name="表6_892121314151617181920212223242526272829" displayName="表6_892121314151617181920212223242526272829" ref="A1:D37" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9E1029A9-E2B6-460A-BDD3-35B9E8EF1A27}" name="表6_892121314151617181920212223242526272829" displayName="表6_892121314151617181920212223242526272829" ref="A1:D37" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:D37" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{202FE0DE-0C42-49BE-8A93-547C5E684986}" name="main" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{1D731C2C-7DC2-450C-A501-23252C619AFE}" name="branch" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{F7069DC3-74B6-41AD-BA7F-D8AD59F0EFD6}" name="type" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{5A9F1D1F-D443-4878-97A8-CA433BC066DD}" name="param name" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{202FE0DE-0C42-49BE-8A93-547C5E684986}" name="main" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{1D731C2C-7DC2-450C-A501-23252C619AFE}" name="branch" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{F7069DC3-74B6-41AD-BA7F-D8AD59F0EFD6}" name="type" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{5A9F1D1F-D443-4878-97A8-CA433BC066DD}" name="param name" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{812EF589-76F5-45DE-814A-25389EF0967B}" name="表6_89212131415161718192021222324252627282930" displayName="表6_89212131415161718192021222324252627282930" ref="A1:D86" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{812EF589-76F5-45DE-814A-25389EF0967B}" name="表6_89212131415161718192021222324252627282930" displayName="表6_89212131415161718192021222324252627282930" ref="A1:D86" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:D86" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -5246,140 +5492,192 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8F1AA2F5-9662-4F90-9B63-332419C63823}" name="main" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{42B506CD-7BCF-42F9-BC3C-1D006F57004F}" name="branch" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{317A53D1-91A1-461D-8658-2B7B138E7753}" name="type" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{D5F70997-D51C-452C-89F1-F64CC91C8011}" name="param name" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{8F1AA2F5-9662-4F90-9B63-332419C63823}" name="main" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{42B506CD-7BCF-42F9-BC3C-1D006F57004F}" name="branch" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{317A53D1-91A1-461D-8658-2B7B138E7753}" name="type" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{D5F70997-D51C-452C-89F1-F64CC91C8011}" name="param name" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}" name="表4" displayName="表4" ref="A1:D14" totalsRowShown="0" headerRowDxfId="181" dataDxfId="180">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}" name="表4" displayName="表4" ref="A1:D14" totalsRowShown="0" headerRowDxfId="205" dataDxfId="204">
   <autoFilter ref="A1:D14" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3808606C-1404-4259-B39E-E1E7A110B5CA}" name="main" dataDxfId="179"/>
-    <tableColumn id="2" xr3:uid="{F328710A-D3E3-4CE0-96F6-91F65F558FA0}" name="branch" dataDxfId="178"/>
-    <tableColumn id="3" xr3:uid="{DFCF2074-8826-4ED3-870D-7F464F5BEA44}" name="type" dataDxfId="177"/>
-    <tableColumn id="4" xr3:uid="{229BF5C0-6908-4BBD-A508-EF45263F6BC0}" name="param name" dataDxfId="176"/>
+    <tableColumn id="1" xr3:uid="{3808606C-1404-4259-B39E-E1E7A110B5CA}" name="main" dataDxfId="203"/>
+    <tableColumn id="2" xr3:uid="{F328710A-D3E3-4CE0-96F6-91F65F558FA0}" name="branch" dataDxfId="202"/>
+    <tableColumn id="3" xr3:uid="{DFCF2074-8826-4ED3-870D-7F464F5BEA44}" name="type" dataDxfId="201"/>
+    <tableColumn id="4" xr3:uid="{229BF5C0-6908-4BBD-A508-EF45263F6BC0}" name="param name" dataDxfId="200"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{1D60048A-C472-4872-AC9D-2379248F9D6F}" name="表6_8921213141516171819202122232425262728293031" displayName="表6_8921213141516171819202122232425262728293031" ref="A1:D11" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{1D60048A-C472-4872-AC9D-2379248F9D6F}" name="表6_8921213141516171819202122232425262728293031" displayName="表6_8921213141516171819202122232425262728293031" ref="A1:D11" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:D11" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D7A2469D-F5D2-40F7-BAB6-BA297295D345}" name="main" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{6877823A-086B-468B-83BF-BB42DD98E006}" name="branch" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{37B4F256-51D2-421F-B0A5-2CBFDC7ABAA8}" name="type" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{9AC80006-A126-46BA-9F52-749AB1F7286A}" name="param name" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{D7A2469D-F5D2-40F7-BAB6-BA297295D345}" name="main" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{6877823A-086B-468B-83BF-BB42DD98E006}" name="branch" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{37B4F256-51D2-421F-B0A5-2CBFDC7ABAA8}" name="type" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{9AC80006-A126-46BA-9F52-749AB1F7286A}" name="param name" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{42393325-2B83-4B11-82F6-EFBF38BDEDFC}" name="表6_892121314151617181920212223242526272829303132" displayName="表6_892121314151617181920212223242526272829303132" ref="A1:D6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{42393325-2B83-4B11-82F6-EFBF38BDEDFC}" name="表6_892121314151617181920212223242526272829303132" displayName="表6_892121314151617181920212223242526272829303132" ref="A1:D6" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:D6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F0DA75C7-FB66-46BD-A5A7-A150C0AAA29F}" name="main" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{335B8FD7-F4F5-4C0C-A754-A72950A1BE9B}" name="branch" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{E662F644-60D2-4DC7-90DE-A01BB09AF019}" name="type" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{8D1177B3-DA60-4E28-96E4-F084155D116A}" name="param name" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{F0DA75C7-FB66-46BD-A5A7-A150C0AAA29F}" name="main" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{335B8FD7-F4F5-4C0C-A754-A72950A1BE9B}" name="branch" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{E662F644-60D2-4DC7-90DE-A01BB09AF019}" name="type" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{8D1177B3-DA60-4E28-96E4-F084155D116A}" name="param name" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{386C923B-D958-43D1-B3BB-6151D778DC29}" name="表6_89212131415161718192021222324252627282930313233" displayName="表6_89212131415161718192021222324252627282930313233" ref="A1:D2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{386C923B-D958-43D1-B3BB-6151D778DC29}" name="表6_89212131415161718192021222324252627282930313233" displayName="表6_89212131415161718192021222324252627282930313233" ref="A1:D11" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="A1:D11" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D55E2339-875B-4D76-A3FA-D3B13080AEA4}" name="main" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{E91F64E1-4386-462F-B3A8-EE83BD90C51B}" name="branch" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{3271998A-703F-4CF6-9450-42971CBBB68B}" name="type" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{6E633AD3-7444-46B0-8CD2-C71AF9825721}" name="param name" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{D14FD791-626E-4A0F-A2D4-F6D8C9BC9DF2}" name="表6_8921213141516171819202122232425262728293031323334" displayName="表6_8921213141516171819202122232425262728293031323334" ref="A1:D11" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A1:D11" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1A0D942F-50B2-44C5-9447-BB93C706241B}" name="main" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{AD713C2F-BD7A-40F3-A5C8-FD568DC1BB20}" name="branch" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{32065B5C-15F8-40C0-BA94-73824BBC11C8}" name="type" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{06DC6B82-1481-4A5F-A893-A2D8DBCC34B8}" name="param name" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{72FB841A-FFF0-47DB-B2C0-A35A282F9844}" name="表6_8921213141516171819202122232425262728293031323335" displayName="表6_8921213141516171819202122232425262728293031323335" ref="A1:D2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
   <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D55E2339-875B-4D76-A3FA-D3B13080AEA4}" name="main" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{E91F64E1-4386-462F-B3A8-EE83BD90C51B}" name="branch" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{3271998A-703F-4CF6-9450-42971CBBB68B}" name="type" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{6E633AD3-7444-46B0-8CD2-C71AF9825721}" name="param name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{A04F6EBF-70EC-4FEE-96A7-0D91689FD415}" name="main" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{7C288209-724C-463E-9188-B7F0F00271FC}" name="branch" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{48B072B7-1D85-4200-966B-B033E14782A1}" name="type" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{E57CCFB4-E682-4DFD-9AD2-EAA30C90C5A7}" name="param name" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{CB340B27-1C4E-4F9E-A767-1DF332353E8B}" name="表6_892121314151617181920212223242526272829303132333536" displayName="表6_892121314151617181920212223242526272829303132333536" ref="A1:D2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{537BDF6A-461F-40A5-8C51-9B9DF4BA908E}" name="main" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{FBDC3124-FC59-4874-9202-8DAB5C2D1D04}" name="branch" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{915C94AA-75BA-4D39-B414-142F4295A7FF}" name="type" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{8186044C-5E62-40A2-8B3A-347C18EC61AC}" name="param name" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{02ABE22E-32CC-4C67-A241-E1680755DB94}" name="表6_89212131415161718192021222324252627282930313233353637" displayName="表6_89212131415161718192021222324252627282930313233353637" ref="A1:D2" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{05E06D88-9F47-48A3-B005-60C4D7DDF096}" name="main" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{24F8619B-859B-4F02-9B86-6803A153D918}" name="branch" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{637730EA-FB6D-43B3-BFB6-EE1105DC75A8}" name="type" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{A335BCBA-C007-4FDB-A0E9-B9E17804AC49}" name="param name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}" name="表5" displayName="表5" ref="A1:D36" totalsRowShown="0" headerRowDxfId="175" headerRowBorderDxfId="174" tableBorderDxfId="173" totalsRowBorderDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}" name="表5" displayName="表5" ref="A1:D36" totalsRowShown="0" headerRowDxfId="199" headerRowBorderDxfId="198" tableBorderDxfId="197" totalsRowBorderDxfId="196">
   <autoFilter ref="A1:D36" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4AE65613-9E32-4B81-B096-3CE2F9469A99}" name="main" dataDxfId="171"/>
-    <tableColumn id="2" xr3:uid="{B9C8132D-EB95-4F97-B376-375C1E78DA2F}" name="branch" dataDxfId="170"/>
-    <tableColumn id="3" xr3:uid="{A1B42A52-7EC8-4E70-A45E-3F416909E1EA}" name="type" dataDxfId="169"/>
-    <tableColumn id="4" xr3:uid="{390F265C-3120-4E30-9A3E-68BE2347C969}" name="param name" dataDxfId="168"/>
+    <tableColumn id="1" xr3:uid="{4AE65613-9E32-4B81-B096-3CE2F9469A99}" name="main" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{B9C8132D-EB95-4F97-B376-375C1E78DA2F}" name="branch" dataDxfId="194"/>
+    <tableColumn id="3" xr3:uid="{A1B42A52-7EC8-4E70-A45E-3F416909E1EA}" name="type" dataDxfId="193"/>
+    <tableColumn id="4" xr3:uid="{390F265C-3120-4E30-9A3E-68BE2347C969}" name="param name" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}" name="表6" displayName="表6" ref="A1:D17" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}" name="表6" displayName="表6" ref="A1:D17" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
   <autoFilter ref="A1:D17" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BAEEF277-80BF-4C16-8215-7CCD39C11565}" name="main" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{45843013-F77E-4A90-AF54-173129A318BC}" name="branch" dataDxfId="164"/>
-    <tableColumn id="3" xr3:uid="{DE07E8D7-AF19-4990-B4EB-FB8A48054E6D}" name="type" dataDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{D87A2779-3B12-41B3-968D-150307DF3484}" name="param name" dataDxfId="162"/>
+    <tableColumn id="1" xr3:uid="{BAEEF277-80BF-4C16-8215-7CCD39C11565}" name="main" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{45843013-F77E-4A90-AF54-173129A318BC}" name="branch" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{DE07E8D7-AF19-4990-B4EB-FB8A48054E6D}" name="type" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{D87A2779-3B12-41B3-968D-150307DF3484}" name="param name" dataDxfId="186"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44179487-8091-4992-8094-4DA31A4A9A12}" name="表6_8" displayName="表6_8" ref="A1:D8" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44179487-8091-4992-8094-4DA31A4A9A12}" name="表6_8" displayName="表6_8" ref="A1:D8" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184">
   <autoFilter ref="A1:D8" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{74AA3551-D5FC-442E-820B-56B35F04E314}" name="main" dataDxfId="159"/>
-    <tableColumn id="2" xr3:uid="{872A74B1-DD5D-4A36-ADFF-F85B7DA48580}" name="branch" dataDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{92E7DF35-9ECD-40C3-9E4D-BD067B6A62EC}" name="type" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{521BB435-4AEA-479B-9B1C-8DE67307817F}" name="param name" dataDxfId="156"/>
+    <tableColumn id="1" xr3:uid="{74AA3551-D5FC-442E-820B-56B35F04E314}" name="main" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{872A74B1-DD5D-4A36-ADFF-F85B7DA48580}" name="branch" dataDxfId="182"/>
+    <tableColumn id="3" xr3:uid="{92E7DF35-9ECD-40C3-9E4D-BD067B6A62EC}" name="type" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{521BB435-4AEA-479B-9B1C-8DE67307817F}" name="param name" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C4239BEF-66B1-4C30-A627-2C7A8F2E4BA9}" name="表6_89" displayName="表6_89" ref="A1:D7" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C4239BEF-66B1-4C30-A627-2C7A8F2E4BA9}" name="表6_89" displayName="表6_89" ref="A1:D7" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
   <autoFilter ref="A1:D7" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8A8D086D-6A95-4C02-8C03-468264AB5725}" name="main" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{CE92D93E-D841-4961-B94A-11AA4C235B48}" name="branch" dataDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{9EA0702F-1E71-4F31-A149-4EDC82F3059F}" name="type" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{1126922B-B081-42BE-9F6D-8F699D3E6FEF}" name="param name" dataDxfId="150"/>
+    <tableColumn id="1" xr3:uid="{8A8D086D-6A95-4C02-8C03-468264AB5725}" name="main" dataDxfId="177"/>
+    <tableColumn id="2" xr3:uid="{CE92D93E-D841-4961-B94A-11AA4C235B48}" name="branch" dataDxfId="176"/>
+    <tableColumn id="3" xr3:uid="{9EA0702F-1E71-4F31-A149-4EDC82F3059F}" name="type" dataDxfId="175"/>
+    <tableColumn id="4" xr3:uid="{1126922B-B081-42BE-9F6D-8F699D3E6FEF}" name="param name" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F70E97C-7386-4083-8729-2F25C3160A9B}" name="表6_8910" displayName="表6_8910" ref="A1:D22" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F70E97C-7386-4083-8729-2F25C3160A9B}" name="表6_8910" displayName="表6_8910" ref="A1:D22" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A1:D22" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0177998A-43AB-4B0F-8604-0AF954FBB185}" name="main" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{37520786-1F3E-4E38-8C3B-6E990C026213}" name="branch" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{06224467-73DA-4D97-B072-2FA1C3A7CF43}" name="type" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{7F4CE11F-D886-48B2-A97A-A561D4C6C79B}" name="param name" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{0177998A-43AB-4B0F-8604-0AF954FBB185}" name="main" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{37520786-1F3E-4E38-8C3B-6E990C026213}" name="branch" dataDxfId="170"/>
+    <tableColumn id="3" xr3:uid="{06224467-73DA-4D97-B072-2FA1C3A7CF43}" name="type" dataDxfId="169"/>
+    <tableColumn id="4" xr3:uid="{7F4CE11F-D886-48B2-A97A-A561D4C6C79B}" name="param name" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6E123A4-AC18-4383-8FEF-88FC9710A391}" name="表6_891011" displayName="表6_891011" ref="A1:D48" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6E123A4-AC18-4383-8FEF-88FC9710A391}" name="表6_891011" displayName="表6_891011" ref="A1:D48" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166">
   <autoFilter ref="A1:D48" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8A85C0EA-4CDE-4D93-B049-3C11FD83B866}" name="main" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{B4D689B8-7678-4627-8C30-571AFA1954CE}" name="branch" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{1B0A04CF-F3AC-4373-A92B-F7D319E52FC4}" name="type" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{5B52C9B4-0914-412B-8D7D-C4F1D3CB6CA9}" name="param name" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{8A85C0EA-4CDE-4D93-B049-3C11FD83B866}" name="main" dataDxfId="165"/>
+    <tableColumn id="2" xr3:uid="{B4D689B8-7678-4627-8C30-571AFA1954CE}" name="branch" dataDxfId="164"/>
+    <tableColumn id="3" xr3:uid="{1B0A04CF-F3AC-4373-A92B-F7D319E52FC4}" name="type" dataDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{5B52C9B4-0914-412B-8D7D-C4F1D3CB6CA9}" name="param name" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -19157,7 +19455,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19332,8 +19630,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F23E19F-8F9E-49D0-AC0C-2A5018D314E9}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19439,6 +19737,470 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53330EF9-A512-4EF3-B082-B966A8726E04}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>0</v>
+      </c>
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>0</v>
+      </c>
+      <c r="B7" s="19">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>0</v>
+      </c>
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>0</v>
+      </c>
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>0</v>
+      </c>
+      <c r="B10" s="19">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>0</v>
+      </c>
+      <c r="B11" s="19">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>920</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947EFD0-D125-41D4-A27D-AF130832AA7F}">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="22.875" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="19">
+        <v>0</v>
+      </c>
+      <c r="B3" s="19">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="19">
+        <v>0</v>
+      </c>
+      <c r="B4" s="19">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="19">
+        <v>0</v>
+      </c>
+      <c r="B5" s="19">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="19">
+        <v>0</v>
+      </c>
+      <c r="B6" s="19">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="19">
+        <v>0</v>
+      </c>
+      <c r="B7" s="19">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="19">
+        <v>0</v>
+      </c>
+      <c r="B8" s="19">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="19">
+        <v>0</v>
+      </c>
+      <c r="B9" s="19">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="19">
+        <v>0</v>
+      </c>
+      <c r="B10" s="19">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="19">
+        <v>0</v>
+      </c>
+      <c r="B11" s="19">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>927</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EAC900-1657-4514-B3AC-81D86DD6161A}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3110F0-2F63-49D3-B561-F4C18DBAA044}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A1DC8A5-1377-4CEB-92D7-CCC6FB8BD66B}">
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
+++ b/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\RedHaloM2B_Lib\RedHaloM2B_Lib\ParamBlock2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{488B8F7C-59A1-47B7-83B3-25EA54CA37EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{442A5ADC-C464-42D0-98B6-3CC2D37F08F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23160" yWindow="2265" windowWidth="27105" windowHeight="13710" tabRatio="706" firstSheet="28" activeTab="32" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
+    <workbookView xWindow="18990" yWindow="2805" windowWidth="27105" windowHeight="13710" tabRatio="706" firstSheet="28" activeTab="34" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
   </bookViews>
   <sheets>
     <sheet name="Checker" sheetId="6" r:id="rId1"/>
@@ -46,8 +46,8 @@
     <sheet name="Double Material" sheetId="33" r:id="rId31"/>
     <sheet name="VRayOverrideMtl" sheetId="34" r:id="rId32"/>
     <sheet name="CoronaRaySwitchMtl" sheetId="35" r:id="rId33"/>
-    <sheet name="Color Map (26)" sheetId="36" r:id="rId34"/>
-    <sheet name="Color Map (27)" sheetId="37" r:id="rId35"/>
+    <sheet name="VRayBlendMtl" sheetId="36" r:id="rId34"/>
+    <sheet name="CoronaLayerMtl" sheetId="37" r:id="rId35"/>
     <sheet name="Color Map (28)" sheetId="38" r:id="rId36"/>
   </sheets>
   <definedNames>
@@ -55,14 +55,13 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Checker!$A$3:$A$18</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Color Correction'!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Color Map'!$A$2:$A$7</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">'Color Map (26)'!$A$2:$A$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">'Color Map (27)'!$A$2:$A$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="35" hidden="1">'Color Map (28)'!$A$2:$A$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">Composite!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="15" hidden="1">CoronaAO!$A$2:$A$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="19" hidden="1">CoronaBumpConverter!$A$2:$A$4</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="18" hidden="1">CoronaColorCorrect!$A$2:$A$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">CoronaFrontBack!$A$2:$A$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="34" hidden="1">CoronaLayerMtl!$A$2:$A$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">CoronaLegacyMtl!$A$2:$A$128</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="26" hidden="1">CoronaLightMtl!$A$2:$A$25</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">CoronaMix!$A$2:$A$16</definedName>
@@ -77,6 +76,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="27" hidden="1">StandardMtl!$A$2:$A$37</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="29" hidden="1">VRay2SidedMtl!$A$2:$A$11</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">VRayBitmap!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">VRayBlendMtl!$A$2:$A$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">VRayBump2Normal!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="28" hidden="1">VRayCarPaintMtl2!$A$2:$A$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">VRayColor!$A$2:$A$13</definedName>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="928">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2435" uniqueCount="980">
   <si>
     <t>soften</t>
   </si>
@@ -2893,6 +2893,163 @@
   </si>
   <si>
     <t>directMtlOn</t>
+  </si>
+  <si>
+    <t>coatMtl_enable</t>
+  </si>
+  <si>
+    <t>MtlTab</t>
+  </si>
+  <si>
+    <t>coatMtl</t>
+  </si>
+  <si>
+    <t>RgbaTab</t>
+  </si>
+  <si>
+    <t>blend</t>
+  </si>
+  <si>
+    <t>texmap_blend</t>
+  </si>
+  <si>
+    <t>texmap_blend_multiplier</t>
+  </si>
+  <si>
+    <t>additiveMode</t>
+  </si>
+  <si>
+    <t>additiveDispl</t>
+  </si>
+  <si>
+    <t>coatMtl_0</t>
+  </si>
+  <si>
+    <t>blend_0</t>
+  </si>
+  <si>
+    <t>texmap_blend_0</t>
+  </si>
+  <si>
+    <t>texmap_blend_mult_0</t>
+  </si>
+  <si>
+    <t>coatMtl_1</t>
+  </si>
+  <si>
+    <t>blend_1</t>
+  </si>
+  <si>
+    <t>texmap_blend_1</t>
+  </si>
+  <si>
+    <t>texmap_blend_mult_1</t>
+  </si>
+  <si>
+    <t>coatMtl_2</t>
+  </si>
+  <si>
+    <t>blend_2</t>
+  </si>
+  <si>
+    <t>texmap_blend_2</t>
+  </si>
+  <si>
+    <t>texmap_blend_mult_2</t>
+  </si>
+  <si>
+    <t>coatMtl_3</t>
+  </si>
+  <si>
+    <t>blend_3</t>
+  </si>
+  <si>
+    <t>texmap_blend_3</t>
+  </si>
+  <si>
+    <t>texmap_blend_mult_3</t>
+  </si>
+  <si>
+    <t>coatMtl_4</t>
+  </si>
+  <si>
+    <t>blend_4</t>
+  </si>
+  <si>
+    <t>texmap_blend_4</t>
+  </si>
+  <si>
+    <t>texmap_blend_mult_4</t>
+  </si>
+  <si>
+    <t>coatMtl_5</t>
+  </si>
+  <si>
+    <t>blend_5</t>
+  </si>
+  <si>
+    <t>texmap_blend_5</t>
+  </si>
+  <si>
+    <t>texmap_blend_mult_5</t>
+  </si>
+  <si>
+    <t>coatMtl_6</t>
+  </si>
+  <si>
+    <t>blend_6</t>
+  </si>
+  <si>
+    <t>texmap_blend_6</t>
+  </si>
+  <si>
+    <t>texmap_blend_mult_6</t>
+  </si>
+  <si>
+    <t>coatMtl_7</t>
+  </si>
+  <si>
+    <t>blend_7</t>
+  </si>
+  <si>
+    <t>texmap_blend_7</t>
+  </si>
+  <si>
+    <t>texmap_blend_mult_7</t>
+  </si>
+  <si>
+    <t>coatMtl_8</t>
+  </si>
+  <si>
+    <t>blend_8</t>
+  </si>
+  <si>
+    <t>texmap_blend_8</t>
+  </si>
+  <si>
+    <t>texmap_blend_mult_8</t>
+  </si>
+  <si>
+    <t>layers</t>
+  </si>
+  <si>
+    <t>mixmaps</t>
+  </si>
+  <si>
+    <t>layersOn</t>
+  </si>
+  <si>
+    <t>masksOn</t>
+  </si>
+  <si>
+    <t>maskAmounts</t>
+  </si>
+  <si>
+    <t>displacementHandling</t>
+  </si>
+  <si>
+    <t>amounts</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3100,7 +3257,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3156,9 +3313,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5567,8 +5721,8 @@
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{72FB841A-FFF0-47DB-B2C0-A35A282F9844}" name="表6_8921213141516171819202122232425262728293031323335" displayName="表6_8921213141516171819202122232425262728293031323335" ref="A1:D2" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
-  <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{72FB841A-FFF0-47DB-B2C0-A35A282F9844}" name="表6_8921213141516171819202122232425262728293031323335" displayName="表6_8921213141516171819202122232425262728293031323335" ref="A1:D45" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:D45" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{A04F6EBF-70EC-4FEE-96A7-0D91689FD415}" name="main" dataDxfId="15"/>
     <tableColumn id="2" xr3:uid="{7C288209-724C-463E-9188-B7F0F00271FC}" name="branch" dataDxfId="14"/>
@@ -5580,8 +5734,8 @@
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{CB340B27-1C4E-4F9E-A767-1DF332353E8B}" name="表6_892121314151617181920212223242526272829303132333536" displayName="表6_892121314151617181920212223242526272829303132333536" ref="A1:D2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
-  <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{CB340B27-1C4E-4F9E-A767-1DF332353E8B}" name="表6_892121314151617181920212223242526272829303132333536" displayName="表6_892121314151617181920212223242526272829303132333536" ref="A1:D10" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D10" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{537BDF6A-461F-40A5-8C51-9B9DF4BA908E}" name="main" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{FBDC3124-FC59-4874-9202-8DAB5C2D1D04}" name="branch" dataDxfId="8"/>
@@ -19740,7 +19894,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19780,10 +19934,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -19794,10 +19948,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>0</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -19808,10 +19962,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>0</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>3</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -19822,10 +19976,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
-        <v>0</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -19836,10 +19990,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>0</v>
-      </c>
-      <c r="B7" s="19">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -19850,10 +20004,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>0</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -19864,10 +20018,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>0</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -19878,10 +20032,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>0</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -19892,10 +20046,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>0</v>
-      </c>
-      <c r="B11" s="19">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -19918,8 +20072,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9947EFD0-D125-41D4-A27D-AF130832AA7F}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -19959,10 +20113,10 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="19">
-        <v>0</v>
-      </c>
-      <c r="B3" s="19">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
         <v>1</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -19973,10 +20127,10 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="19">
-        <v>0</v>
-      </c>
-      <c r="B4" s="19">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
         <v>2</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -19987,10 +20141,10 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="19">
-        <v>0</v>
-      </c>
-      <c r="B5" s="19">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
         <v>3</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -20001,10 +20155,10 @@
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="19">
-        <v>0</v>
-      </c>
-      <c r="B6" s="19">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
         <v>4</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -20015,10 +20169,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="19">
-        <v>0</v>
-      </c>
-      <c r="B7" s="19">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
         <v>5</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -20029,10 +20183,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="19">
-        <v>0</v>
-      </c>
-      <c r="B8" s="19">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
         <v>6</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -20043,10 +20197,10 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="19">
-        <v>0</v>
-      </c>
-      <c r="B9" s="19">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
         <v>7</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -20057,10 +20211,10 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="19">
-        <v>0</v>
-      </c>
-      <c r="B10" s="19">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
         <v>8</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -20071,10 +20225,10 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="19">
-        <v>0</v>
-      </c>
-      <c r="B11" s="19">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
         <v>9</v>
       </c>
       <c r="C11" s="15" t="s">
@@ -20095,10 +20249,10 @@
 
 <file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1EAC900-1657-4514-B3AC-81D86DD6161A}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D45"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20106,7 +20260,7 @@
     <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+    <col min="4" max="4" width="22.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -20131,10 +20285,612 @@
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>62</v>
+        <v>899</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>120</v>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>931</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>0</v>
+      </c>
+      <c r="B19" s="14">
+        <v>17</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>0</v>
+      </c>
+      <c r="B20" s="14">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>0</v>
+      </c>
+      <c r="B21" s="14">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>0</v>
+      </c>
+      <c r="B22" s="14">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>0</v>
+      </c>
+      <c r="B23" s="14">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>0</v>
+      </c>
+      <c r="B24" s="14">
+        <v>22</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>0</v>
+      </c>
+      <c r="B25" s="14">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>0</v>
+      </c>
+      <c r="B26" s="14">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>0</v>
+      </c>
+      <c r="B27" s="14">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>0</v>
+      </c>
+      <c r="B28" s="14">
+        <v>26</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>0</v>
+      </c>
+      <c r="B29" s="14">
+        <v>27</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>0</v>
+      </c>
+      <c r="B30" s="14">
+        <v>28</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>0</v>
+      </c>
+      <c r="B31" s="14">
+        <v>29</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>0</v>
+      </c>
+      <c r="B32" s="14">
+        <v>30</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>0</v>
+      </c>
+      <c r="B33" s="14">
+        <v>31</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>0</v>
+      </c>
+      <c r="B34" s="14">
+        <v>32</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>0</v>
+      </c>
+      <c r="B35" s="14">
+        <v>33</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>0</v>
+      </c>
+      <c r="B36" s="14">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>0</v>
+      </c>
+      <c r="B37" s="14">
+        <v>35</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>0</v>
+      </c>
+      <c r="B38" s="14">
+        <v>36</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>0</v>
+      </c>
+      <c r="B39" s="14">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>0</v>
+      </c>
+      <c r="B40" s="14">
+        <v>38</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>0</v>
+      </c>
+      <c r="B41" s="14">
+        <v>39</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>0</v>
+      </c>
+      <c r="B42" s="14">
+        <v>40</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>899</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>0</v>
+      </c>
+      <c r="B43" s="14">
+        <v>41</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>0</v>
+      </c>
+      <c r="B44" s="14">
+        <v>42</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>0</v>
+      </c>
+      <c r="B45" s="14">
+        <v>43</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>972</v>
       </c>
     </row>
   </sheetData>
@@ -20148,10 +20904,10 @@
 
 <file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F3110F0-2F63-49D3-B561-F4C18DBAA044}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -20159,7 +20915,7 @@
     <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
     <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
     <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
@@ -20184,10 +20940,122 @@
         <v>0</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>62</v>
+        <v>899</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>120</v>
+        <v>911</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>929</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>978</v>
       </c>
     </row>
   </sheetData>

--- a/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
+++ b/RedHaloM2B_Lib/ParamBlock2/PB2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\APP\RedHaloM2B_Lib\RedHaloM2B_Lib\ParamBlock2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A32F2A8-DD17-476F-A03D-CE37F48DA763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD7301D-81A3-4E6E-89CB-2B00EBBD49CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14985" yWindow="1740" windowWidth="28065" windowHeight="19260" tabRatio="706" firstSheet="16" activeTab="24" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
+    <workbookView xWindow="21720" yWindow="4755" windowWidth="29310" windowHeight="13875" tabRatio="706" firstSheet="29" activeTab="29" xr2:uid="{3B29243F-53F5-4745-B8C6-E4F7709AB902}"/>
   </bookViews>
   <sheets>
     <sheet name="Checker" sheetId="6" r:id="rId1"/>
@@ -55,6 +55,9 @@
     <sheet name="CoronaLayerMtl" sheetId="37" r:id="rId40"/>
     <sheet name="CoronaSelectMtl" sheetId="38" r:id="rId41"/>
     <sheet name="Color Map (29)" sheetId="39" r:id="rId42"/>
+    <sheet name="CoronaCamera" sheetId="45" r:id="rId43"/>
+    <sheet name="PhysicalCamera" sheetId="46" r:id="rId44"/>
+    <sheet name="VRayCamera" sheetId="47" r:id="rId45"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Bitmap!#REF!</definedName>
@@ -66,6 +69,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="17" hidden="1">CoronaAO!$A$2:$A$20</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="16" hidden="1">CoronaBitmap!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="21" hidden="1">CoronaBumpConverter!$A$2:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="42" hidden="1">CoronaCamera!$A$2:$A$109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="23" hidden="1">CoronaColor!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="20" hidden="1">CoronaColorCorrect!$A$2:$A$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="25" hidden="1">CoronaFrontBack!$A$2:$A$7</definedName>
@@ -83,6 +87,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Falloff!$A$2:$A$17</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">Gradient!$A$2:$A$22</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Mix!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="43" hidden="1">PhysicalCamera!$A$2:$A$109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'RGB Multiply'!$A$2:$A$8</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'RGB Tint'!$A$2:$A$6</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="32" hidden="1">StandardMtl!$A$2:$A$37</definedName>
@@ -90,6 +95,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">VRayBitmap!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="38" hidden="1">VRayBlendMtl!$A$2:$A$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">VRayBump2Normal!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="44" hidden="1">VRayCamera!$A$2:$A$109</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="33" hidden="1">VRayCarPaintMtl2!$A$2:$A$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">VRayColor!$A$2:$A$13</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">VRayColor2Bump!$A$2:$A$4</definedName>
@@ -110,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2594" uniqueCount="1029">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3290" uniqueCount="1305">
   <si>
     <t>soften</t>
   </si>
@@ -3209,6 +3215,834 @@
   </si>
   <si>
     <t>showLegacy</t>
+  </si>
+  <si>
+    <t>targeted</t>
+  </si>
+  <si>
+    <t>showCone</t>
+  </si>
+  <si>
+    <t>showHorizonLine</t>
+  </si>
+  <si>
+    <t>targetDistance</t>
+  </si>
+  <si>
+    <t>enableClipping</t>
+  </si>
+  <si>
+    <t>clippingNear</t>
+  </si>
+  <si>
+    <t>clippingFar</t>
+  </si>
+  <si>
+    <t>enviroNear</t>
+  </si>
+  <si>
+    <t>enviroFar</t>
+  </si>
+  <si>
+    <t>showEnviroRanges</t>
+  </si>
+  <si>
+    <t>projection</t>
+  </si>
+  <si>
+    <t>cylindricalFov</t>
+  </si>
+  <si>
+    <t>enableVr</t>
+  </si>
+  <si>
+    <t>vrEyeSeparation</t>
+  </si>
+  <si>
+    <t>vrFrontOffset</t>
+  </si>
+  <si>
+    <t>vrConvergenceDistanceSource</t>
+  </si>
+  <si>
+    <t>vrConvergenceDistance</t>
+  </si>
+  <si>
+    <t>fovSource</t>
+  </si>
+  <si>
+    <t>fov</t>
+  </si>
+  <si>
+    <t>iso</t>
+  </si>
+  <si>
+    <t>zoomFactor</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>focalLength</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>fStop</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>sensorWidth</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>shutterParam</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>shutterSpeed</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>shutterAngle</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>mblurDuration</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>shutterOffset</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>overrideBloomGlare</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>enableBloomGlare</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>bloomIntensity</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>glareIntensity</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>bloomGlareThreshold</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>bloomGlareColorIntensity</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>bloomGlareColorShift</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>glareStreakCount</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>glareRotation</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>glareStreakBlur</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>overrideSharpening</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>enableSharpening</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>sharpeningAmount</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>sharpeningRadius</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>blurringRadius</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>enableCameraMb</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>enableGeometryMb</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>enableDof</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>overrideFocusDistance</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>dofOverrideSource</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>dofOverrideFocusDistance</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>dofOverrideFocusNode</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>overrideBokeh</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>bokehType</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>bokehBladeCount</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>bokehRotation</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>bokehMap</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>autoVerticalTilt</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>verticalTilt</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>verticalShift</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>horizontalTilt</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>horizontalShift</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>distortionType</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>distortionAmount</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>distortionMap</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>iconSize</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>orthoViewSize</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>overrideVisibility</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>useLegacyTiltShift</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>showLegacyUi</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>showClipRange</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>bokehMapAffectsExposure</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>bokehCenterBias</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>bokehVignetting</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>bokehAnisotropy</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>fisheyeFov</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>fisheyeProjection</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>fisheyeFormat</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>fisheyeClampToFov</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>bloomGlareSize</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>colorMappingPipeline</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>colorMappingOverride</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>colorMappingEnabled</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>orthoViewInInfinity</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>mblurShutterCurveEnabled</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>mblurShutterCurveControlPoints</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>mblurShutterCurveInterpolation</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>physicalSize</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>showPhysicalSize</t>
+  </si>
+  <si>
+    <t>target_distance</t>
+  </si>
+  <si>
+    <t>show_camera_cone</t>
+  </si>
+  <si>
+    <t>horizon_on</t>
+  </si>
+  <si>
+    <t>show_focus_plane_in_cam_view</t>
+  </si>
+  <si>
+    <t>film_preset</t>
+  </si>
+  <si>
+    <t>film_width_mm</t>
+  </si>
+  <si>
+    <t>focal_length_mm</t>
+  </si>
+  <si>
+    <t>specify_fov</t>
+  </si>
+  <si>
+    <t>zoom_factor</t>
+  </si>
+  <si>
+    <t>f_number</t>
+  </si>
+  <si>
+    <t>use_dof</t>
+  </si>
+  <si>
+    <t>specify_focus</t>
+  </si>
+  <si>
+    <t>focus_distance</t>
+  </si>
+  <si>
+    <t>lens_breathing_amount</t>
+  </si>
+  <si>
+    <t>shutter_unit_type</t>
+  </si>
+  <si>
+    <t>shutter_length_seconds</t>
+  </si>
+  <si>
+    <t>shutter_offset_seconds</t>
+  </si>
+  <si>
+    <t>shutter_length_frames</t>
+  </si>
+  <si>
+    <t>shutter_offset_frames</t>
+  </si>
+  <si>
+    <t>shutter_offset_enabled</t>
+  </si>
+  <si>
+    <t>motion_blur_enabled</t>
+  </si>
+  <si>
+    <t>exposure_gain_type</t>
+  </si>
+  <si>
+    <t>exposure_value</t>
+  </si>
+  <si>
+    <t>white_balance_type</t>
+  </si>
+  <si>
+    <t>white_balance_illuminant</t>
+  </si>
+  <si>
+    <t>white_balance_kelvin</t>
+  </si>
+  <si>
+    <t>white_balance_custom</t>
+  </si>
+  <si>
+    <t>vignetting_enabled</t>
+  </si>
+  <si>
+    <t>vignetting_amount</t>
+  </si>
+  <si>
+    <t>bokeh_shape</t>
+  </si>
+  <si>
+    <t>bokeh_blades_number</t>
+  </si>
+  <si>
+    <t>pb_bokeh_blades_rotation_degrees</t>
+  </si>
+  <si>
+    <t>bokeh_texture</t>
+  </si>
+  <si>
+    <t>bokeh_texture_affect_exposure</t>
+  </si>
+  <si>
+    <t>bokeh_optical_vignetting</t>
+  </si>
+  <si>
+    <t>bokeh_center_bias</t>
+  </si>
+  <si>
+    <t>bokeh_anisotropy</t>
+  </si>
+  <si>
+    <t>horizontal_shift</t>
+  </si>
+  <si>
+    <t>vertical_shift</t>
+  </si>
+  <si>
+    <t>horizontal_tilt_correction</t>
+  </si>
+  <si>
+    <t>vertical_tilt_correction</t>
+  </si>
+  <si>
+    <t>auto_vertical_tilt_correction</t>
+  </si>
+  <si>
+    <t>distortion_type</t>
+  </si>
+  <si>
+    <t>distortion_cubic_amount</t>
+  </si>
+  <si>
+    <t>distortion_texture</t>
+  </si>
+  <si>
+    <t>clip_on</t>
+  </si>
+  <si>
+    <t>clip_near</t>
+  </si>
+  <si>
+    <t>clip_far</t>
+  </si>
+  <si>
+    <t>environment_near</t>
+  </si>
+  <si>
+    <t>environment_far</t>
+  </si>
+  <si>
+    <t>film_width</t>
+  </si>
+  <si>
+    <t>focal_length</t>
+  </si>
+  <si>
+    <t>ISO</t>
+  </si>
+  <si>
+    <t>shutter_speed</t>
+  </si>
+  <si>
+    <t>shutter_angle</t>
+  </si>
+  <si>
+    <t>shutter_offset</t>
+  </si>
+  <si>
+    <t>latency</t>
+  </si>
+  <si>
+    <t>use_moblur</t>
+  </si>
+  <si>
+    <t>vignetting</t>
+  </si>
+  <si>
+    <t>systemLightingUnits</t>
+  </si>
+  <si>
+    <t>whiteBalance</t>
+  </si>
+  <si>
+    <t>whiteBalance_preset</t>
+  </si>
+  <si>
+    <t>override_resolution</t>
+  </si>
+  <si>
+    <t>override_width</t>
+  </si>
+  <si>
+    <t>override_height</t>
+  </si>
+  <si>
+    <t>override_lock_aspect</t>
+  </si>
+  <si>
+    <t>override_autoupdate</t>
+  </si>
+  <si>
+    <t>lens_tilt</t>
+  </si>
+  <si>
+    <t>lens_tilt_auto</t>
+  </si>
+  <si>
+    <t>lens_horTilt</t>
+  </si>
+  <si>
+    <t>use_blades</t>
+  </si>
+  <si>
+    <t>blades_number</t>
+  </si>
+  <si>
+    <t>blades_rotation</t>
+  </si>
+  <si>
+    <t>center_bias</t>
+  </si>
+  <si>
+    <t>optical_vignetting</t>
+  </si>
+  <si>
+    <t>bitmap_aperture_on</t>
+  </si>
+  <si>
+    <t>bitmap_aperture_affectExposure</t>
+  </si>
+  <si>
+    <t>bitmap_aperture_res</t>
+  </si>
+  <si>
+    <t>bitmap_aperture_texmap</t>
+  </si>
+  <si>
+    <t>distortion</t>
+  </si>
+  <si>
+    <t>lens_file</t>
+  </si>
+  <si>
+    <t>distortion_map</t>
+  </si>
+  <si>
+    <t>dof_display_thresh</t>
+  </si>
+  <si>
+    <t>legacy_ISO</t>
+  </si>
+  <si>
+    <t>rolling_shutter_mode</t>
+  </si>
+  <si>
+    <t>rolling_shutter_duration</t>
+  </si>
+  <si>
+    <t>camera_shader_texmap</t>
+  </si>
+  <si>
+    <t>camera_shader_on</t>
+  </si>
+  <si>
+    <t>prop_custom</t>
+  </si>
+  <si>
+    <t>prop_rows_count</t>
+  </si>
+  <si>
+    <t>prop_rows_color</t>
+  </si>
+  <si>
+    <t>prop_cols_count</t>
+  </si>
+  <si>
+    <t>prop_cols_color</t>
+  </si>
+  <si>
+    <t>prop_golden_grid</t>
+  </si>
+  <si>
+    <t>prop_golden_grid_color</t>
+  </si>
+  <si>
+    <t>prop_golden_spiral</t>
+  </si>
+  <si>
+    <t>prop_golden_spiral_color</t>
+  </si>
+  <si>
+    <t>prop_golden_triangle</t>
+  </si>
+  <si>
+    <t>prop_golden_triangle_color</t>
+  </si>
+  <si>
+    <t>prop_mirror_hor</t>
+  </si>
+  <si>
+    <t>prop_mirror_ver</t>
   </si>
 </sst>
 </file>
@@ -3478,7 +4312,99 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="259">
+  <dxfs count="277">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -4225,6 +5151,52 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <name val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.14999847407452621"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -5764,289 +6736,280 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}" name="表2" displayName="表2" ref="A2:D18" totalsRowShown="0" headerRowDxfId="258" headerRowBorderDxfId="257" tableBorderDxfId="256" totalsRowBorderDxfId="255">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}" name="表2" displayName="表2" ref="A2:D18" totalsRowShown="0" headerRowDxfId="276" headerRowBorderDxfId="275" tableBorderDxfId="274" totalsRowBorderDxfId="273">
   <autoFilter ref="A2:D18" xr:uid="{4060F31A-9C61-4466-9687-2436457AD7E4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2D41582E-7698-4D96-B381-E70F10A1DC8F}" name="main" dataDxfId="254"/>
-    <tableColumn id="2" xr3:uid="{251B123A-D391-4C42-A03C-DDA697EA139B}" name="branch" dataDxfId="253"/>
-    <tableColumn id="3" xr3:uid="{A937446C-F8DF-404A-8C19-2C649D8F1BEB}" name="type" dataDxfId="252"/>
-    <tableColumn id="4" xr3:uid="{206B0CBC-2C23-4005-9413-91FFD450242E}" name="param name" dataDxfId="251"/>
+    <tableColumn id="1" xr3:uid="{2D41582E-7698-4D96-B381-E70F10A1DC8F}" name="main" dataDxfId="272"/>
+    <tableColumn id="2" xr3:uid="{251B123A-D391-4C42-A03C-DDA697EA139B}" name="branch" dataDxfId="271"/>
+    <tableColumn id="3" xr3:uid="{A937446C-F8DF-404A-8C19-2C649D8F1BEB}" name="type" dataDxfId="270"/>
+    <tableColumn id="4" xr3:uid="{206B0CBC-2C23-4005-9413-91FFD450242E}" name="param name" dataDxfId="269"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium6" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6E123A4-AC18-4383-8FEF-88FC9710A391}" name="表6_891011" displayName="表6_891011" ref="A1:D48" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{F6E123A4-AC18-4383-8FEF-88FC9710A391}" name="表6_891011" displayName="表6_891011" ref="A1:D48" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214">
   <autoFilter ref="A1:D48" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8A85C0EA-4CDE-4D93-B049-3C11FD83B866}" name="main" dataDxfId="195"/>
-    <tableColumn id="2" xr3:uid="{B4D689B8-7678-4627-8C30-571AFA1954CE}" name="branch" dataDxfId="194"/>
-    <tableColumn id="3" xr3:uid="{1B0A04CF-F3AC-4373-A92B-F7D319E52FC4}" name="type" dataDxfId="193"/>
-    <tableColumn id="4" xr3:uid="{5B52C9B4-0914-412B-8D7D-C4F1D3CB6CA9}" name="param name" dataDxfId="192"/>
+    <tableColumn id="1" xr3:uid="{8A85C0EA-4CDE-4D93-B049-3C11FD83B866}" name="main" dataDxfId="213"/>
+    <tableColumn id="2" xr3:uid="{B4D689B8-7678-4627-8C30-571AFA1954CE}" name="branch" dataDxfId="212"/>
+    <tableColumn id="3" xr3:uid="{1B0A04CF-F3AC-4373-A92B-F7D319E52FC4}" name="type" dataDxfId="211"/>
+    <tableColumn id="4" xr3:uid="{5B52C9B4-0914-412B-8D7D-C4F1D3CB6CA9}" name="param name" dataDxfId="210"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D88250FB-0DB3-424D-A24A-D8261708B2E3}" name="表6_892" displayName="表6_892" ref="A1:D46" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{D88250FB-0DB3-424D-A24A-D8261708B2E3}" name="表6_892" displayName="表6_892" ref="A1:D46" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
   <autoFilter ref="A1:D46" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{ABC109BE-05F7-45FC-B28E-A25F56785127}" name="main" dataDxfId="189"/>
-    <tableColumn id="2" xr3:uid="{98C68B2C-8456-453F-ABDC-E94E9B8D474D}" name="branch" dataDxfId="188"/>
-    <tableColumn id="3" xr3:uid="{73ACFFB3-7807-4088-807D-88470729B2BA}" name="type" dataDxfId="187"/>
-    <tableColumn id="4" xr3:uid="{320F409E-253F-4260-8467-E0D287495D07}" name="param name" dataDxfId="186"/>
+    <tableColumn id="1" xr3:uid="{ABC109BE-05F7-45FC-B28E-A25F56785127}" name="main" dataDxfId="207"/>
+    <tableColumn id="2" xr3:uid="{98C68B2C-8456-453F-ABDC-E94E9B8D474D}" name="branch" dataDxfId="206"/>
+    <tableColumn id="3" xr3:uid="{73ACFFB3-7807-4088-807D-88470729B2BA}" name="type" dataDxfId="205"/>
+    <tableColumn id="4" xr3:uid="{320F409E-253F-4260-8467-E0D287495D07}" name="param name" dataDxfId="204"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4B0AB83-5BB3-4AD6-9F5A-8C690B2DA3FE}" name="表6_89212" displayName="表6_89212" ref="A1:D13" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{C4B0AB83-5BB3-4AD6-9F5A-8C690B2DA3FE}" name="表6_89212" displayName="表6_89212" ref="A1:D13" totalsRowShown="0" headerRowDxfId="203" dataDxfId="202">
   <autoFilter ref="A1:D13" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{25807113-C158-42E7-8892-EDA341B2D700}" name="main" dataDxfId="183"/>
-    <tableColumn id="2" xr3:uid="{821DBFB3-8F0C-4625-9C08-E53307BC75E4}" name="branch" dataDxfId="182"/>
-    <tableColumn id="3" xr3:uid="{9138AA34-C209-41F6-A065-D789CE7DFF08}" name="type" dataDxfId="181"/>
-    <tableColumn id="4" xr3:uid="{FBACDFD2-4E34-4DC7-99FF-33D8FF23E785}" name="param name" dataDxfId="180"/>
+    <tableColumn id="1" xr3:uid="{25807113-C158-42E7-8892-EDA341B2D700}" name="main" dataDxfId="201"/>
+    <tableColumn id="2" xr3:uid="{821DBFB3-8F0C-4625-9C08-E53307BC75E4}" name="branch" dataDxfId="200"/>
+    <tableColumn id="3" xr3:uid="{9138AA34-C209-41F6-A065-D789CE7DFF08}" name="type" dataDxfId="199"/>
+    <tableColumn id="4" xr3:uid="{FBACDFD2-4E34-4DC7-99FF-33D8FF23E785}" name="param name" dataDxfId="198"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{753F4B04-15DB-4DDB-B21D-C7A8F3C7E798}" name="表6_8921213" displayName="表6_8921213" ref="A1:D5" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{753F4B04-15DB-4DDB-B21D-C7A8F3C7E798}" name="表6_8921213" displayName="表6_8921213" ref="A1:D5" totalsRowShown="0" headerRowDxfId="197" dataDxfId="196">
   <autoFilter ref="A1:D5" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BB4AA73D-1ED5-448B-9AE3-FE865C983D39}" name="main" dataDxfId="177"/>
-    <tableColumn id="2" xr3:uid="{EB99AB73-8FDC-45BF-B0A0-8377793F09C3}" name="branch" dataDxfId="176"/>
-    <tableColumn id="3" xr3:uid="{991EAF0A-5DA2-439D-9FAB-9DEFD89077A0}" name="type" dataDxfId="175"/>
-    <tableColumn id="4" xr3:uid="{D18C9DB0-8246-4734-A938-2CB4F7229F15}" name="param name" dataDxfId="174"/>
+    <tableColumn id="1" xr3:uid="{BB4AA73D-1ED5-448B-9AE3-FE865C983D39}" name="main" dataDxfId="195"/>
+    <tableColumn id="2" xr3:uid="{EB99AB73-8FDC-45BF-B0A0-8377793F09C3}" name="branch" dataDxfId="194"/>
+    <tableColumn id="3" xr3:uid="{991EAF0A-5DA2-439D-9FAB-9DEFD89077A0}" name="type" dataDxfId="193"/>
+    <tableColumn id="4" xr3:uid="{D18C9DB0-8246-4734-A938-2CB4F7229F15}" name="param name" dataDxfId="192"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A24E004E-4EBE-490C-9AAB-ED6960D629C9}" name="表6_892121314" displayName="表6_892121314" ref="A1:D4" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{A24E004E-4EBE-490C-9AAB-ED6960D629C9}" name="表6_892121314" displayName="表6_892121314" ref="A1:D4" totalsRowShown="0" headerRowDxfId="191" dataDxfId="190">
   <autoFilter ref="A1:D4" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{DA2F9135-19FD-41FF-A0BD-E19EDE35978C}" name="main" dataDxfId="171"/>
-    <tableColumn id="2" xr3:uid="{9A0AF032-2605-41F3-87D5-7A2191868ADF}" name="branch" dataDxfId="170"/>
-    <tableColumn id="3" xr3:uid="{39447203-25E4-4E57-BB37-9154C8CD7663}" name="type" dataDxfId="169"/>
-    <tableColumn id="4" xr3:uid="{BF6E1539-2F98-444C-9F1B-1DD9890B3898}" name="param name" dataDxfId="168"/>
+    <tableColumn id="1" xr3:uid="{DA2F9135-19FD-41FF-A0BD-E19EDE35978C}" name="main" dataDxfId="189"/>
+    <tableColumn id="2" xr3:uid="{9A0AF032-2605-41F3-87D5-7A2191868ADF}" name="branch" dataDxfId="188"/>
+    <tableColumn id="3" xr3:uid="{39447203-25E4-4E57-BB37-9154C8CD7663}" name="type" dataDxfId="187"/>
+    <tableColumn id="4" xr3:uid="{BF6E1539-2F98-444C-9F1B-1DD9890B3898}" name="param name" dataDxfId="186"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{64A915F8-A0A7-42F8-B358-548E26A2D261}" name="表6_89212131415" displayName="表6_89212131415" ref="A1:D14" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{64A915F8-A0A7-42F8-B358-548E26A2D261}" name="表6_89212131415" displayName="表6_89212131415" ref="A1:D14" totalsRowShown="0" headerRowDxfId="185" dataDxfId="184">
   <autoFilter ref="A1:D14" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{AE618ED7-34F9-45C9-BA6E-0E28742D773C}" name="main" dataDxfId="165"/>
-    <tableColumn id="2" xr3:uid="{B312A00E-85C1-49DD-9CE3-820C1CB05E6B}" name="branch" dataDxfId="164"/>
-    <tableColumn id="3" xr3:uid="{2EB76E35-76BD-4322-995B-7CC45A5F5D7F}" name="type" dataDxfId="163"/>
-    <tableColumn id="4" xr3:uid="{2C20F636-3553-402B-A09E-80722A9BC84D}" name="param name" dataDxfId="162"/>
+    <tableColumn id="1" xr3:uid="{AE618ED7-34F9-45C9-BA6E-0E28742D773C}" name="main" dataDxfId="183"/>
+    <tableColumn id="2" xr3:uid="{B312A00E-85C1-49DD-9CE3-820C1CB05E6B}" name="branch" dataDxfId="182"/>
+    <tableColumn id="3" xr3:uid="{2EB76E35-76BD-4322-995B-7CC45A5F5D7F}" name="type" dataDxfId="181"/>
+    <tableColumn id="4" xr3:uid="{2C20F636-3553-402B-A09E-80722A9BC84D}" name="param name" dataDxfId="180"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1E359F77-2531-471D-845D-73EFCC64E0D2}" name="表6_8921213141516" displayName="表6_8921213141516" ref="A1:D5" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{1E359F77-2531-471D-845D-73EFCC64E0D2}" name="表6_8921213141516" displayName="表6_8921213141516" ref="A1:D5" totalsRowShown="0" headerRowDxfId="179" dataDxfId="178">
   <autoFilter ref="A1:D5" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{FB220119-4281-4340-9ED2-A909BBE6E90D}" name="main" dataDxfId="159"/>
-    <tableColumn id="2" xr3:uid="{971A8DB4-253F-4CF6-B1A5-EA9E84F48414}" name="branch" dataDxfId="158"/>
-    <tableColumn id="3" xr3:uid="{6AC24398-79B4-4841-9B11-810FCBE7D7C3}" name="type" dataDxfId="157"/>
-    <tableColumn id="4" xr3:uid="{50E6A130-B526-4708-AAF2-7F8C5114E8CC}" name="param name" dataDxfId="156"/>
+    <tableColumn id="1" xr3:uid="{FB220119-4281-4340-9ED2-A909BBE6E90D}" name="main" dataDxfId="177"/>
+    <tableColumn id="2" xr3:uid="{971A8DB4-253F-4CF6-B1A5-EA9E84F48414}" name="branch" dataDxfId="176"/>
+    <tableColumn id="3" xr3:uid="{6AC24398-79B4-4841-9B11-810FCBE7D7C3}" name="type" dataDxfId="175"/>
+    <tableColumn id="4" xr3:uid="{50E6A130-B526-4708-AAF2-7F8C5114E8CC}" name="param name" dataDxfId="174"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table17.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{1F03877A-F1E0-4024-8B8C-DB8AA9DA63E9}" name="表6_892121314151617181920212223242526272829303132333536374142" displayName="表6_892121314151617181920212223242526272829303132333536374142" ref="A1:D31" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="41" xr:uid="{1F03877A-F1E0-4024-8B8C-DB8AA9DA63E9}" name="表6_892121314151617181920212223242526272829303132333536374142" displayName="表6_892121314151617181920212223242526272829303132333536374142" ref="A1:D31" totalsRowShown="0" headerRowDxfId="173" dataDxfId="172">
   <autoFilter ref="A1:D31" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2B9D8013-2680-4E0D-AB57-C07D58EF7AEE}" name="main" dataDxfId="153"/>
-    <tableColumn id="2" xr3:uid="{509B9250-FA08-4BEF-ABF8-DEA39B9ED7B0}" name="branch" dataDxfId="152"/>
-    <tableColumn id="3" xr3:uid="{7AB089A7-68BF-4B81-A712-7FC71AD0DA54}" name="type" dataDxfId="151"/>
-    <tableColumn id="4" xr3:uid="{202209E6-6982-42E9-BFC0-BAA7DC37B54D}" name="param name" dataDxfId="150"/>
+    <tableColumn id="1" xr3:uid="{2B9D8013-2680-4E0D-AB57-C07D58EF7AEE}" name="main" dataDxfId="171"/>
+    <tableColumn id="2" xr3:uid="{509B9250-FA08-4BEF-ABF8-DEA39B9ED7B0}" name="branch" dataDxfId="170"/>
+    <tableColumn id="3" xr3:uid="{7AB089A7-68BF-4B81-A712-7FC71AD0DA54}" name="type" dataDxfId="169"/>
+    <tableColumn id="4" xr3:uid="{202209E6-6982-42E9-BFC0-BAA7DC37B54D}" name="param name" dataDxfId="168"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table18.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{80AE85AD-776D-48D8-A9E0-8B5B99241A3D}" name="表6_892121314151617" displayName="表6_892121314151617" ref="A1:D20" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="16" xr:uid="{80AE85AD-776D-48D8-A9E0-8B5B99241A3D}" name="表6_892121314151617" displayName="表6_892121314151617" ref="A1:D20" totalsRowShown="0" headerRowDxfId="167" dataDxfId="166">
   <autoFilter ref="A1:D20" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{77C5EFED-826E-40DE-9792-058A0219DB93}" name="main" dataDxfId="147"/>
-    <tableColumn id="2" xr3:uid="{EA04F042-A666-406F-9CE5-B964EFAFB6B1}" name="branch" dataDxfId="146"/>
-    <tableColumn id="3" xr3:uid="{F6F48581-298A-48A6-A7B1-5FD41B41DC85}" name="type" dataDxfId="145"/>
-    <tableColumn id="4" xr3:uid="{EEF330D9-79F5-4056-BECF-2EA208B917DF}" name="param name" dataDxfId="144"/>
+    <tableColumn id="1" xr3:uid="{77C5EFED-826E-40DE-9792-058A0219DB93}" name="main" dataDxfId="165"/>
+    <tableColumn id="2" xr3:uid="{EA04F042-A666-406F-9CE5-B964EFAFB6B1}" name="branch" dataDxfId="164"/>
+    <tableColumn id="3" xr3:uid="{F6F48581-298A-48A6-A7B1-5FD41B41DC85}" name="type" dataDxfId="163"/>
+    <tableColumn id="4" xr3:uid="{EEF330D9-79F5-4056-BECF-2EA208B917DF}" name="param name" dataDxfId="162"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table19.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{360A56DC-C9FB-415A-B518-D87DC3B610D8}" name="表6_89212131415161718" displayName="表6_89212131415161718" ref="A1:D16" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="17" xr:uid="{360A56DC-C9FB-415A-B518-D87DC3B610D8}" name="表6_89212131415161718" displayName="表6_89212131415161718" ref="A1:D16" totalsRowShown="0" headerRowDxfId="161" dataDxfId="160">
   <autoFilter ref="A1:D16" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{85FA0DE5-1500-4EB3-ADE2-11B529A34F3E}" name="main" dataDxfId="141"/>
-    <tableColumn id="2" xr3:uid="{82545C75-76EC-4363-9BE1-A1A76F81F275}" name="branch" dataDxfId="140"/>
-    <tableColumn id="3" xr3:uid="{96012611-D136-4234-9E88-5E00A17FA8B6}" name="type" dataDxfId="139"/>
-    <tableColumn id="4" xr3:uid="{7F3EEAA8-584A-41EC-A828-940B22BF5A4C}" name="param name" dataDxfId="138"/>
+    <tableColumn id="1" xr3:uid="{85FA0DE5-1500-4EB3-ADE2-11B529A34F3E}" name="main" dataDxfId="159"/>
+    <tableColumn id="2" xr3:uid="{82545C75-76EC-4363-9BE1-A1A76F81F275}" name="branch" dataDxfId="158"/>
+    <tableColumn id="3" xr3:uid="{96012611-D136-4234-9E88-5E00A17FA8B6}" name="type" dataDxfId="157"/>
+    <tableColumn id="4" xr3:uid="{7F3EEAA8-584A-41EC-A828-940B22BF5A4C}" name="param name" dataDxfId="156"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}" name="表3" displayName="表3" ref="A1:D22" totalsRowShown="0" headerRowDxfId="250" dataDxfId="248" headerRowBorderDxfId="249" tableBorderDxfId="247" totalsRowBorderDxfId="246">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}" name="表3" displayName="表3" ref="A1:D22" totalsRowShown="0" headerRowDxfId="268" dataDxfId="266" headerRowBorderDxfId="267" tableBorderDxfId="265" totalsRowBorderDxfId="264">
   <autoFilter ref="A1:D22" xr:uid="{EBE48E62-3111-4EF7-9659-DEC591C84F2E}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A9C5E782-2908-495B-BC1E-48E2FD18AEE0}" name="main" dataDxfId="245"/>
-    <tableColumn id="2" xr3:uid="{5470BF63-58F6-4E58-9D4F-C002B557215E}" name="branch" dataDxfId="244"/>
-    <tableColumn id="3" xr3:uid="{90636DC2-3EDA-473A-801B-DF14180D5E8D}" name="type" dataDxfId="243"/>
-    <tableColumn id="4" xr3:uid="{73405289-D597-4AE2-A24C-A23D026B4D06}" name="param name" dataDxfId="242"/>
+    <tableColumn id="1" xr3:uid="{A9C5E782-2908-495B-BC1E-48E2FD18AEE0}" name="main" dataDxfId="263"/>
+    <tableColumn id="2" xr3:uid="{5470BF63-58F6-4E58-9D4F-C002B557215E}" name="branch" dataDxfId="262"/>
+    <tableColumn id="3" xr3:uid="{90636DC2-3EDA-473A-801B-DF14180D5E8D}" name="type" dataDxfId="261"/>
+    <tableColumn id="4" xr3:uid="{73405289-D597-4AE2-A24C-A23D026B4D06}" name="param name" dataDxfId="260"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table20.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{62FF6596-CF2A-4221-B9C6-1D41646ED98D}" name="表6_8921213141516171819" displayName="表6_8921213141516171819" ref="A1:D11" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{62FF6596-CF2A-4221-B9C6-1D41646ED98D}" name="表6_8921213141516171819" displayName="表6_8921213141516171819" ref="A1:D11" totalsRowShown="0" headerRowDxfId="155" dataDxfId="154">
   <autoFilter ref="A1:D11" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{5F5F8E61-AEE4-4628-9B8A-424994708189}" name="main" dataDxfId="135"/>
-    <tableColumn id="2" xr3:uid="{EA68617E-47E4-4E7D-A312-90D0F2B1DC4D}" name="branch" dataDxfId="134"/>
-    <tableColumn id="3" xr3:uid="{794F68D4-D909-4EA8-962B-E2DC37B9E1B2}" name="type" dataDxfId="133"/>
-    <tableColumn id="4" xr3:uid="{BBC5FF7F-2A9F-48F7-9353-D959DA37CFB0}" name="param name" dataDxfId="132"/>
+    <tableColumn id="1" xr3:uid="{5F5F8E61-AEE4-4628-9B8A-424994708189}" name="main" dataDxfId="153"/>
+    <tableColumn id="2" xr3:uid="{EA68617E-47E4-4E7D-A312-90D0F2B1DC4D}" name="branch" dataDxfId="152"/>
+    <tableColumn id="3" xr3:uid="{794F68D4-D909-4EA8-962B-E2DC37B9E1B2}" name="type" dataDxfId="151"/>
+    <tableColumn id="4" xr3:uid="{BBC5FF7F-2A9F-48F7-9353-D959DA37CFB0}" name="param name" dataDxfId="150"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table21.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{99C98499-87F2-4A00-A5C6-42867A84C518}" name="表6_892121314151617181920" displayName="表6_892121314151617181920" ref="A1:D32" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="19" xr:uid="{99C98499-87F2-4A00-A5C6-42867A84C518}" name="表6_892121314151617181920" displayName="表6_892121314151617181920" ref="A1:D32" totalsRowShown="0" headerRowDxfId="149" dataDxfId="148">
   <autoFilter ref="A1:D32" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{6473C8AB-4511-4780-902D-44FF22FA9125}" name="main" dataDxfId="129"/>
-    <tableColumn id="2" xr3:uid="{5336CBC3-0465-44E6-842C-F8FB29DE5B60}" name="branch" dataDxfId="128"/>
-    <tableColumn id="3" xr3:uid="{678157D5-4DF4-42B9-BEBA-9F11FAA70230}" name="type" dataDxfId="127"/>
-    <tableColumn id="4" xr3:uid="{A3CD0A63-3E60-4690-8303-684CF295A686}" name="param name" dataDxfId="126"/>
+    <tableColumn id="1" xr3:uid="{6473C8AB-4511-4780-902D-44FF22FA9125}" name="main" dataDxfId="147"/>
+    <tableColumn id="2" xr3:uid="{5336CBC3-0465-44E6-842C-F8FB29DE5B60}" name="branch" dataDxfId="146"/>
+    <tableColumn id="3" xr3:uid="{678157D5-4DF4-42B9-BEBA-9F11FAA70230}" name="type" dataDxfId="145"/>
+    <tableColumn id="4" xr3:uid="{A3CD0A63-3E60-4690-8303-684CF295A686}" name="param name" dataDxfId="144"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table22.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B9092D73-1E82-43D3-BB36-1B82F1AB4C19}" name="表6_89212131415161718192021" displayName="表6_89212131415161718192021" ref="A1:D4" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="20" xr:uid="{B9092D73-1E82-43D3-BB36-1B82F1AB4C19}" name="表6_89212131415161718192021" displayName="表6_89212131415161718192021" ref="A1:D4" totalsRowShown="0" headerRowDxfId="143" dataDxfId="142">
   <autoFilter ref="A1:D4" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{446C90BC-EE13-48AF-8953-B0823F1EF424}" name="main" dataDxfId="123"/>
-    <tableColumn id="2" xr3:uid="{A4BE9E1C-DCDF-4035-B22F-975533B7EE8E}" name="branch" dataDxfId="122"/>
-    <tableColumn id="3" xr3:uid="{F066C877-271A-431C-9942-DB3171BA218A}" name="type" dataDxfId="121"/>
-    <tableColumn id="4" xr3:uid="{4DCDA06A-8121-4C10-882B-A92225C0E935}" name="param name" dataDxfId="120"/>
+    <tableColumn id="1" xr3:uid="{446C90BC-EE13-48AF-8953-B0823F1EF424}" name="main" dataDxfId="141"/>
+    <tableColumn id="2" xr3:uid="{A4BE9E1C-DCDF-4035-B22F-975533B7EE8E}" name="branch" dataDxfId="140"/>
+    <tableColumn id="3" xr3:uid="{F066C877-271A-431C-9942-DB3171BA218A}" name="type" dataDxfId="139"/>
+    <tableColumn id="4" xr3:uid="{4DCDA06A-8121-4C10-882B-A92225C0E935}" name="param name" dataDxfId="138"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table23.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{52E7FD7A-DA6F-4877-8755-23A6D13C5F04}" name="表6_89212131415161718192021222324252627282930313233353637383940" displayName="表6_89212131415161718192021222324252627282930313233353637383940" ref="A1:D6" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="39" xr:uid="{52E7FD7A-DA6F-4877-8755-23A6D13C5F04}" name="表6_89212131415161718192021222324252627282930313233353637383940" displayName="表6_89212131415161718192021222324252627282930313233353637383940" ref="A1:D6" totalsRowShown="0" headerRowDxfId="137" dataDxfId="136">
   <autoFilter ref="A1:D6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D3C64A2C-FD07-4DC4-85F9-A9E86C75D017}" name="main" dataDxfId="117"/>
-    <tableColumn id="2" xr3:uid="{20A5CD65-9DD9-4842-89EA-891C564614AD}" name="branch" dataDxfId="116"/>
-    <tableColumn id="3" xr3:uid="{27913CAF-1B89-4F74-AA66-5D9EC333DCAD}" name="type" dataDxfId="115"/>
-    <tableColumn id="4" xr3:uid="{B57979FD-A23E-4726-AEC5-3CB4E3FA12B7}" name="param name" dataDxfId="114"/>
+    <tableColumn id="1" xr3:uid="{D3C64A2C-FD07-4DC4-85F9-A9E86C75D017}" name="main" dataDxfId="135"/>
+    <tableColumn id="2" xr3:uid="{20A5CD65-9DD9-4842-89EA-891C564614AD}" name="branch" dataDxfId="134"/>
+    <tableColumn id="3" xr3:uid="{27913CAF-1B89-4F74-AA66-5D9EC333DCAD}" name="type" dataDxfId="133"/>
+    <tableColumn id="4" xr3:uid="{B57979FD-A23E-4726-AEC5-3CB4E3FA12B7}" name="param name" dataDxfId="132"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table24.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{E1557CB0-9746-4BCC-9332-7FB931E3C9C8}" name="表6_8921213141516171819202122232425262728293031323335363741" displayName="表6_8921213141516171819202122232425262728293031323335363741" ref="A1:D10" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="40" xr:uid="{E1557CB0-9746-4BCC-9332-7FB931E3C9C8}" name="表6_8921213141516171819202122232425262728293031323335363741" displayName="表6_8921213141516171819202122232425262728293031323335363741" ref="A1:D10" totalsRowShown="0" headerRowDxfId="131" dataDxfId="130">
   <autoFilter ref="A1:D10" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C15D6FF8-0C5C-4569-8323-3ED34E4FD8C2}" name="main" dataDxfId="111"/>
-    <tableColumn id="2" xr3:uid="{24B63BD5-9BFE-4E18-94EE-C885D3AC03AC}" name="branch" dataDxfId="110"/>
-    <tableColumn id="3" xr3:uid="{BE1DDF84-DD71-480F-BED6-5404AC84A685}" name="type" dataDxfId="109"/>
-    <tableColumn id="4" xr3:uid="{5DF34EC2-C920-4D71-969C-9677E3251622}" name="param name" dataDxfId="108"/>
+    <tableColumn id="1" xr3:uid="{C15D6FF8-0C5C-4569-8323-3ED34E4FD8C2}" name="main" dataDxfId="129"/>
+    <tableColumn id="2" xr3:uid="{24B63BD5-9BFE-4E18-94EE-C885D3AC03AC}" name="branch" dataDxfId="128"/>
+    <tableColumn id="3" xr3:uid="{BE1DDF84-DD71-480F-BED6-5404AC84A685}" name="type" dataDxfId="127"/>
+    <tableColumn id="4" xr3:uid="{5DF34EC2-C920-4D71-969C-9677E3251622}" name="param name" dataDxfId="126"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table25.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{64B2F5EB-9F9E-45E6-ADE8-D1818759D775}" name="表6_8943" displayName="表6_8943" ref="A1:D14" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="42" xr:uid="{64B2F5EB-9F9E-45E6-ADE8-D1818759D775}" name="表6_8943" displayName="表6_8943" ref="A1:D14" totalsRowShown="0" headerRowDxfId="125" dataDxfId="124">
   <autoFilter ref="A1:D14" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EFF32779-540C-48BC-AE4A-CCA750A01198}" name="main" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{5DB52D53-7BB5-4718-8C0C-A38A5C60B8B4}" name="branch" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{E9B63F5E-6698-4C24-B56B-2412D5B34836}" name="type" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{1A685603-1372-40EF-8B92-4D1B26130E2D}" name="param name" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{EFF32779-540C-48BC-AE4A-CCA750A01198}" name="main" dataDxfId="123"/>
+    <tableColumn id="2" xr3:uid="{5DB52D53-7BB5-4718-8C0C-A38A5C60B8B4}" name="branch" dataDxfId="122"/>
+    <tableColumn id="3" xr3:uid="{E9B63F5E-6698-4C24-B56B-2412D5B34836}" name="type" dataDxfId="121"/>
+    <tableColumn id="4" xr3:uid="{1A685603-1372-40EF-8B92-4D1B26130E2D}" name="param name" dataDxfId="120"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table26.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{A6640308-7007-4510-842B-DAAD60ED3552}" name="表6_8921213141516171819202122" displayName="表6_8921213141516171819202122" ref="A1:D7" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{A6640308-7007-4510-842B-DAAD60ED3552}" name="表6_8921213141516171819202122" displayName="表6_8921213141516171819202122" ref="A1:D7" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A1:D7" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BE0266B4-0AA2-475C-8D13-DBDF17FE05C3}" name="main" dataDxfId="105"/>
-    <tableColumn id="2" xr3:uid="{E7D086AD-F1E1-47EE-A908-729CC7D1EDB9}" name="branch" dataDxfId="104"/>
-    <tableColumn id="3" xr3:uid="{30879BC5-4F3C-4CE6-81C1-426176CBF96F}" name="type" dataDxfId="103"/>
-    <tableColumn id="4" xr3:uid="{C2372A9E-8322-4203-8AD8-9EF37FB73D2B}" name="param name" dataDxfId="102"/>
+    <tableColumn id="1" xr3:uid="{BE0266B4-0AA2-475C-8D13-DBDF17FE05C3}" name="main" dataDxfId="117"/>
+    <tableColumn id="2" xr3:uid="{E7D086AD-F1E1-47EE-A908-729CC7D1EDB9}" name="branch" dataDxfId="116"/>
+    <tableColumn id="3" xr3:uid="{30879BC5-4F3C-4CE6-81C1-426176CBF96F}" name="type" dataDxfId="115"/>
+    <tableColumn id="4" xr3:uid="{C2372A9E-8322-4203-8AD8-9EF37FB73D2B}" name="param name" dataDxfId="114"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table27.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{844A6BA8-C36D-413A-B54D-E7B75700C5B0}" name="表6_892121314151617181920212223" displayName="表6_892121314151617181920212223" ref="A1:D12" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{844A6BA8-C36D-413A-B54D-E7B75700C5B0}" name="表6_892121314151617181920212223" displayName="表6_892121314151617181920212223" ref="A1:D12" totalsRowShown="0" headerRowDxfId="113" dataDxfId="112">
   <autoFilter ref="A1:D12" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{EA39BB2F-8FC6-4310-8EB3-E2D37B6D1DE6}" name="main" dataDxfId="99"/>
-    <tableColumn id="2" xr3:uid="{E957548F-271C-40B2-9092-CE9C0E9F6144}" name="branch" dataDxfId="98"/>
-    <tableColumn id="3" xr3:uid="{9382DDB7-EB44-4420-A985-2B29EB05A1AB}" name="type" dataDxfId="97"/>
-    <tableColumn id="4" xr3:uid="{92812206-9544-4249-A90A-3C34475D1723}" name="param name" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{EA39BB2F-8FC6-4310-8EB3-E2D37B6D1DE6}" name="main" dataDxfId="111"/>
+    <tableColumn id="2" xr3:uid="{E957548F-271C-40B2-9092-CE9C0E9F6144}" name="branch" dataDxfId="110"/>
+    <tableColumn id="3" xr3:uid="{9382DDB7-EB44-4420-A985-2B29EB05A1AB}" name="type" dataDxfId="109"/>
+    <tableColumn id="4" xr3:uid="{92812206-9544-4249-A90A-3C34475D1723}" name="param name" dataDxfId="108"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table28.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{2AF21F10-51C5-4833-A199-42225D1D6730}" name="表6_89212131415161718192021222324" displayName="表6_89212131415161718192021222324" ref="A1:D228" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
-  <autoFilter ref="A1:D228" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="option_opacityMode"/>
-        <filter val="texmap_opacity"/>
-        <filter val="texmap_opacity_multiplier"/>
-        <filter val="texmap_opacity_on"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="23" xr:uid="{2AF21F10-51C5-4833-A199-42225D1D6730}" name="表6_89212131415161718192021222324" displayName="表6_89212131415161718192021222324" ref="A1:D228" totalsRowShown="0" headerRowDxfId="107" dataDxfId="106">
+  <autoFilter ref="A1:D228" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1CEEBD0F-DE94-484C-8FDC-176AF6899DE4}" name="main" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{4748AC76-F26C-4A8E-B7FD-51E3A961A0DB}" name="branch" dataDxfId="92"/>
-    <tableColumn id="3" xr3:uid="{EE6CB704-AFEC-4814-B724-8C974D2C1C4A}" name="type" dataDxfId="91"/>
-    <tableColumn id="4" xr3:uid="{21049C3B-A088-4554-A135-9BFC4E507614}" name="param name" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{1CEEBD0F-DE94-484C-8FDC-176AF6899DE4}" name="main" dataDxfId="105"/>
+    <tableColumn id="2" xr3:uid="{4748AC76-F26C-4A8E-B7FD-51E3A961A0DB}" name="branch" dataDxfId="104"/>
+    <tableColumn id="3" xr3:uid="{EE6CB704-AFEC-4814-B724-8C974D2C1C4A}" name="type" dataDxfId="103"/>
+    <tableColumn id="4" xr3:uid="{21049C3B-A088-4554-A135-9BFC4E507614}" name="param name" dataDxfId="102"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table29.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{55BF17C4-35F9-443B-B504-6F8CF153E765}" name="表6_8921213141516171819202122232425" displayName="表6_8921213141516171819202122232425" ref="A1:D128" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="24" xr:uid="{55BF17C4-35F9-443B-B504-6F8CF153E765}" name="表6_8921213141516171819202122232425" displayName="表6_8921213141516171819202122232425" ref="A1:D128" totalsRowShown="0" headerRowDxfId="101" dataDxfId="100">
   <autoFilter ref="A1:D128" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -6062,90 +7025,96 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{67C559A2-2EC4-4EA5-AC44-6F0B83853E07}" name="main" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{5062C9AC-3913-48C1-AACB-3DC177626C6D}" name="branch" dataDxfId="86"/>
-    <tableColumn id="3" xr3:uid="{8D2188A2-6728-48FB-81FE-331F3F410AEA}" name="type" dataDxfId="85"/>
-    <tableColumn id="4" xr3:uid="{7FAF264C-841C-41C7-8F4F-56EDB6D7C8B3}" name="param name" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{67C559A2-2EC4-4EA5-AC44-6F0B83853E07}" name="main" dataDxfId="99"/>
+    <tableColumn id="2" xr3:uid="{5062C9AC-3913-48C1-AACB-3DC177626C6D}" name="branch" dataDxfId="98"/>
+    <tableColumn id="3" xr3:uid="{8D2188A2-6728-48FB-81FE-331F3F410AEA}" name="type" dataDxfId="97"/>
+    <tableColumn id="4" xr3:uid="{7FAF264C-841C-41C7-8F4F-56EDB6D7C8B3}" name="param name" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}" name="表4" displayName="表4" ref="A1:D14" totalsRowShown="0" headerRowDxfId="241" dataDxfId="240">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}" name="表4" displayName="表4" ref="A1:D14" totalsRowShown="0" headerRowDxfId="259" dataDxfId="258">
   <autoFilter ref="A1:D14" xr:uid="{394FAB82-2B71-4FB2-B8AF-E823A9D706D4}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{3808606C-1404-4259-B39E-E1E7A110B5CA}" name="main" dataDxfId="239"/>
-    <tableColumn id="2" xr3:uid="{F328710A-D3E3-4CE0-96F6-91F65F558FA0}" name="branch" dataDxfId="238"/>
-    <tableColumn id="3" xr3:uid="{DFCF2074-8826-4ED3-870D-7F464F5BEA44}" name="type" dataDxfId="237"/>
-    <tableColumn id="4" xr3:uid="{229BF5C0-6908-4BBD-A508-EF45263F6BC0}" name="param name" dataDxfId="236"/>
+    <tableColumn id="1" xr3:uid="{3808606C-1404-4259-B39E-E1E7A110B5CA}" name="main" dataDxfId="257"/>
+    <tableColumn id="2" xr3:uid="{F328710A-D3E3-4CE0-96F6-91F65F558FA0}" name="branch" dataDxfId="256"/>
+    <tableColumn id="3" xr3:uid="{DFCF2074-8826-4ED3-870D-7F464F5BEA44}" name="type" dataDxfId="255"/>
+    <tableColumn id="4" xr3:uid="{229BF5C0-6908-4BBD-A508-EF45263F6BC0}" name="param name" dataDxfId="254"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table30.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{8D619451-02A5-419F-AD3C-FE8AECE06AD8}" name="表6_892121314151617181920212223242526" displayName="表6_892121314151617181920212223242526" ref="A1:D148" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="25" xr:uid="{8D619451-02A5-419F-AD3C-FE8AECE06AD8}" name="表6_892121314151617181920212223242526" displayName="表6_892121314151617181920212223242526" ref="A1:D148" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A1:D148" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
-        <filter val="useCaustics"/>
-        <filter val="useComplexIor"/>
-        <filter val="useThinMode"/>
+        <filter val="attenuationDistance"/>
+        <filter val="dispersion"/>
+        <filter val="dispersionEnable"/>
+        <filter val="displacementMaximum"/>
+        <filter val="displacementMinimum"/>
+        <filter val="displacementTexmap"/>
+        <filter val="displacementTexmapOn"/>
+        <filter val="displacementWaterLevel"/>
+        <filter val="displacementWaterLevelOn"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{9D656239-4345-464E-9E4D-F546800A4D9E}" name="main" dataDxfId="81"/>
-    <tableColumn id="2" xr3:uid="{A403BB16-00B7-4984-91F8-80C98BEDFAE9}" name="branch" dataDxfId="80"/>
-    <tableColumn id="3" xr3:uid="{18F2EC94-873F-4403-9B63-44BA4485862E}" name="type" dataDxfId="79"/>
-    <tableColumn id="4" xr3:uid="{4BF4EB5D-4276-4036-94F4-BD977DD08A32}" name="param name" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{9D656239-4345-464E-9E4D-F546800A4D9E}" name="main" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{A403BB16-00B7-4984-91F8-80C98BEDFAE9}" name="branch" dataDxfId="92"/>
+    <tableColumn id="3" xr3:uid="{18F2EC94-873F-4403-9B63-44BA4485862E}" name="type" dataDxfId="91"/>
+    <tableColumn id="4" xr3:uid="{4BF4EB5D-4276-4036-94F4-BD977DD08A32}" name="param name" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table31.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{D77823DB-C201-4E7D-833C-6085CF94DD96}" name="表6_89212131415161718192021222324252627" displayName="表6_89212131415161718192021222324252627" ref="A1:D18" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="26" xr:uid="{D77823DB-C201-4E7D-833C-6085CF94DD96}" name="表6_89212131415161718192021222324252627" displayName="表6_89212131415161718192021222324252627" ref="A1:D18" totalsRowShown="0" headerRowDxfId="89" dataDxfId="88">
   <autoFilter ref="A1:D18" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{C99D0936-A00D-473A-9722-7AB9594E93FA}" name="main" dataDxfId="75"/>
-    <tableColumn id="2" xr3:uid="{91ED2A21-20F7-4D7F-8995-D255AD21FD6C}" name="branch" dataDxfId="74"/>
-    <tableColumn id="3" xr3:uid="{704694F5-EE15-4077-A55A-68AB0FC0A262}" name="type" dataDxfId="73"/>
-    <tableColumn id="4" xr3:uid="{EB568756-ADFD-452D-9F00-E142C274E911}" name="param name" dataDxfId="72"/>
+    <tableColumn id="1" xr3:uid="{C99D0936-A00D-473A-9722-7AB9594E93FA}" name="main" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{91ED2A21-20F7-4D7F-8995-D255AD21FD6C}" name="branch" dataDxfId="86"/>
+    <tableColumn id="3" xr3:uid="{704694F5-EE15-4077-A55A-68AB0FC0A262}" name="type" dataDxfId="85"/>
+    <tableColumn id="4" xr3:uid="{EB568756-ADFD-452D-9F00-E142C274E911}" name="param name" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table32.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{120987A5-0656-40F2-B4C8-58BDD36818AF}" name="表6_8921213141516171819202122232425262728" displayName="表6_8921213141516171819202122232425262728" ref="A1:D25" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="27" xr:uid="{120987A5-0656-40F2-B4C8-58BDD36818AF}" name="表6_8921213141516171819202122232425262728" displayName="表6_8921213141516171819202122232425262728" ref="A1:D25" totalsRowShown="0" headerRowDxfId="83" dataDxfId="82">
   <autoFilter ref="A1:D25" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D3F0BF9B-EF3D-46FD-851B-DE7A8BA6861A}" name="main" dataDxfId="69"/>
-    <tableColumn id="2" xr3:uid="{26734EFB-3A91-4358-8F49-76CD28502CCD}" name="branch" dataDxfId="68"/>
-    <tableColumn id="3" xr3:uid="{21B8E7A3-96A6-4FA8-BF69-2D45AD6CE016}" name="type" dataDxfId="67"/>
-    <tableColumn id="4" xr3:uid="{DFD55D6B-2A70-453A-A9CA-3AC307D52CEB}" name="param name" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{D3F0BF9B-EF3D-46FD-851B-DE7A8BA6861A}" name="main" dataDxfId="81"/>
+    <tableColumn id="2" xr3:uid="{26734EFB-3A91-4358-8F49-76CD28502CCD}" name="branch" dataDxfId="80"/>
+    <tableColumn id="3" xr3:uid="{21B8E7A3-96A6-4FA8-BF69-2D45AD6CE016}" name="type" dataDxfId="79"/>
+    <tableColumn id="4" xr3:uid="{DFD55D6B-2A70-453A-A9CA-3AC307D52CEB}" name="param name" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table33.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9E1029A9-E2B6-460A-BDD3-35B9E8EF1A27}" name="表6_892121314151617181920212223242526272829" displayName="表6_892121314151617181920212223242526272829" ref="A1:D37" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="28" xr:uid="{9E1029A9-E2B6-460A-BDD3-35B9E8EF1A27}" name="表6_892121314151617181920212223242526272829" displayName="表6_892121314151617181920212223242526272829" ref="A1:D37" totalsRowShown="0" headerRowDxfId="77" dataDxfId="76">
   <autoFilter ref="A1:D37" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{202FE0DE-0C42-49BE-8A93-547C5E684986}" name="main" dataDxfId="63"/>
-    <tableColumn id="2" xr3:uid="{1D731C2C-7DC2-450C-A501-23252C619AFE}" name="branch" dataDxfId="62"/>
-    <tableColumn id="3" xr3:uid="{F7069DC3-74B6-41AD-BA7F-D8AD59F0EFD6}" name="type" dataDxfId="61"/>
-    <tableColumn id="4" xr3:uid="{5A9F1D1F-D443-4878-97A8-CA433BC066DD}" name="param name" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{202FE0DE-0C42-49BE-8A93-547C5E684986}" name="main" dataDxfId="75"/>
+    <tableColumn id="2" xr3:uid="{1D731C2C-7DC2-450C-A501-23252C619AFE}" name="branch" dataDxfId="74"/>
+    <tableColumn id="3" xr3:uid="{F7069DC3-74B6-41AD-BA7F-D8AD59F0EFD6}" name="type" dataDxfId="73"/>
+    <tableColumn id="4" xr3:uid="{5A9F1D1F-D443-4878-97A8-CA433BC066DD}" name="param name" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table34.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{812EF589-76F5-45DE-814A-25389EF0967B}" name="表6_89212131415161718192021222324252627282930" displayName="表6_89212131415161718192021222324252627282930" ref="A1:D86" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="29" xr:uid="{812EF589-76F5-45DE-814A-25389EF0967B}" name="表6_89212131415161718192021222324252627282930" displayName="表6_89212131415161718192021222324252627282930" ref="A1:D86" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A1:D86" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}">
     <filterColumn colId="3">
       <filters>
@@ -6159,192 +7128,231 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8F1AA2F5-9662-4F90-9B63-332419C63823}" name="main" dataDxfId="57"/>
-    <tableColumn id="2" xr3:uid="{42B506CD-7BCF-42F9-BC3C-1D006F57004F}" name="branch" dataDxfId="56"/>
-    <tableColumn id="3" xr3:uid="{317A53D1-91A1-461D-8658-2B7B138E7753}" name="type" dataDxfId="55"/>
-    <tableColumn id="4" xr3:uid="{D5F70997-D51C-452C-89F1-F64CC91C8011}" name="param name" dataDxfId="54"/>
+    <tableColumn id="1" xr3:uid="{8F1AA2F5-9662-4F90-9B63-332419C63823}" name="main" dataDxfId="69"/>
+    <tableColumn id="2" xr3:uid="{42B506CD-7BCF-42F9-BC3C-1D006F57004F}" name="branch" dataDxfId="68"/>
+    <tableColumn id="3" xr3:uid="{317A53D1-91A1-461D-8658-2B7B138E7753}" name="type" dataDxfId="67"/>
+    <tableColumn id="4" xr3:uid="{D5F70997-D51C-452C-89F1-F64CC91C8011}" name="param name" dataDxfId="66"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table35.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{1D60048A-C472-4872-AC9D-2379248F9D6F}" name="表6_8921213141516171819202122232425262728293031" displayName="表6_8921213141516171819202122232425262728293031" ref="A1:D11" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="30" xr:uid="{1D60048A-C472-4872-AC9D-2379248F9D6F}" name="表6_8921213141516171819202122232425262728293031" displayName="表6_8921213141516171819202122232425262728293031" ref="A1:D11" totalsRowShown="0" headerRowDxfId="65" dataDxfId="64">
   <autoFilter ref="A1:D11" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D7A2469D-F5D2-40F7-BAB6-BA297295D345}" name="main" dataDxfId="51"/>
-    <tableColumn id="2" xr3:uid="{6877823A-086B-468B-83BF-BB42DD98E006}" name="branch" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{37B4F256-51D2-421F-B0A5-2CBFDC7ABAA8}" name="type" dataDxfId="49"/>
-    <tableColumn id="4" xr3:uid="{9AC80006-A126-46BA-9F52-749AB1F7286A}" name="param name" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{D7A2469D-F5D2-40F7-BAB6-BA297295D345}" name="main" dataDxfId="63"/>
+    <tableColumn id="2" xr3:uid="{6877823A-086B-468B-83BF-BB42DD98E006}" name="branch" dataDxfId="62"/>
+    <tableColumn id="3" xr3:uid="{37B4F256-51D2-421F-B0A5-2CBFDC7ABAA8}" name="type" dataDxfId="61"/>
+    <tableColumn id="4" xr3:uid="{9AC80006-A126-46BA-9F52-749AB1F7286A}" name="param name" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table36.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{42393325-2B83-4B11-82F6-EFBF38BDEDFC}" name="表6_892121314151617181920212223242526272829303132" displayName="表6_892121314151617181920212223242526272829303132" ref="A1:D6" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="31" xr:uid="{42393325-2B83-4B11-82F6-EFBF38BDEDFC}" name="表6_892121314151617181920212223242526272829303132" displayName="表6_892121314151617181920212223242526272829303132" ref="A1:D6" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="A1:D6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{F0DA75C7-FB66-46BD-A5A7-A150C0AAA29F}" name="main" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{335B8FD7-F4F5-4C0C-A754-A72950A1BE9B}" name="branch" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{E662F644-60D2-4DC7-90DE-A01BB09AF019}" name="type" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{8D1177B3-DA60-4E28-96E4-F084155D116A}" name="param name" dataDxfId="42"/>
+    <tableColumn id="1" xr3:uid="{F0DA75C7-FB66-46BD-A5A7-A150C0AAA29F}" name="main" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{335B8FD7-F4F5-4C0C-A754-A72950A1BE9B}" name="branch" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{E662F644-60D2-4DC7-90DE-A01BB09AF019}" name="type" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{8D1177B3-DA60-4E28-96E4-F084155D116A}" name="param name" dataDxfId="54"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table37.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{386C923B-D958-43D1-B3BB-6151D778DC29}" name="表6_89212131415161718192021222324252627282930313233" displayName="表6_89212131415161718192021222324252627282930313233" ref="A1:D11" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="32" xr:uid="{386C923B-D958-43D1-B3BB-6151D778DC29}" name="表6_89212131415161718192021222324252627282930313233" displayName="表6_89212131415161718192021222324252627282930313233" ref="A1:D11" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52">
   <autoFilter ref="A1:D11" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D55E2339-875B-4D76-A3FA-D3B13080AEA4}" name="main" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{E91F64E1-4386-462F-B3A8-EE83BD90C51B}" name="branch" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{3271998A-703F-4CF6-9450-42971CBBB68B}" name="type" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{6E633AD3-7444-46B0-8CD2-C71AF9825721}" name="param name" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{D55E2339-875B-4D76-A3FA-D3B13080AEA4}" name="main" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{E91F64E1-4386-462F-B3A8-EE83BD90C51B}" name="branch" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{3271998A-703F-4CF6-9450-42971CBBB68B}" name="type" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{6E633AD3-7444-46B0-8CD2-C71AF9825721}" name="param name" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table38.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{D14FD791-626E-4A0F-A2D4-F6D8C9BC9DF2}" name="表6_8921213141516171819202122232425262728293031323334" displayName="表6_8921213141516171819202122232425262728293031323334" ref="A1:D11" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="33" xr:uid="{D14FD791-626E-4A0F-A2D4-F6D8C9BC9DF2}" name="表6_8921213141516171819202122232425262728293031323334" displayName="表6_8921213141516171819202122232425262728293031323334" ref="A1:D11" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A1:D11" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{1A0D942F-50B2-44C5-9447-BB93C706241B}" name="main" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{AD713C2F-BD7A-40F3-A5C8-FD568DC1BB20}" name="branch" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{32065B5C-15F8-40C0-BA94-73824BBC11C8}" name="type" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{06DC6B82-1481-4A5F-A893-A2D8DBCC34B8}" name="param name" dataDxfId="30"/>
+    <tableColumn id="1" xr3:uid="{1A0D942F-50B2-44C5-9447-BB93C706241B}" name="main" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{AD713C2F-BD7A-40F3-A5C8-FD568DC1BB20}" name="branch" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{32065B5C-15F8-40C0-BA94-73824BBC11C8}" name="type" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{06DC6B82-1481-4A5F-A893-A2D8DBCC34B8}" name="param name" dataDxfId="42"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table39.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{72FB841A-FFF0-47DB-B2C0-A35A282F9844}" name="表6_8921213141516171819202122232425262728293031323335" displayName="表6_8921213141516171819202122232425262728293031323335" ref="A1:D45" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="34" xr:uid="{72FB841A-FFF0-47DB-B2C0-A35A282F9844}" name="表6_8921213141516171819202122232425262728293031323335" displayName="表6_8921213141516171819202122232425262728293031323335" ref="A1:D45" totalsRowShown="0" headerRowDxfId="41" dataDxfId="40">
   <autoFilter ref="A1:D45" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A04F6EBF-70EC-4FEE-96A7-0D91689FD415}" name="main" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{7C288209-724C-463E-9188-B7F0F00271FC}" name="branch" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{48B072B7-1D85-4200-966B-B033E14782A1}" name="type" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{E57CCFB4-E682-4DFD-9AD2-EAA30C90C5A7}" name="param name" dataDxfId="24"/>
+    <tableColumn id="1" xr3:uid="{A04F6EBF-70EC-4FEE-96A7-0D91689FD415}" name="main" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{7C288209-724C-463E-9188-B7F0F00271FC}" name="branch" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{48B072B7-1D85-4200-966B-B033E14782A1}" name="type" dataDxfId="37"/>
+    <tableColumn id="4" xr3:uid="{E57CCFB4-E682-4DFD-9AD2-EAA30C90C5A7}" name="param name" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{983F5DC3-D601-4BA8-9BAB-05876E80FCF2}" name="表6_892121314151617181920212223242526272829303132333536373839" displayName="表6_892121314151617181920212223242526272829303132333536373839" ref="A1:D6" totalsRowShown="0" headerRowDxfId="235" dataDxfId="234">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="38" xr:uid="{983F5DC3-D601-4BA8-9BAB-05876E80FCF2}" name="表6_892121314151617181920212223242526272829303132333536373839" displayName="表6_892121314151617181920212223242526272829303132333536373839" ref="A1:D6" totalsRowShown="0" headerRowDxfId="253" dataDxfId="252">
   <autoFilter ref="A1:D6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{781829FD-C5C4-4F48-9A93-2A34E6BBD664}" name="main" dataDxfId="233"/>
-    <tableColumn id="2" xr3:uid="{45572162-4D3D-4A68-9AF5-BB3AEE8774C4}" name="branch" dataDxfId="232"/>
-    <tableColumn id="3" xr3:uid="{A9E3AE17-79A4-4F23-847B-2BB4D2D1441E}" name="type" dataDxfId="231"/>
-    <tableColumn id="4" xr3:uid="{8DDDE564-B666-4A91-8F51-9B80E1C29CA2}" name="param name" dataDxfId="230"/>
+    <tableColumn id="1" xr3:uid="{781829FD-C5C4-4F48-9A93-2A34E6BBD664}" name="main" dataDxfId="251"/>
+    <tableColumn id="2" xr3:uid="{45572162-4D3D-4A68-9AF5-BB3AEE8774C4}" name="branch" dataDxfId="250"/>
+    <tableColumn id="3" xr3:uid="{A9E3AE17-79A4-4F23-847B-2BB4D2D1441E}" name="type" dataDxfId="249"/>
+    <tableColumn id="4" xr3:uid="{8DDDE564-B666-4A91-8F51-9B80E1C29CA2}" name="param name" dataDxfId="248"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table40.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{CB340B27-1C4E-4F9E-A767-1DF332353E8B}" name="表6_892121314151617181920212223242526272829303132333536" displayName="表6_892121314151617181920212223242526272829303132333536" ref="A1:D10" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="35" xr:uid="{CB340B27-1C4E-4F9E-A767-1DF332353E8B}" name="表6_892121314151617181920212223242526272829303132333536" displayName="表6_892121314151617181920212223242526272829303132333536" ref="A1:D10" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:D10" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{537BDF6A-461F-40A5-8C51-9B9DF4BA908E}" name="main" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{FBDC3124-FC59-4874-9202-8DAB5C2D1D04}" name="branch" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{915C94AA-75BA-4D39-B414-142F4295A7FF}" name="type" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{8186044C-5E62-40A2-8B3A-347C18EC61AC}" name="param name" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{537BDF6A-461F-40A5-8C51-9B9DF4BA908E}" name="main" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{FBDC3124-FC59-4874-9202-8DAB5C2D1D04}" name="branch" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{915C94AA-75BA-4D39-B414-142F4295A7FF}" name="type" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{8186044C-5E62-40A2-8B3A-347C18EC61AC}" name="param name" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table41.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{02ABE22E-32CC-4C67-A241-E1680755DB94}" name="表6_89212131415161718192021222324252627282930313233353637" displayName="表6_89212131415161718192021222324252627282930313233353637" ref="A1:D4" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="36" xr:uid="{02ABE22E-32CC-4C67-A241-E1680755DB94}" name="表6_89212131415161718192021222324252627282930313233353637" displayName="表6_89212131415161718192021222324252627282930313233353637" ref="A1:D4" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:D4" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{05E06D88-9F47-48A3-B005-60C4D7DDF096}" name="main" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{24F8619B-859B-4F02-9B86-6803A153D918}" name="branch" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{637730EA-FB6D-43B3-BFB6-EE1105DC75A8}" name="type" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{A335BCBA-C007-4FDB-A0E9-B9E17804AC49}" name="param name" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{05E06D88-9F47-48A3-B005-60C4D7DDF096}" name="main" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{24F8619B-859B-4F02-9B86-6803A153D918}" name="branch" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{637730EA-FB6D-43B3-BFB6-EE1105DC75A8}" name="type" dataDxfId="25"/>
+    <tableColumn id="4" xr3:uid="{A335BCBA-C007-4FDB-A0E9-B9E17804AC49}" name="param name" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table42.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{9A1C4C24-8DB9-4281-94EF-BE4DBCC2FA8E}" name="表6_8921213141516171819202122232425262728293031323335363738" displayName="表6_8921213141516171819202122232425262728293031323335363738" ref="A1:D2" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="37" xr:uid="{9A1C4C24-8DB9-4281-94EF-BE4DBCC2FA8E}" name="表6_8921213141516171819202122232425262728293031323335363738" displayName="表6_8921213141516171819202122232425262728293031323335363738" ref="A1:D2" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A1:D2" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{36116DA1-E06D-41E3-A01E-2B94D0B6133E}" name="main" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{5E5DD434-3C39-421D-8AC0-E7BD32A4CF57}" name="branch" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{B8D0FEBF-0FCA-47B2-A32A-8A4277DC57BD}" name="type" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{B0B16B31-8FC9-4FE6-9750-438579D21FDC}" name="param name" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{36116DA1-E06D-41E3-A01E-2B94D0B6133E}" name="main" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{5E5DD434-3C39-421D-8AC0-E7BD32A4CF57}" name="branch" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{B8D0FEBF-0FCA-47B2-A32A-8A4277DC57BD}" name="type" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{B0B16B31-8FC9-4FE6-9750-438579D21FDC}" name="param name" dataDxfId="18"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table43.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="43" xr:uid="{5CF43A91-ECD2-41A5-A4A8-63EAE2E7AE5C}" name="表6_892121314151644" displayName="表6_892121314151644" ref="A1:D109" totalsRowShown="0" headerRowDxfId="17" dataDxfId="16">
+  <autoFilter ref="A1:D109" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{55AAE7A3-36BB-4E8B-874C-FB2E4578A50A}" name="main" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{61E53DBC-2190-4735-A01B-1C85B6AC993C}" name="branch" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{83F47FEB-AC0F-4407-BDF1-06250C5884C8}" name="type" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{7687AF8D-D49E-4EEA-B72A-0A726AAF6777}" name="param name" dataDxfId="12"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table44.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="44" xr:uid="{A7533262-FAB4-4408-9332-1EC6A8E212F2}" name="表6_89212131415164445" displayName="表6_89212131415164445" ref="A1:D109" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
+  <autoFilter ref="A1:D109" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{C4BBE005-B8C8-4A31-BDAE-846A897237E5}" name="main" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{C3DDB18D-6074-468A-811C-DF21C3EA464A}" name="branch" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{D139D3CD-F877-41F6-AAD3-A6C87EDAE1EF}" name="type" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{28503647-CA57-4BF4-ACF2-19D9FBECF88F}" name="param name" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table45.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="45" xr:uid="{B8D6ECE9-7BED-40C0-8D4D-DDBA6391E66C}" name="表6_8921213141516444546" displayName="表6_8921213141516444546" ref="A1:D109" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D109" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{1C29DD5D-2E87-4375-BFA1-4E6DD868F0C9}" name="main" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{7295ABC0-84FB-4EE2-9548-8680E14737CD}" name="branch" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{F7FD9724-6A95-4915-8ED2-D89C6ACF5C60}" name="type" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{ED6950BD-70AE-4B96-BBA5-8954053F0F7B}" name="param name" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}" name="表5" displayName="表5" ref="A1:D36" totalsRowShown="0" headerRowDxfId="229" headerRowBorderDxfId="228" tableBorderDxfId="227" totalsRowBorderDxfId="226">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}" name="表5" displayName="表5" ref="A1:D36" totalsRowShown="0" headerRowDxfId="247" headerRowBorderDxfId="246" tableBorderDxfId="245" totalsRowBorderDxfId="244">
   <autoFilter ref="A1:D36" xr:uid="{AAA7849C-C24E-440E-83A7-D46AEB062254}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{4AE65613-9E32-4B81-B096-3CE2F9469A99}" name="main" dataDxfId="225"/>
-    <tableColumn id="2" xr3:uid="{B9C8132D-EB95-4F97-B376-375C1E78DA2F}" name="branch" dataDxfId="224"/>
-    <tableColumn id="3" xr3:uid="{A1B42A52-7EC8-4E70-A45E-3F416909E1EA}" name="type" dataDxfId="223"/>
-    <tableColumn id="4" xr3:uid="{390F265C-3120-4E30-9A3E-68BE2347C969}" name="param name" dataDxfId="222"/>
+    <tableColumn id="1" xr3:uid="{4AE65613-9E32-4B81-B096-3CE2F9469A99}" name="main" dataDxfId="243"/>
+    <tableColumn id="2" xr3:uid="{B9C8132D-EB95-4F97-B376-375C1E78DA2F}" name="branch" dataDxfId="242"/>
+    <tableColumn id="3" xr3:uid="{A1B42A52-7EC8-4E70-A45E-3F416909E1EA}" name="type" dataDxfId="241"/>
+    <tableColumn id="4" xr3:uid="{390F265C-3120-4E30-9A3E-68BE2347C969}" name="param name" dataDxfId="240"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}" name="表6" displayName="表6" ref="A1:D17" totalsRowShown="0" headerRowDxfId="221" dataDxfId="220">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}" name="表6" displayName="表6" ref="A1:D17" totalsRowShown="0" headerRowDxfId="239" dataDxfId="238">
   <autoFilter ref="A1:D17" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{BAEEF277-80BF-4C16-8215-7CCD39C11565}" name="main" dataDxfId="219"/>
-    <tableColumn id="2" xr3:uid="{45843013-F77E-4A90-AF54-173129A318BC}" name="branch" dataDxfId="218"/>
-    <tableColumn id="3" xr3:uid="{DE07E8D7-AF19-4990-B4EB-FB8A48054E6D}" name="type" dataDxfId="217"/>
-    <tableColumn id="4" xr3:uid="{D87A2779-3B12-41B3-968D-150307DF3484}" name="param name" dataDxfId="216"/>
+    <tableColumn id="1" xr3:uid="{BAEEF277-80BF-4C16-8215-7CCD39C11565}" name="main" dataDxfId="237"/>
+    <tableColumn id="2" xr3:uid="{45843013-F77E-4A90-AF54-173129A318BC}" name="branch" dataDxfId="236"/>
+    <tableColumn id="3" xr3:uid="{DE07E8D7-AF19-4990-B4EB-FB8A48054E6D}" name="type" dataDxfId="235"/>
+    <tableColumn id="4" xr3:uid="{D87A2779-3B12-41B3-968D-150307DF3484}" name="param name" dataDxfId="234"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44179487-8091-4992-8094-4DA31A4A9A12}" name="表6_8" displayName="表6_8" ref="A1:D8" totalsRowShown="0" headerRowDxfId="215" dataDxfId="214">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{44179487-8091-4992-8094-4DA31A4A9A12}" name="表6_8" displayName="表6_8" ref="A1:D8" totalsRowShown="0" headerRowDxfId="233" dataDxfId="232">
   <autoFilter ref="A1:D8" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{74AA3551-D5FC-442E-820B-56B35F04E314}" name="main" dataDxfId="213"/>
-    <tableColumn id="2" xr3:uid="{872A74B1-DD5D-4A36-ADFF-F85B7DA48580}" name="branch" dataDxfId="212"/>
-    <tableColumn id="3" xr3:uid="{92E7DF35-9ECD-40C3-9E4D-BD067B6A62EC}" name="type" dataDxfId="211"/>
-    <tableColumn id="4" xr3:uid="{521BB435-4AEA-479B-9B1C-8DE67307817F}" name="param name" dataDxfId="210"/>
+    <tableColumn id="1" xr3:uid="{74AA3551-D5FC-442E-820B-56B35F04E314}" name="main" dataDxfId="231"/>
+    <tableColumn id="2" xr3:uid="{872A74B1-DD5D-4A36-ADFF-F85B7DA48580}" name="branch" dataDxfId="230"/>
+    <tableColumn id="3" xr3:uid="{92E7DF35-9ECD-40C3-9E4D-BD067B6A62EC}" name="type" dataDxfId="229"/>
+    <tableColumn id="4" xr3:uid="{521BB435-4AEA-479B-9B1C-8DE67307817F}" name="param name" dataDxfId="228"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C4239BEF-66B1-4C30-A627-2C7A8F2E4BA9}" name="表6_89" displayName="表6_89" ref="A1:D7" totalsRowShown="0" headerRowDxfId="209" dataDxfId="208">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C4239BEF-66B1-4C30-A627-2C7A8F2E4BA9}" name="表6_89" displayName="表6_89" ref="A1:D7" totalsRowShown="0" headerRowDxfId="227" dataDxfId="226">
   <autoFilter ref="A1:D7" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{8A8D086D-6A95-4C02-8C03-468264AB5725}" name="main" dataDxfId="207"/>
-    <tableColumn id="2" xr3:uid="{CE92D93E-D841-4961-B94A-11AA4C235B48}" name="branch" dataDxfId="206"/>
-    <tableColumn id="3" xr3:uid="{9EA0702F-1E71-4F31-A149-4EDC82F3059F}" name="type" dataDxfId="205"/>
-    <tableColumn id="4" xr3:uid="{1126922B-B081-42BE-9F6D-8F699D3E6FEF}" name="param name" dataDxfId="204"/>
+    <tableColumn id="1" xr3:uid="{8A8D086D-6A95-4C02-8C03-468264AB5725}" name="main" dataDxfId="225"/>
+    <tableColumn id="2" xr3:uid="{CE92D93E-D841-4961-B94A-11AA4C235B48}" name="branch" dataDxfId="224"/>
+    <tableColumn id="3" xr3:uid="{9EA0702F-1E71-4F31-A149-4EDC82F3059F}" name="type" dataDxfId="223"/>
+    <tableColumn id="4" xr3:uid="{1126922B-B081-42BE-9F6D-8F699D3E6FEF}" name="param name" dataDxfId="222"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F70E97C-7386-4083-8729-2F25C3160A9B}" name="表6_8910" displayName="表6_8910" ref="A1:D22" totalsRowShown="0" headerRowDxfId="203" dataDxfId="202">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{2F70E97C-7386-4083-8729-2F25C3160A9B}" name="表6_8910" displayName="表6_8910" ref="A1:D22" totalsRowShown="0" headerRowDxfId="221" dataDxfId="220">
   <autoFilter ref="A1:D22" xr:uid="{CECEF44C-6E82-4E17-A545-F55BBAAA3343}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{0177998A-43AB-4B0F-8604-0AF954FBB185}" name="main" dataDxfId="201"/>
-    <tableColumn id="2" xr3:uid="{37520786-1F3E-4E38-8C3B-6E990C026213}" name="branch" dataDxfId="200"/>
-    <tableColumn id="3" xr3:uid="{06224467-73DA-4D97-B072-2FA1C3A7CF43}" name="type" dataDxfId="199"/>
-    <tableColumn id="4" xr3:uid="{7F4CE11F-D886-48B2-A97A-A561D4C6C79B}" name="param name" dataDxfId="198"/>
+    <tableColumn id="1" xr3:uid="{0177998A-43AB-4B0F-8604-0AF954FBB185}" name="main" dataDxfId="219"/>
+    <tableColumn id="2" xr3:uid="{37520786-1F3E-4E38-8C3B-6E990C026213}" name="branch" dataDxfId="218"/>
+    <tableColumn id="3" xr3:uid="{06224467-73DA-4D97-B072-2FA1C3A7CF43}" name="type" dataDxfId="217"/>
+    <tableColumn id="4" xr3:uid="{7F4CE11F-D886-48B2-A97A-A561D4C6C79B}" name="param name" dataDxfId="216"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8261,7 +9269,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8960,7 +9968,7 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8985,7 +9993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>0</v>
       </c>
@@ -9055,7 +10063,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>0</v>
       </c>
@@ -9069,7 +10077,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>0</v>
       </c>
@@ -9097,7 +10105,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>0</v>
       </c>
@@ -9111,7 +10119,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>0</v>
       </c>
@@ -9153,7 +10161,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>0</v>
       </c>
@@ -9167,7 +10175,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>0</v>
       </c>
@@ -9181,7 +10189,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>0</v>
       </c>
@@ -9195,7 +10203,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>0</v>
       </c>
@@ -9209,7 +10217,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>0</v>
       </c>
@@ -9223,7 +10231,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>0</v>
       </c>
@@ -9237,7 +10245,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>0</v>
       </c>
@@ -9251,7 +10259,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>0</v>
       </c>
@@ -9335,7 +10343,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>0</v>
       </c>
@@ -9349,7 +10357,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>0</v>
       </c>
@@ -11283,7 +12291,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05FFE2F4-8815-4068-B3A4-C3921F75EF85}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -11811,8 +12819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28219514-B49E-4E70-A35B-46A3707471AD}">
   <dimension ref="A1:D228"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D242" sqref="D242"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -11837,7 +12845,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="14">
         <v>0</v>
       </c>
@@ -11851,7 +12859,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="14">
         <v>0</v>
       </c>
@@ -11865,7 +12873,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="14">
         <v>0</v>
       </c>
@@ -11879,7 +12887,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="14">
         <v>0</v>
       </c>
@@ -11893,7 +12901,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="14">
         <v>0</v>
       </c>
@@ -11907,7 +12915,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="14">
         <v>0</v>
       </c>
@@ -11921,7 +12929,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="14">
         <v>0</v>
       </c>
@@ -11935,7 +12943,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="14">
         <v>0</v>
       </c>
@@ -11949,7 +12957,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="14">
         <v>0</v>
       </c>
@@ -11963,7 +12971,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="14">
         <v>0</v>
       </c>
@@ -11977,7 +12985,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="14">
         <v>0</v>
       </c>
@@ -11991,7 +12999,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="14">
         <v>0</v>
       </c>
@@ -12005,7 +13013,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="14">
         <v>0</v>
       </c>
@@ -12019,7 +13027,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="14">
         <v>0</v>
       </c>
@@ -12033,7 +13041,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="14">
         <v>0</v>
       </c>
@@ -12047,7 +13055,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="14">
         <v>0</v>
       </c>
@@ -12061,7 +13069,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="14">
         <v>0</v>
       </c>
@@ -12075,7 +13083,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="14">
         <v>0</v>
       </c>
@@ -12089,7 +13097,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="14">
         <v>0</v>
       </c>
@@ -12103,7 +13111,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="14">
         <v>0</v>
       </c>
@@ -12117,7 +13125,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="22" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="14">
         <v>0</v>
       </c>
@@ -12131,7 +13139,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="14">
         <v>0</v>
       </c>
@@ -12145,7 +13153,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="14">
         <v>0</v>
       </c>
@@ -12159,7 +13167,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="25" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="14">
         <v>0</v>
       </c>
@@ -12173,7 +13181,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="14">
         <v>0</v>
       </c>
@@ -12187,7 +13195,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="14">
         <v>0</v>
       </c>
@@ -12198,7 +13206,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="14">
         <v>0</v>
       </c>
@@ -12212,7 +13220,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="14">
         <v>0</v>
       </c>
@@ -12226,7 +13234,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="14">
         <v>0</v>
       </c>
@@ -12240,7 +13248,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="14">
         <v>0</v>
       </c>
@@ -12254,7 +13262,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="14">
         <v>0</v>
       </c>
@@ -12268,7 +13276,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="14">
         <v>0</v>
       </c>
@@ -12282,7 +13290,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>0</v>
       </c>
@@ -12296,7 +13304,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>0</v>
       </c>
@@ -12310,7 +13318,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>0</v>
       </c>
@@ -12324,7 +13332,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>0</v>
       </c>
@@ -12338,7 +13346,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="38" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="14">
         <v>0</v>
       </c>
@@ -12352,7 +13360,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="39" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="14">
         <v>0</v>
       </c>
@@ -12366,7 +13374,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="40" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="14">
         <v>0</v>
       </c>
@@ -12380,7 +13388,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="41" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="14">
         <v>0</v>
       </c>
@@ -12394,7 +13402,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="42" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="14">
         <v>0</v>
       </c>
@@ -12408,7 +13416,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="43" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="14">
         <v>0</v>
       </c>
@@ -12422,7 +13430,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="44" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="14">
         <v>0</v>
       </c>
@@ -12436,7 +13444,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="45" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="14">
         <v>0</v>
       </c>
@@ -12450,7 +13458,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="46" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="14">
         <v>0</v>
       </c>
@@ -12464,7 +13472,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="47" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="14">
         <v>0</v>
       </c>
@@ -12478,7 +13486,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="48" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="14">
         <v>0</v>
       </c>
@@ -12492,7 +13500,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="14">
         <v>0</v>
       </c>
@@ -12506,7 +13514,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="14">
         <v>0</v>
       </c>
@@ -12520,7 +13528,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="14">
         <v>0</v>
       </c>
@@ -12534,7 +13542,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="14">
         <v>0</v>
       </c>
@@ -12548,7 +13556,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="14">
         <v>0</v>
       </c>
@@ -12562,7 +13570,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="14">
         <v>0</v>
       </c>
@@ -12576,7 +13584,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" s="14">
         <v>0</v>
       </c>
@@ -12590,7 +13598,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" s="14">
         <v>0</v>
       </c>
@@ -12604,7 +13612,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" s="14">
         <v>0</v>
       </c>
@@ -12618,7 +13626,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="14">
         <v>0</v>
       </c>
@@ -12632,7 +13640,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="14">
         <v>0</v>
       </c>
@@ -12646,7 +13654,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="14">
         <v>0</v>
       </c>
@@ -12660,7 +13668,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="14">
         <v>0</v>
       </c>
@@ -12674,7 +13682,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="14">
         <v>0</v>
       </c>
@@ -12688,7 +13696,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="14">
         <v>0</v>
       </c>
@@ -12702,7 +13710,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="14">
         <v>0</v>
       </c>
@@ -12716,7 +13724,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="14">
         <v>0</v>
       </c>
@@ -12730,7 +13738,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="14">
         <v>0</v>
       </c>
@@ -12744,7 +13752,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="14">
         <v>0</v>
       </c>
@@ -12755,7 +13763,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="14">
         <v>0</v>
       </c>
@@ -12766,7 +13774,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="14">
         <v>0</v>
       </c>
@@ -12780,7 +13788,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>0</v>
       </c>
@@ -12794,7 +13802,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="14">
         <v>0</v>
       </c>
@@ -12808,7 +13816,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="14">
         <v>0</v>
       </c>
@@ -12822,7 +13830,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="14">
         <v>0</v>
       </c>
@@ -12836,7 +13844,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="14">
         <v>0</v>
       </c>
@@ -12850,7 +13858,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" s="14">
         <v>0</v>
       </c>
@@ -12864,7 +13872,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="76" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="14">
         <v>0</v>
       </c>
@@ -12878,7 +13886,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" s="14">
         <v>0</v>
       </c>
@@ -12892,7 +13900,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78" s="14">
         <v>0</v>
       </c>
@@ -12906,7 +13914,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="79" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79" s="14">
         <v>0</v>
       </c>
@@ -12920,7 +13928,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="80" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80" s="14">
         <v>0</v>
       </c>
@@ -12934,7 +13942,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="81" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81" s="14">
         <v>0</v>
       </c>
@@ -12948,7 +13956,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="82" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82" s="14">
         <v>0</v>
       </c>
@@ -12962,7 +13970,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="83" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83" s="14">
         <v>0</v>
       </c>
@@ -12976,7 +13984,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="84" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84" s="14">
         <v>0</v>
       </c>
@@ -12990,7 +13998,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>0</v>
       </c>
@@ -13004,7 +14012,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>0</v>
       </c>
@@ -13018,7 +14026,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>0</v>
       </c>
@@ -13032,7 +14040,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <v>0</v>
       </c>
@@ -13046,7 +14054,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>0</v>
       </c>
@@ -13060,7 +14068,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>0</v>
       </c>
@@ -13074,7 +14082,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="91" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91" s="14">
         <v>0</v>
       </c>
@@ -13088,7 +14096,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="92" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" s="14">
         <v>0</v>
       </c>
@@ -13102,7 +14110,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="93" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" s="14">
         <v>1</v>
       </c>
@@ -13116,7 +14124,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="94" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94" s="14">
         <v>1</v>
       </c>
@@ -13130,7 +14138,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="95" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95" s="14">
         <v>1</v>
       </c>
@@ -13144,7 +14152,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="96" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96" s="14">
         <v>1</v>
       </c>
@@ -13158,7 +14166,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="97" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="14">
         <v>1</v>
       </c>
@@ -13172,7 +14180,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="98" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="14">
         <v>1</v>
       </c>
@@ -13186,7 +14194,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="99" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="14">
         <v>1</v>
       </c>
@@ -13200,7 +14208,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="100" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="14">
         <v>1</v>
       </c>
@@ -13214,7 +14222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="14">
         <v>1</v>
       </c>
@@ -13228,7 +14236,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="102" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="14">
         <v>1</v>
       </c>
@@ -13242,7 +14250,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="103" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="14">
         <v>1</v>
       </c>
@@ -13256,7 +14264,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="104" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="14">
         <v>1</v>
       </c>
@@ -13270,7 +14278,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="105" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105" s="14">
         <v>1</v>
       </c>
@@ -13284,7 +14292,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="106" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="14">
         <v>1</v>
       </c>
@@ -13298,7 +14306,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="107" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107" s="14">
         <v>2</v>
       </c>
@@ -13312,7 +14320,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="108" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="14">
         <v>2</v>
       </c>
@@ -13326,7 +14334,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="109" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="14">
         <v>2</v>
       </c>
@@ -13340,7 +14348,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="110" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="14">
         <v>2</v>
       </c>
@@ -13354,7 +14362,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="111" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="14">
         <v>2</v>
       </c>
@@ -13368,7 +14376,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="112" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="14">
         <v>2</v>
       </c>
@@ -13382,7 +14390,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="113" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113" s="14">
         <v>2</v>
       </c>
@@ -13396,7 +14404,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="114" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114" s="14">
         <v>2</v>
       </c>
@@ -13410,7 +14418,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="115" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" s="14">
         <v>2</v>
       </c>
@@ -13424,7 +14432,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="116" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116" s="14">
         <v>2</v>
       </c>
@@ -13438,7 +14446,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="117" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117" s="14">
         <v>2</v>
       </c>
@@ -13452,7 +14460,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="118" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118" s="14">
         <v>2</v>
       </c>
@@ -13466,7 +14474,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="119" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119" s="14">
         <v>2</v>
       </c>
@@ -13480,7 +14488,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="120" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120" s="14">
         <v>2</v>
       </c>
@@ -13508,7 +14516,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="122" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122" s="14">
         <v>2</v>
       </c>
@@ -13522,7 +14530,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="123" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123" s="14">
         <v>2</v>
       </c>
@@ -13536,7 +14544,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="124" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124" s="14">
         <v>2</v>
       </c>
@@ -13550,7 +14558,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="125" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125" s="14">
         <v>3</v>
       </c>
@@ -13564,7 +14572,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="126" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126" s="14">
         <v>3</v>
       </c>
@@ -13578,7 +14586,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="127" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127" s="14">
         <v>3</v>
       </c>
@@ -13592,7 +14600,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="128" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A128" s="14">
         <v>3</v>
       </c>
@@ -13606,7 +14614,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="129" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="14">
         <v>3</v>
       </c>
@@ -13620,7 +14628,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="130" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="14">
         <v>3</v>
       </c>
@@ -13634,7 +14642,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="131" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131" s="14">
         <v>3</v>
       </c>
@@ -13648,7 +14656,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="132" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="14">
         <v>3</v>
       </c>
@@ -13662,7 +14670,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="133" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="14">
         <v>3</v>
       </c>
@@ -13676,7 +14684,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="134" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134" s="14">
         <v>3</v>
       </c>
@@ -13690,7 +14698,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="135" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="14">
         <v>3</v>
       </c>
@@ -13704,7 +14712,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="14">
         <v>3</v>
       </c>
@@ -13718,7 +14726,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="137" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="14">
         <v>3</v>
       </c>
@@ -13732,7 +14740,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="138" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="14">
         <v>3</v>
       </c>
@@ -13746,7 +14754,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="139" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139" s="14">
         <v>3</v>
       </c>
@@ -13760,7 +14768,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="140" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140" s="14">
         <v>3</v>
       </c>
@@ -13774,7 +14782,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="141" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="14">
         <v>3</v>
       </c>
@@ -13788,7 +14796,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="142" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142" s="14">
         <v>3</v>
       </c>
@@ -13802,7 +14810,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="143" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="14">
         <v>3</v>
       </c>
@@ -13816,7 +14824,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="144" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="14">
         <v>3</v>
       </c>
@@ -13830,7 +14838,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="145" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="14">
         <v>3</v>
       </c>
@@ -13844,7 +14852,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="146" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146" s="14">
         <v>3</v>
       </c>
@@ -13858,7 +14866,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="147" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="14">
         <v>3</v>
       </c>
@@ -13872,7 +14880,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="148" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="14">
         <v>3</v>
       </c>
@@ -13886,7 +14894,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="149" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="14">
         <v>3</v>
       </c>
@@ -13900,7 +14908,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="150" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150" s="14">
         <v>3</v>
       </c>
@@ -13914,7 +14922,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="151" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="14">
         <v>3</v>
       </c>
@@ -13928,7 +14936,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="152" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="14">
         <v>3</v>
       </c>
@@ -13942,7 +14950,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="153" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="14">
         <v>3</v>
       </c>
@@ -13956,7 +14964,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="154" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="14">
         <v>3</v>
       </c>
@@ -13970,7 +14978,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="155" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="14">
         <v>3</v>
       </c>
@@ -13984,7 +14992,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="156" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="14">
         <v>3</v>
       </c>
@@ -13998,7 +15006,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="157" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157" s="14">
         <v>3</v>
       </c>
@@ -14012,7 +15020,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="158" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="14">
         <v>3</v>
       </c>
@@ -14026,7 +15034,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="159" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="14">
         <v>3</v>
       </c>
@@ -14040,7 +15048,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="160" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="14">
         <v>3</v>
       </c>
@@ -14054,7 +15062,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="161" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" s="14">
         <v>3</v>
       </c>
@@ -14068,7 +15076,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="162" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="14">
         <v>3</v>
       </c>
@@ -14124,7 +15132,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="166" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="14">
         <v>3</v>
       </c>
@@ -14138,7 +15146,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="167" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167" s="14">
         <v>3</v>
       </c>
@@ -14152,7 +15160,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="168" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168" s="14">
         <v>3</v>
       </c>
@@ -14166,7 +15174,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="169" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="14">
         <v>3</v>
       </c>
@@ -14180,7 +15188,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="170" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="14">
         <v>3</v>
       </c>
@@ -14194,7 +15202,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="171" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="14">
         <v>3</v>
       </c>
@@ -14208,7 +15216,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="172" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="14">
         <v>3</v>
       </c>
@@ -14222,7 +15230,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="173" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="14">
         <v>3</v>
       </c>
@@ -14236,7 +15244,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="174" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="14">
         <v>3</v>
       </c>
@@ -14250,7 +15258,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="175" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="14">
         <v>3</v>
       </c>
@@ -14264,7 +15272,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="176" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="14">
         <v>3</v>
       </c>
@@ -14278,7 +15286,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="177" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="14">
         <v>3</v>
       </c>
@@ -14292,7 +15300,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="178" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="14">
         <v>3</v>
       </c>
@@ -14306,7 +15314,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="179" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="14">
         <v>3</v>
       </c>
@@ -14320,7 +15328,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="180" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180" s="14">
         <v>3</v>
       </c>
@@ -14334,7 +15342,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="181" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="14">
         <v>3</v>
       </c>
@@ -14348,7 +15356,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="182" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="14">
         <v>3</v>
       </c>
@@ -14362,7 +15370,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="183" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="14">
         <v>3</v>
       </c>
@@ -14376,7 +15384,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="184" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="14">
         <v>3</v>
       </c>
@@ -14390,7 +15398,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="185" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="14">
         <v>3</v>
       </c>
@@ -14404,7 +15412,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="186" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="14">
         <v>3</v>
       </c>
@@ -14418,7 +15426,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="187" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="14">
         <v>3</v>
       </c>
@@ -14432,7 +15440,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="188" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="14">
         <v>3</v>
       </c>
@@ -14446,7 +15454,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="189" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="14">
         <v>3</v>
       </c>
@@ -14460,7 +15468,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="190" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="14">
         <v>3</v>
       </c>
@@ -14474,7 +15482,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="191" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="14">
         <v>3</v>
       </c>
@@ -14488,7 +15496,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="192" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="14">
         <v>3</v>
       </c>
@@ -14502,7 +15510,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="193" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" s="14">
         <v>3</v>
       </c>
@@ -14516,7 +15524,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="194" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" s="14">
         <v>3</v>
       </c>
@@ -14530,7 +15538,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="195" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" s="14">
         <v>3</v>
       </c>
@@ -14544,7 +15552,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="196" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" s="14">
         <v>3</v>
       </c>
@@ -14558,7 +15566,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="197" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" s="14">
         <v>3</v>
       </c>
@@ -14572,7 +15580,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="198" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" s="14">
         <v>3</v>
       </c>
@@ -14586,7 +15594,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="199" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" s="14">
         <v>3</v>
       </c>
@@ -14600,7 +15608,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="200" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" s="14">
         <v>3</v>
       </c>
@@ -14614,7 +15622,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="201" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201" s="14">
         <v>3</v>
       </c>
@@ -14628,7 +15636,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="202" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" s="14">
         <v>3</v>
       </c>
@@ -14642,7 +15650,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="203" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203" s="14">
         <v>3</v>
       </c>
@@ -14656,7 +15664,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="204" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" s="14">
         <v>3</v>
       </c>
@@ -14670,7 +15678,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="205" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" s="14">
         <v>3</v>
       </c>
@@ -14684,7 +15692,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="206" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="14">
         <v>3</v>
       </c>
@@ -14698,7 +15706,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="207" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="14">
         <v>3</v>
       </c>
@@ -14712,7 +15720,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="208" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208" s="14">
         <v>3</v>
       </c>
@@ -14726,7 +15734,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="209" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209" s="14">
         <v>3</v>
       </c>
@@ -14740,7 +15748,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="210" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" s="14">
         <v>3</v>
       </c>
@@ -14754,7 +15762,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="211" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211" s="14">
         <v>3</v>
       </c>
@@ -14768,7 +15776,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="212" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212" s="14">
         <v>3</v>
       </c>
@@ -14782,7 +15790,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="213" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" s="14">
         <v>3</v>
       </c>
@@ -14796,7 +15804,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="214" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214" s="14">
         <v>3</v>
       </c>
@@ -14810,7 +15818,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="215" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" s="14">
         <v>3</v>
       </c>
@@ -14824,7 +15832,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="216" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" s="14">
         <v>3</v>
       </c>
@@ -14838,7 +15846,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="217" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217" s="14">
         <v>4</v>
       </c>
@@ -14849,7 +15857,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="218" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" s="14">
         <v>4</v>
       </c>
@@ -14863,7 +15871,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="219" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219" s="14">
         <v>4</v>
       </c>
@@ -14877,7 +15885,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="220" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220" s="14">
         <v>4</v>
       </c>
@@ -14891,7 +15899,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="221" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" s="14">
         <v>4</v>
       </c>
@@ -14905,7 +15913,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="222" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" s="14">
         <v>4</v>
       </c>
@@ -14919,7 +15927,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="223" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223" s="14">
         <v>5</v>
       </c>
@@ -14930,7 +15938,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="224" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224" s="14">
         <v>5</v>
       </c>
@@ -14944,7 +15952,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="225" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" s="14">
         <v>5</v>
       </c>
@@ -14958,7 +15966,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="226" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" s="14">
         <v>5</v>
       </c>
@@ -14972,7 +15980,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="227" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" s="14">
         <v>5</v>
       </c>
@@ -14986,7 +15994,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="228" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" s="14">
         <v>5</v>
       </c>
@@ -17051,8 +18059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9EEE2E-6B14-4BEE-9E8B-630B6A28CA3A}">
   <dimension ref="A1:D148"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D151" sqref="D151"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -17525,7 +18533,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="34" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="14">
         <v>0</v>
       </c>
@@ -17539,7 +18547,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="35" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="14">
         <v>0</v>
       </c>
@@ -17553,7 +18561,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="14">
         <v>0</v>
       </c>
@@ -17567,7 +18575,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="14">
         <v>0</v>
       </c>
@@ -18029,7 +19037,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="14">
         <v>0</v>
       </c>
@@ -18239,7 +19247,7 @@
         <v>718</v>
       </c>
     </row>
-    <row r="85" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85" s="14">
         <v>0</v>
       </c>
@@ -18253,7 +19261,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="86" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86" s="14">
         <v>0</v>
       </c>
@@ -18267,7 +19275,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="87" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87" s="14">
         <v>0</v>
       </c>
@@ -18281,7 +19289,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="88" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88" s="14">
         <v>0</v>
       </c>
@@ -18295,7 +19303,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="89" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" s="14">
         <v>0</v>
       </c>
@@ -18309,7 +19317,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="90" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90" s="14">
         <v>0</v>
       </c>
@@ -18953,7 +19961,7 @@
         <v>758</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="14">
         <v>0</v>
       </c>
@@ -23424,6 +24432,3799 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F73D4010-4374-4C4F-B61F-A866ABC403EC}">
+  <dimension ref="A1:D109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="19" style="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="14" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1054</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="14" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>1069</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36" s="14" t="s">
+        <v>1071</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>1075</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>1078</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45" s="14" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" s="14" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>1086</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B53" s="14" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="14" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B56" s="14" t="s">
+        <v>1100</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B57" s="14" t="s">
+        <v>1102</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>1104</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>1108</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>1110</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>1112</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>1114</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>1116</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>1118</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" s="14" t="s">
+        <v>1120</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B71" s="14" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B72" s="14" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B75" s="14" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>1146</v>
+      </c>
+      <c r="C79" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D79" s="15" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>1148</v>
+      </c>
+      <c r="C80" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D80" s="15" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B81" s="14" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C81" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D81" s="15" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B82" s="14" t="s">
+        <v>1152</v>
+      </c>
+      <c r="C82" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D82" s="15" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="C83" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="15" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C84" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D84" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D85" s="15" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C86" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D86" s="15" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>1160</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D87" s="15" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="C88" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D88" s="15" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C89" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D89" s="15" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="14" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C90" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="15" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="15" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D92" s="15" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B93" s="14" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C93" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="15" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="C94" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D94" s="15" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C95" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="D95" s="15" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B96" s="14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C96" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D96" s="15" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C97" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D97" s="15" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C98" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="15" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B99" s="14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C99" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D99" s="15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B100" s="14" t="s">
+        <v>1184</v>
+      </c>
+      <c r="C100" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D100" s="15" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B101" s="14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="C101" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D101" s="15" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B102" s="14" t="s">
+        <v>1188</v>
+      </c>
+      <c r="C102" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D102" s="15" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B103" s="14" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C103" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D103" s="15" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B104" s="14" t="s">
+        <v>1192</v>
+      </c>
+      <c r="C104" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D104" s="15" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B105" s="14" t="s">
+        <v>1194</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D105" s="15" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B106" s="14" t="s">
+        <v>1196</v>
+      </c>
+      <c r="C106" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="D106" s="15" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B107" s="14" t="s">
+        <v>1198</v>
+      </c>
+      <c r="C107" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D107" s="15" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B108" s="14" t="s">
+        <v>1200</v>
+      </c>
+      <c r="C108" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D108" s="15" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B109" s="14" t="s">
+        <v>1202</v>
+      </c>
+      <c r="C109" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D109" s="15" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B6AFD4-A9ED-4183-A77D-2378ABD08A84}">
+  <dimension ref="A1:D109"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>0</v>
+      </c>
+      <c r="B19" s="14">
+        <v>17</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>0</v>
+      </c>
+      <c r="B20" s="14">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>0</v>
+      </c>
+      <c r="B21" s="14">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>0</v>
+      </c>
+      <c r="B22" s="14">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>0</v>
+      </c>
+      <c r="B23" s="14">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>0</v>
+      </c>
+      <c r="B24" s="14">
+        <v>22</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>0</v>
+      </c>
+      <c r="B25" s="14">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>0</v>
+      </c>
+      <c r="B26" s="14">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>0</v>
+      </c>
+      <c r="B27" s="14">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>0</v>
+      </c>
+      <c r="B28" s="14">
+        <v>26</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>0</v>
+      </c>
+      <c r="B29" s="14">
+        <v>27</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>0</v>
+      </c>
+      <c r="B30" s="14">
+        <v>28</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>0</v>
+      </c>
+      <c r="B31" s="14">
+        <v>29</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>0</v>
+      </c>
+      <c r="B32" s="14">
+        <v>30</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>0</v>
+      </c>
+      <c r="B33" s="14">
+        <v>31</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>0</v>
+      </c>
+      <c r="B34" s="14">
+        <v>32</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>0</v>
+      </c>
+      <c r="B35" s="14">
+        <v>33</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>0</v>
+      </c>
+      <c r="B36" s="14">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>0</v>
+      </c>
+      <c r="B37" s="14">
+        <v>35</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>0</v>
+      </c>
+      <c r="B38" s="14">
+        <v>36</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>0</v>
+      </c>
+      <c r="B39" s="14">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>0</v>
+      </c>
+      <c r="B40" s="14">
+        <v>38</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>0</v>
+      </c>
+      <c r="B41" s="14">
+        <v>39</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>0</v>
+      </c>
+      <c r="B42" s="14">
+        <v>40</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>0</v>
+      </c>
+      <c r="B43" s="14">
+        <v>41</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>0</v>
+      </c>
+      <c r="B44" s="14">
+        <v>42</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>0</v>
+      </c>
+      <c r="B45" s="14">
+        <v>43</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>0</v>
+      </c>
+      <c r="B46" s="14">
+        <v>44</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>0</v>
+      </c>
+      <c r="B47" s="14">
+        <v>45</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>0</v>
+      </c>
+      <c r="B48" s="14">
+        <v>46</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>0</v>
+      </c>
+      <c r="B49" s="14">
+        <v>47</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>0</v>
+      </c>
+      <c r="B50" s="14">
+        <v>48</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>0</v>
+      </c>
+      <c r="B51" s="14">
+        <v>49</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>0</v>
+      </c>
+      <c r="B52" s="14">
+        <v>50</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>0</v>
+      </c>
+      <c r="B53" s="14">
+        <v>51</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>0</v>
+      </c>
+      <c r="B54" s="14">
+        <v>52</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="14"/>
+      <c r="B55" s="14"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="14"/>
+      <c r="B57" s="14"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="14"/>
+      <c r="B58" s="14"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="14"/>
+      <c r="B60" s="14"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="14"/>
+      <c r="B61" s="14"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="14"/>
+      <c r="B63" s="14"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="14"/>
+      <c r="B64" s="14"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A66" s="14"/>
+      <c r="B66" s="14"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A67" s="14"/>
+      <c r="B67" s="14"/>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A69" s="14"/>
+      <c r="B69" s="14"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A70" s="14"/>
+      <c r="B70" s="14"/>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72" s="14"/>
+      <c r="B72" s="14"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A73" s="14"/>
+      <c r="B73" s="14"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A75" s="14"/>
+      <c r="B75" s="14"/>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A76" s="14"/>
+      <c r="B76" s="14"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A78" s="14"/>
+      <c r="B78" s="14"/>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F34A0788-EDC2-4223-83C4-86DB5B63AE42}">
+  <dimension ref="A1:D109"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.75" style="15" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="15" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="32.625" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="14">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14">
+        <v>0</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="14">
+        <v>0</v>
+      </c>
+      <c r="B3" s="14">
+        <v>1</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="14">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14">
+        <v>2</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="14">
+        <v>0</v>
+      </c>
+      <c r="B5" s="14">
+        <v>3</v>
+      </c>
+      <c r="C5" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="14">
+        <v>0</v>
+      </c>
+      <c r="B6" s="14">
+        <v>4</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
+        <v>0</v>
+      </c>
+      <c r="B7" s="14">
+        <v>5</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
+        <v>0</v>
+      </c>
+      <c r="B8" s="14">
+        <v>6</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
+        <v>0</v>
+      </c>
+      <c r="B9" s="14">
+        <v>7</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>0</v>
+      </c>
+      <c r="B10" s="14">
+        <v>8</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
+        <v>0</v>
+      </c>
+      <c r="B11" s="14">
+        <v>9</v>
+      </c>
+      <c r="C11" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="14">
+        <v>0</v>
+      </c>
+      <c r="B12" s="14">
+        <v>10</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="14">
+        <v>0</v>
+      </c>
+      <c r="B13" s="14">
+        <v>11</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="14">
+        <v>0</v>
+      </c>
+      <c r="B14" s="14">
+        <v>12</v>
+      </c>
+      <c r="C14" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="14">
+        <v>0</v>
+      </c>
+      <c r="B15" s="14">
+        <v>13</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="14">
+        <v>0</v>
+      </c>
+      <c r="B16" s="14">
+        <v>14</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="14">
+        <v>0</v>
+      </c>
+      <c r="B17" s="14">
+        <v>15</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="14">
+        <v>0</v>
+      </c>
+      <c r="B18" s="14">
+        <v>16</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="14">
+        <v>0</v>
+      </c>
+      <c r="B19" s="14">
+        <v>17</v>
+      </c>
+      <c r="C19" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="14">
+        <v>0</v>
+      </c>
+      <c r="B20" s="14">
+        <v>18</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="14">
+        <v>0</v>
+      </c>
+      <c r="B21" s="14">
+        <v>19</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="14">
+        <v>0</v>
+      </c>
+      <c r="B22" s="14">
+        <v>20</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="14">
+        <v>0</v>
+      </c>
+      <c r="B23" s="14">
+        <v>21</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="14">
+        <v>0</v>
+      </c>
+      <c r="B24" s="14">
+        <v>22</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="14">
+        <v>0</v>
+      </c>
+      <c r="B25" s="14">
+        <v>23</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="14">
+        <v>0</v>
+      </c>
+      <c r="B26" s="14">
+        <v>24</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="14">
+        <v>0</v>
+      </c>
+      <c r="B27" s="14">
+        <v>25</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="14">
+        <v>0</v>
+      </c>
+      <c r="B28" s="14">
+        <v>26</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="14">
+        <v>0</v>
+      </c>
+      <c r="B29" s="14">
+        <v>27</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D29" s="15" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="14">
+        <v>0</v>
+      </c>
+      <c r="B30" s="14">
+        <v>28</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="14">
+        <v>0</v>
+      </c>
+      <c r="B31" s="14">
+        <v>29</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D31" s="15" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="14">
+        <v>0</v>
+      </c>
+      <c r="B32" s="14">
+        <v>30</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="14">
+        <v>0</v>
+      </c>
+      <c r="B33" s="14">
+        <v>31</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="14">
+        <v>0</v>
+      </c>
+      <c r="B34" s="14">
+        <v>32</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="14">
+        <v>0</v>
+      </c>
+      <c r="B35" s="14">
+        <v>33</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="14">
+        <v>0</v>
+      </c>
+      <c r="B36" s="14">
+        <v>34</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="14">
+        <v>0</v>
+      </c>
+      <c r="B37" s="14">
+        <v>35</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="14">
+        <v>0</v>
+      </c>
+      <c r="B38" s="14">
+        <v>36</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="14">
+        <v>0</v>
+      </c>
+      <c r="B39" s="14">
+        <v>37</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="14">
+        <v>0</v>
+      </c>
+      <c r="B40" s="14">
+        <v>38</v>
+      </c>
+      <c r="C40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="15" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="14">
+        <v>0</v>
+      </c>
+      <c r="B41" s="14">
+        <v>39</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="15" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="14">
+        <v>0</v>
+      </c>
+      <c r="B42" s="14">
+        <v>40</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="15" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="14">
+        <v>0</v>
+      </c>
+      <c r="B43" s="14">
+        <v>41</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="15" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="14">
+        <v>0</v>
+      </c>
+      <c r="B44" s="14">
+        <v>42</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="15" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="14">
+        <v>0</v>
+      </c>
+      <c r="B45" s="14">
+        <v>43</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="15" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="14">
+        <v>0</v>
+      </c>
+      <c r="B46" s="14">
+        <v>44</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="14">
+        <v>0</v>
+      </c>
+      <c r="B47" s="14">
+        <v>45</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D47" s="15" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="14">
+        <v>0</v>
+      </c>
+      <c r="B48" s="14">
+        <v>46</v>
+      </c>
+      <c r="C48" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D48" s="15" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="14">
+        <v>0</v>
+      </c>
+      <c r="B49" s="14">
+        <v>47</v>
+      </c>
+      <c r="C49" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D49" s="15" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="14">
+        <v>0</v>
+      </c>
+      <c r="B50" s="14">
+        <v>48</v>
+      </c>
+      <c r="C50" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="14">
+        <v>0</v>
+      </c>
+      <c r="B51" s="14">
+        <v>49</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="14">
+        <v>0</v>
+      </c>
+      <c r="B52" s="14">
+        <v>50</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D52" s="15" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="14">
+        <v>0</v>
+      </c>
+      <c r="B53" s="14">
+        <v>51</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="15" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="14">
+        <v>0</v>
+      </c>
+      <c r="B54" s="14">
+        <v>52</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D54" s="15" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="14">
+        <v>0</v>
+      </c>
+      <c r="B55" s="14">
+        <v>53</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D55" s="15" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="14">
+        <v>0</v>
+      </c>
+      <c r="B56" s="14">
+        <v>54</v>
+      </c>
+      <c r="C56" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D56" s="15" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="14">
+        <v>0</v>
+      </c>
+      <c r="B57" s="14">
+        <v>55</v>
+      </c>
+      <c r="C57" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D57" s="15" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="14">
+        <v>0</v>
+      </c>
+      <c r="B58" s="14">
+        <v>56</v>
+      </c>
+      <c r="C58" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D58" s="15" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="14">
+        <v>0</v>
+      </c>
+      <c r="B59" s="14">
+        <v>57</v>
+      </c>
+      <c r="C59" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D59" s="15" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="14">
+        <v>0</v>
+      </c>
+      <c r="B60" s="14">
+        <v>58</v>
+      </c>
+      <c r="C60" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="15" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="14">
+        <v>0</v>
+      </c>
+      <c r="B61" s="14">
+        <v>59</v>
+      </c>
+      <c r="C61" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D61" s="15" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="14">
+        <v>0</v>
+      </c>
+      <c r="B62" s="14">
+        <v>60</v>
+      </c>
+      <c r="C62" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D62" s="15" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="14">
+        <v>0</v>
+      </c>
+      <c r="B63" s="14">
+        <v>61</v>
+      </c>
+      <c r="C63" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D63" s="15" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="14">
+        <v>0</v>
+      </c>
+      <c r="B64" s="14">
+        <v>62</v>
+      </c>
+      <c r="C64" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="15" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="14">
+        <v>0</v>
+      </c>
+      <c r="B65" s="14">
+        <v>63</v>
+      </c>
+      <c r="C65" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D65" s="15" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="14">
+        <v>0</v>
+      </c>
+      <c r="B66" s="14">
+        <v>64</v>
+      </c>
+      <c r="C66" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" s="15" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="14">
+        <v>0</v>
+      </c>
+      <c r="B67" s="14">
+        <v>65</v>
+      </c>
+      <c r="C67" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="15" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="14">
+        <v>0</v>
+      </c>
+      <c r="B68" s="14">
+        <v>66</v>
+      </c>
+      <c r="C68" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D68" s="15" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="14">
+        <v>0</v>
+      </c>
+      <c r="B69" s="14">
+        <v>67</v>
+      </c>
+      <c r="C69" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="15" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="14">
+        <v>0</v>
+      </c>
+      <c r="B70" s="14">
+        <v>68</v>
+      </c>
+      <c r="C70" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D70" s="15" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="14">
+        <v>0</v>
+      </c>
+      <c r="B71" s="14">
+        <v>69</v>
+      </c>
+      <c r="C71" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D71" s="15" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="14">
+        <v>0</v>
+      </c>
+      <c r="B72" s="14">
+        <v>70</v>
+      </c>
+      <c r="C72" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="15" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="14">
+        <v>0</v>
+      </c>
+      <c r="B73" s="14">
+        <v>71</v>
+      </c>
+      <c r="C73" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D73" s="15" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="14">
+        <v>0</v>
+      </c>
+      <c r="B74" s="14">
+        <v>72</v>
+      </c>
+      <c r="C74" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D74" s="15" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="14">
+        <v>0</v>
+      </c>
+      <c r="B75" s="14">
+        <v>73</v>
+      </c>
+      <c r="C75" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D75" s="15" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="14">
+        <v>0</v>
+      </c>
+      <c r="B76" s="14">
+        <v>74</v>
+      </c>
+      <c r="C76" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="D76" s="15" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="14">
+        <v>0</v>
+      </c>
+      <c r="B77" s="14">
+        <v>75</v>
+      </c>
+      <c r="C77" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D77" s="15" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="14">
+        <v>0</v>
+      </c>
+      <c r="B78" s="14">
+        <v>76</v>
+      </c>
+      <c r="C78" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D78" s="15" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="14"/>
+      <c r="B79" s="14"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A81" s="14"/>
+      <c r="B81" s="14"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" s="14"/>
+      <c r="B82" s="14"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" s="14"/>
+      <c r="B84" s="14"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" s="14"/>
+      <c r="B85" s="14"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" s="14"/>
+      <c r="B87" s="14"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" s="14"/>
+      <c r="B88" s="14"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A90" s="14"/>
+      <c r="B90" s="14"/>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A91" s="14"/>
+      <c r="B91" s="14"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93" s="14"/>
+      <c r="B93" s="14"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94" s="14"/>
+      <c r="B94" s="14"/>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A96" s="14"/>
+      <c r="B96" s="14"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A97" s="14"/>
+      <c r="B97" s="14"/>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A99" s="14"/>
+      <c r="B99" s="14"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A100" s="14"/>
+      <c r="B100" s="14"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A102" s="14"/>
+      <c r="B102" s="14"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A103" s="14"/>
+      <c r="B103" s="14"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A105" s="14"/>
+      <c r="B105" s="14"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A106" s="14"/>
+      <c r="B106" s="14"/>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A108" s="14"/>
+      <c r="B108" s="14"/>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A109" s="14"/>
+      <c r="B109" s="14"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D7FA8D6-98D8-4121-B818-CFF4DE56028E}">
   <dimension ref="A1:D36"/>
